--- a/806209426/localisation/excel/bramja_events_l_german.xlsx
+++ b/806209426/localisation/excel/bramja_events_l_german.xlsx
@@ -28,127 +28,127 @@
     <t xml:space="preserve"> bramja.14.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Atomic bombing Continues...</t>
+    <t xml:space="preserve">Atombombenabwurf geht weiter...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.14.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The fear that more atomic bombs would be used against human life, has been realised today...  Todays bombing of [From.From.GetName] is another testament to the hellish nature of war and another sad episode in the history of man\n ...and perhaps one of the last? </t>
+    <t xml:space="preserve">Die Befürchtung, dass weitere Atombomben gegen Menschenleben eingesetzt werden, hat sich heute bewahrheitet...  Die heutige Bombardierung von [Von.Von.GetName] ist ein weiteres Zeugnis für die höllische Natur des Krieges und eine weitere traurige Episode in der Geschichte des Menschen ... und vielleicht eine der letzten? </t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.14.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The heat is almost as hot as Amanda</t>
+    <t xml:space="preserve">Die Hitze ist fast so heiß wie Amanda</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.14.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Will they do anything to win this war?!</t>
+    <t xml:space="preserve">Werden sie alles tun, um diesen Krieg zu gewinnen?!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.1.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">\nIncreasing draft evasion in [From.GetNameDef]...</t>
+    <t xml:space="preserve">\nSteigende Wehrdienstverweigerung in [From.GetNameDef]...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.1.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">\n\n\nWorrying reports are coming in from [From.GetNameDef], due to loss of faith in the leadership, draft evasion is on the rise. Can [From.GetLeader] still inspire his people?</t>
+    <t xml:space="preserve">\n\n\nBesorgniserregende Berichte kommen aus [Von.GetNameDef], aufgrund des Vertrauensverlustes in die Führung nimmt die Wehrdienstverweigerung zu. Kann [From.GetLeader] seine Leute noch inspirieren?</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.1.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Hopefully this is handled before our enemies can use this to their advantage...</t>
+    <t xml:space="preserve">Hoffentlich ist die Sache erledigt, bevor unsere Feinde dies zu ihrem Vorteil nutzen können...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.1.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Cowardice only leads to destruction...</t>
+    <t xml:space="preserve">Feigheit führt nur zur Zerstörung...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.2.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Social unrest reaches tipping point in [From.GetNameDef]</t>
+    <t xml:space="preserve">Soziale Unruhen erreichen in [From.GetNameDef] den Kipppunkt</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.2.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">\nThe cocktail of existing internal divides and increasing outside pressures, is starting to tear the [From.GetAdjective] nation apart from within. Strikes have broken out accross [From.GetNameDef] which the [From.GetAdjective] [From.GetRulingParty] has to resolve to reverse the trend.</t>
+    <t xml:space="preserve">\Der Cocktail aus bestehenden internen Spaltungen und zunehmendem Druck von außen beginnt, die [From.GetAdjective] Nation von innen heraus zu zerreißen. In ganz [Von.GetNameDef] sind Streiks ausgebrochen, die die [Von.GetAdjective] [Von.GetRulingParty] lösen muss, um den Trend umzukehren.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.2.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The Home Front cannot falter, the men must be put back to work!</t>
+    <t xml:space="preserve">Die Heimatfront darf nicht wanken, die Männer müssen wieder an die Arbeit gehen!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.2.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The ideological foundations of [From.GetNameDef] seem to be sinking like on quicksand!</t>
+    <t xml:space="preserve">Die ideologischen Grundlagen von [From.GetNameDef] scheinen wie auf Treibsand zu versinken!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.3.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Insurrection in [From.GetNameDef]!</t>
+    <t xml:space="preserve">Aufstand in [Von.GetNameDef]!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.3.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Little more than two decades ago, mutinies sprang up as the Great War seemingly endlessy condused the life spirit of nations. However the people who rose up often saw their countries defeated and rarely ended up better in the long run...\nIf the [From.GetAdjective] leadership doesn't stop this in its infancy, it might well mean the end of the war...and their nation</t>
+    <t xml:space="preserve">Vor etwas mehr als zwei Jahrzehnten kam es zu Meutereien, als der Große Krieg den Lebensgeist der Nationen scheinbar endlos verdarb. Doch die Menschen, die sich erhoben, sahen ihre Länder oft besiegt und selten ging es ihnen auf lange Sicht besser...\nWenn die [From.GetAdjective]-Führung dies nicht im Keim erstickt, könnte es das Ende des Krieges bedeuten...und ihrer Nation</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.3.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">We have to douse the fire before it engulfs our entire nation!</t>
+    <t xml:space="preserve">Wir müssen das Feuer löschen, bevor es unsere ganze Nation verschlingt!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.3.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Who can blame them really? Well outside of their wives, children, parents, historians to be, etc.</t>
+    <t xml:space="preserve">Wer kann es ihnen wirklich verdenken? Abgesehen von ihren Ehefrauen, Kindern, Eltern, zukünftigen Historikern, usw.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.3.c:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The greatest victory is that which requires no battle... our might and determination slowly but surely crushes the enemies spine! </t>
+    <t xml:space="preserve">Der größte Sieg ist der, der keine Schlacht erfordert... unsere Macht und Entschlossenheit zerbricht langsam aber sicher das Rückgrat des Feindes! </t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.6.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">General MacArthur has forcefully taken over the [From.GetAdjective] government!</t>
+    <t xml:space="preserve">General MacArthur hat die [From.GetAdjective]-Regierung gewaltsam an sich gerissen!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.6.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">MacArthur and like minded generals have made use of the popular dissatisfaction caused by the fruitless sacrifices and the means used in the ongoing war. He promises a swift victory, one way or another... \n\n Whatever MacArthur plans to do once and if the war is won with his powers, remains unclear...</t>
+    <t xml:space="preserve">MacArthur und gleichgesinnte Generäle haben sich die Unzufriedenheit der Bevölkerung zunutze gemacht, die durch die vergeblichen Opfer und die im laufenden Krieg eingesetzten Mittel entstanden ist. Er verspricht einen raschen Sieg, so oder so... \Was MacArthur zu tun gedenkt, sobald und falls der Krieg mit seinen Kräften gewonnen ist, bleibt unklar...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.6.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">We should defend Democracy in America! Fight this blood crazed general!</t>
+    <t xml:space="preserve">Wir sollten die Demokratie in Amerika verteidigen! Kämpft gegen diesen blutrünstigen General!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.6.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Hail MacArthur, Saviour of America!</t>
+    <t xml:space="preserve">Es lebe MacArthur, der Retter Amerikas!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.7.t:0</t>
@@ -160,25 +160,25 @@
     <t xml:space="preserve"> bramja.7.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">MacArthur and like minded generals have made use of the popular dissatisfaction caused by the fruitless sacrifices and the means used in the ongoing war. With promises of a swift victory, MacArthur led a putsch against [USA.GetLeader]s government.\nNotwithstanding the diminishing popular and military support for [USA.GetLeader] and his [From.GetRulingParty] government, they were still able to prevent MacArthurs takeover of the entire country. \n\nThe battle lines between MacArthurs forces and those of the government will cut right through families and the American nation, as former minor differences of opnion slowly turn into civil war... </t>
+    <t xml:space="preserve">MacArthur und gleichgesinnte Generäle haben sich die Unzufriedenheit der Bevölkerung zunutze gemacht, die durch die vergeblichen Opfer und die im laufenden Krieg eingesetzten Mittel entstanden ist. Mit dem Versprechen eines schnellen Sieges führte MacArthur einen Putsch gegen die Regierung von [USA.GetLeader] an.\nUngeachtet der schwindenden Unterstützung des Volkes und des Militärs für [USA.GetLeader] und seine Regierung [From.GetRulingParty] konnten sie MacArthurs Übernahme des gesamten Landes noch verhindern. \n\nDie Kampflinien zwischen MacArthurs Streitkräften und denen der Regierung werden quer durch die Familien und die amerikanische Nation verlaufen, da sich ehemals geringfügige Meinungsverschiedenheiten langsam in einen Bürgerkrieg verwandeln... </t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.7.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">They will be out of the war for a good while...</t>
+    <t xml:space="preserve">Sie werden für eine ganze Weile aus dem Krieg heraus sein...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.7.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">With America distracted and soon in flames, who can stop us?</t>
+    <t xml:space="preserve">Wenn Amerika abgelenkt ist und bald in Flammen steht, wer kann uns aufhalten?</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.7.c:0</t>
   </si>
   <si>
-    <t xml:space="preserve">And so the Bastion of Democracy falls...</t>
+    <t xml:space="preserve">Und so fällt die Bastion der Demokratie...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.7.d_2:0</t>
@@ -190,13 +190,13 @@
     <t xml:space="preserve"> bramja.8.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">What with our allies?</t>
+    <t xml:space="preserve">Was ist mit unseren Verbündeten?</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.8.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Now that general MacArthur has established his rule, we have decide what to do about our membership of [Root.GetFactionName]. Our allies have drawn, some even say manipulated, us into the war, thus many amongst our people and the leadership feel we should leave them to their fate, correcting the mistake of ending our policy of Isolationism. \n\nEven though this would leave us weaker in face of our enemies, it would further legitimize our rule, as we prove we stand by our propagated goals for taking over the government.\nOur allies have anyway proven to be an impediment to the conduct of the war which is not ours, we have little to loose.</t>
+    <t xml:space="preserve">Nun, da General MacArthur seine Herrschaft errichtet hat, müssen wir entscheiden, was mit unserer Mitgliedschaft in [Root.GetFactionName] geschehen soll. Unsere Verbündeten haben uns in den Krieg hineingezogen, manche sagen sogar, sie haben uns manipuliert, und deshalb sind viele in unserem Volk und in der Führung der Meinung, wir sollten sie ihrem Schicksal überlassen und den Fehler korrigieren, unsere Politik des Isolationismus zu beenden. \n\nAuch wenn wir dadurch unseren Feinden gegenüber schwächer wären, würde dies unsere Herrschaft weiter legitimieren, da wir beweisen, dass wir zu unseren propagierten Zielen für die Übernahme der Regierung stehen.\nUnsere Verbündeten haben sich ohnehin als Hindernis für die Führung des Krieges erwiesen, der nicht der unsere ist, wir haben wenig zu verlieren.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.8.a:0</t>
@@ -208,37 +208,37 @@
     <t xml:space="preserve"> bramja.8.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">We need our allies, at least for now...</t>
+    <t xml:space="preserve">Wir brauchen unsere Verbündeten, zumindest im Moment...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.9.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">MacArthur starts return to Isolationism!</t>
+    <t xml:space="preserve">MacArthur leitet die Rückkehr zum Isolationismus ein!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.9.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">In line with his program, MacArthur started the return to Isolationism today, by officially declaring their aliances outside of the Western Hemisphere null and void. America fights alone, but also stands alone, for now...</t>
+    <t xml:space="preserve">Im Einklang mit seinem Programm hat MacArthur heute die Rückkehr zum Isolationismus eingeleitet, indem er die Bündnisse außerhalb der westlichen Hemisphäre offiziell für null und nichtig erklärte. Amerika kämpft allein, steht aber auch allein da, vorerst...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.9.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Sad it had to come to this... We shall persevere on our own!</t>
+    <t xml:space="preserve">Traurig, dass es so weit kommen musste... Wir werden auf uns allein gestellt durchhalten!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.9.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Divide and conquer...</t>
+    <t xml:space="preserve">Teile und herrsche...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.9.c:0</t>
   </si>
   <si>
-    <t xml:space="preserve">How will this impact the course of the war?</t>
+    <t xml:space="preserve">Wie wird sich dies auf den Verlauf des Krieges auswirken?</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.9.d_2:0</t>
@@ -250,103 +250,103 @@
     <t xml:space="preserve"> bramja.10.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">MacArthur Stays true to the [Root.GetFactionName]</t>
+    <t xml:space="preserve">MacArthur bleibt der [Root.GetFactionName] treu</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.10.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Going against the expectations, the newly appointed minister of war of [From.GetNameDef] has spoken publicly on their maintainance of commitments made to the their allies for the duration of the current war. \nGiven MacArthurs supporters mainly advocate for a return to isolationism, this can have consequences for his rule.</t>
+    <t xml:space="preserve">Entgegen den Erwartungen hat sich der neu ernannte Kriegsminister von [From.GetNameDef] öffentlich zur Einhaltung der gegenüber den Verbündeten eingegangenen Verpflichtungen für die Dauer des laufenden Krieges geäußert. \Da MacArthurs Anhänger hauptsächlich für eine Rückkehr zum Isolationismus plädieren, kann dies Folgen für seine Herrschaft haben.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.10.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">A surprise indeed, and a good one</t>
+    <t xml:space="preserve">In der Tat eine Überraschung, und eine gute dazu</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.10.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">We shall crush them nonetheless</t>
+    <t xml:space="preserve">Wir werden sie trotzdem vernichten</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.10.c:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Stratocracy or democracy, what does is it matter</t>
+    <t xml:space="preserve">Stratokratie oder Demokratie, was spielt das für eine Rolle?</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.11.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Communists revolt as our enemies close in!</t>
+    <t xml:space="preserve">Kommunisten revoltieren, während unsere Feinde immer näher rücken!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.11.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">With the war against bolshevism in the east still ongoing and the invasion of our homelands, [SOV.GetNameDef] has instructed communists in our country to rise up. Our situation is becoming more and more precarious every day. We must act fast if we still want to prevent our destruction by enemies from without and within!</t>
+    <t xml:space="preserve">Angesichts des noch immer andauernden Krieges gegen den Bolschewismus im Osten und der Invasion in unsere Heimatländer hat [SOV.GetNameDef] die Kommunisten in unserem Land angewiesen, sich zu erheben. Unsere Lage wird von Tag zu Tag prekärer. Wir müssen schnell handeln, wenn wir unsere Vernichtung durch Feinde von außen und innen noch verhindern wollen!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.11.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Our lands are becoming mere bargaining chips to be used in the grand game of chess!</t>
+    <t xml:space="preserve">Unsere Länder werden zu bloßen Verhandlungsobjekten, die im großen Schachspiel eingesetzt werden!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.12.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">\n\nCommunists revolt in [From.GetNameDef] as enemies close in</t>
+    <t xml:space="preserve">\n\nKommunisten revoltieren in [From.GetNameDef], während die Feinde näher rücken</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.12.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">\n\n\n\nWith the [Root.GetFactionName] still waging war against bolshevism in the east, while the [From.GetAdjective] homelands are being invaded, [SOV.GetLeader] has instructed [From.GetAdjective] communists to rise up. [From.GetNameDef]s situation is becoming more and more precarious every day...</t>
+    <t xml:space="preserve">\Da die [Root.GetFactionName] immer noch Krieg gegen den Bolschewismus im Osten führt, während die [From.GetAdjective]-Heimatländer überfallen werden, hat [SOV.GetLeader] die [From.GetAdjective]-Kommunisten angewiesen, sich zu erheben. Die Lage der [From.GetNameDef]s wird von Tag zu Tag prekärer...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.12.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Either a white or a red flag, it seems the [From.GetAdjective] are useless allies!</t>
+    <t xml:space="preserve">Entweder eine weiße oder eine rote Fahne, die [From.GetAdjective] sind anscheinend nutzlose Verbündete!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.12.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The end of the [From.GetAdjective] puppet state is nigh</t>
+    <t xml:space="preserve">Das Ende des [From.GetAdjective]-Marionettenstaats ist nah</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.12.c:0</t>
   </si>
   <si>
-    <t xml:space="preserve">It is time the [From.GetAdjective] choose who they want in charge!</t>
+    <t xml:space="preserve">Es ist an der Zeit, dass die [From.GetAdjective] wählen, wen sie an der Macht haben wollen!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja_13a_tt:0</t>
   </si>
   <si>
-    <t xml:space="preserve">We will lose control over our subjects given our dire situation.\n If Manchuko feels it cannot survive without our support, they might choose to stay loyal to us.\n This will largely depend on how much of an immediate threat the Russians form to them. </t>
+    <t xml:space="preserve">Angesichts unserer misslichen Lage werden wir die Kontrolle über unsere Untertanen verlieren.\n Wenn Mandschuko das Gefühl hat, dass es ohne unsere Unterstützung nicht überleben kann, wird es sich vielleicht dafür entscheiden, uns treu zu bleiben.\n Das wird weitgehend davon abhängen, wie groß die unmittelbare Bedrohung durch die Russen für sie ist. </t>
   </si>
   <si>
     <t xml:space="preserve"> bramja_13b_tt:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Does the exact same as the first option, but you will also declare war on all former subjects.</t>
+    <t xml:space="preserve">Führt genau dasselbe durch wie die erste Option, aber Sie werden auch allen ehemaligen Untertanen den Krieg erklären.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.13.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Rebellions in our overseas conquests!</t>
+    <t xml:space="preserve">Rebellionen in unseren überseeischen Eroberungsgebieten!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.13.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The Dai Nippon Teikoku is on the brink of the abyss. With the hated gaijin ever more constricting us like the snakes they are, our connections with the overseas parts of the empire are withering away. Our Asian \"brethren\" have made use of this situation to betray our cause and go their own way. Realistically we have little means to \"guide\" them back in our folds, even though these wayward nations are often weak and divided. What shall we do?</t>
+    <t xml:space="preserve">Die Dai Nippon Teikoku befindet sich am Rande des Abgrunds. Da die verhassten Gaijin uns immer mehr einschnüren wie die Schlangen, die sie sind, verkümmern unsere Verbindungen mit den überseeischen Teilen des Reiches. Unsere asiatischen \"Brüder\" haben diese Situation genutzt, um unsere Sache zu verraten und ihren eigenen Weg zu gehen. Realistisch betrachtet haben wir kaum Mittel, um sie in unsere Schranken zu verweisen, auch wenn diese abtrünnigen Nationen oft schwach und gespalten sind. Was sollen wir also tun?</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.13.a:0</t>
@@ -364,169 +364,169 @@
     <t xml:space="preserve"> bramja.16.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Japanese sphere falling apart</t>
+    <t xml:space="preserve">Zerfall der japanischen Sphäre</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.16.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Most of the Japanese overseas allies and subjects have risen up against their former \"protector\". They cite the increasing oppressiveness of Nippon within the Sphere as their main reason. One leader of the formerly subjected nations formulated it as follows:\n\"The Japanese were supposedly freeing us from Western imperialism. However in the end they were worse as an antidote than the poison itself...\" The reason why this is happening now is obvious: with their navy mostly resting at the bottom of the sea, the [From.GetAdjective] overseas holdings had been cut off from the Home Islands. However this turns out, it will surely be a turning point in Asian history.</t>
+    <t xml:space="preserve">Die meisten der japanischen Verbündeten und Untertanen in Übersee haben sich gegen ihren ehemaligen "Beschützer" erhoben. Als Hauptgrund geben sie die zunehmende Unterdrückung durch Nippon innerhalb der Sphäre an. Ein Führer der ehemals unterworfenen Nationen formulierte es folgendermaßen: "Die Japaner haben uns angeblich vom westlichen Imperialismus befreit. Doch am Ende waren sie als Gegengift schlimmer als das Gift selbst...\" Der Grund, warum dies jetzt geschieht, liegt auf der Hand: Da ihre Marine größtenteils auf dem Meeresgrund lag, waren die [From.GetAdjective] Überseegebiete von den Heimatinseln abgeschnitten. Wie auch immer es ausgeht, es wird sicherlich ein Wendepunkt in der asiatischen Geschichte sein.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.16.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">This chaos in the East won't help our cause!</t>
+    <t xml:space="preserve">Dieses Chaos im Osten wird unserer Sache nicht dienlich sein!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.16.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">This not the end of the beginning anymore, but the beginning of the end!</t>
+    <t xml:space="preserve">Dies ist nicht mehr das Ende vom Anfang, sondern der Anfang vom Ende!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.16.c:0</t>
   </si>
   <si>
-    <t xml:space="preserve">East or West, none are spared in the conflagration</t>
+    <t xml:space="preserve">Ob im Osten oder im Westen, keiner wird von der Feuersbrunst verschont.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.17.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The Middle Kingdom...</t>
+    <t xml:space="preserve">Das Reich der Mitte...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.17.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">§B\"The Empire, long divided, must unite; long united, must divide. Thus it has ever been.\"§!\n\nSo it was written in China's most read book the \"Romance of the Three Kingdoms\" (Sānguó Yǎnyì). The book phrases a view common throughout the East, a philosophy which conceives history as circular, Ying &amp; Yang, as the eternal self eating snake, the ever swinging pendulum, back and forth, never really moving. Westerners often grew up with the linear view of history, as if always working its way to a final climax (or rather a literal Apocalypse), as so it is taught by the Abrahamic Religions. Not surprisingly, this difference in worldview has been used by Westerners to explain and justify their superiority over the world, as this would lead to a more active, driven people who wouldn't accept their lot but would always strive for more... \n \nRecent events in China could prove the already battered beliefs of the West wrong. Recently the well known saying has been going over the lips markedly more throughout China, as adapted versions of the Chinese novel spread out from the North. The adaptions are well crafted, stressings the analogies between the present and the past. This is only one of many ways how the idea spreads that \"the unity and prosperity  of the Chinese realm\" shall soon return, guided by the Mandate of Heaven.</t>
+    <t xml:space="preserve">§B§B \"Das Reich, lange geteilt, muss sich vereinen; lange vereint, muss sich trennen. So ist es schon immer gewesen.\" §!§! \n\nSo stand es in Chinas meistgelesenem Buch, dem \"Roman der drei Reiche\" (Sānguó Yǎnyì). Das Buch formuliert eine im gesamten Osten verbreitete Sichtweise, eine Philosophie, die die Geschichte als kreisförmig, als Ying und Yang, als die ewige, sich selbst verzehrende Schlange, als das ewig schwingende Pendel, das hin und her schwingt und sich nie wirklich bewegt, begreift. Westler sind oft mit einer linearen Sicht der Geschichte aufgewachsen, als ob sie immer auf einen endgültigen Höhepunkt (oder besser gesagt eine buchstäbliche Apokalypse) zusteuert, wie sie von den abrahamitischen Religionen gelehrt wird. Es überrascht nicht, dass dieser Unterschied in der Weltanschauung von den Menschen des Westens benutzt wurde, um ihre Überlegenheit über die Welt zu erklären und zu rechtfertigen, da dies zu einem aktiveren, getriebeneren Volk führen würde, das sich nicht mit seinem Schicksal abfindet, sondern immer nach mehr strebt... \n \nDie jüngsten Ereignisse in China könnten die bereits angeschlagenen Überzeugungen des Westens widerlegen. In letzter Zeit ist das bekannte Sprichwort in ganz China deutlich mehr über die Lippen gekommen, da sich vom Norden aus adaptierte Versionen des chinesischen Romans ausbreiten. Die Bearbeitungen sind gut gemacht und betonen die Analogien zwischen Gegenwart und Vergangenheit. Dies ist nur eine von vielen Möglichkeiten, wie sich die Idee verbreitet, dass \"die Einheit und der Wohlstand des chinesischen Reiches\" bald zurückkehren werden, geleitet durch das Mandat des Himmels.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.17.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve"> \n\n §T §T [MAN.GetFlag]</t>
+    <t xml:space="preserve"> \n\n §T§T §T§T [MAN.GetFlag]</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.17.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve"> \n §T Fate is with the Qing\n To part 2  §T [MAN.GetFlag]</t>
+    <t xml:space="preserve"> \n §T§T Das Schicksal ist mit den Qing\n Zu Teil 2 §T§T [MAN.GetFlag]</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.18.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">...will rise from the ash or be forever extinguished?</t>
+    <t xml:space="preserve">...wird sich aus der Asche erheben oder für immer ausgelöscht werden?</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.18.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The last dark decennia, in which China sank away into the chaos of Unequal Treaties, warlords, revolutionaries and finally unrelenting invaders, does seem to be coming to an end. Today in [Root.Capital.GetName] it was announced in the proper ritualistic fashion, how [FROM.GetLeader] was crowned Emperor of all of China once more. The final defeat of China's existential threats by the [From.GetAdjective] armies, had proven to whom the Mandate rightfully belonged, just as it had before. \nThe [From.GetRulingParty] have proven to be excellent propagandists over the last decade, using the course of events of the last decennia until now to fit a story with only one possible conclusion, the Qing, and the Qing only can show the path for China to regain its place in the world, in the center of it! Even the most cynic Western colonialist or idealistic Chinese republicans, must at times doubt their cause, as [From.GetName] now likely is the  most developed, resource rich and well armed state left in the Middle Kingdom.\nWill the Chinese Empire stand and complete the cycle once more, showing the world the Middle Kingdom ìs to last forever? Or will those who pursued the Middle Kingdoms demise enjoy final vindication?</t>
+    <t xml:space="preserve">Die letzten dunklen Jahrzehnte, in denen China im Chaos von ungleichen Verträgen, Kriegsherren, Revolutionären und schließlich unerbittlichen Invasoren versank, scheinen sich ihrem Ende zu nähern. Heute wurde in [Root.Capital.GetName] rituell verkündet, wie [FROM.GetLeader] erneut zum Kaiser von ganz China gekrönt wurde. Die endgültige Niederlage der existenziellen Bedrohungen Chinas durch die Armeen von [FROM.GetAdjective] hatte bewiesen, wem das Mandat rechtmäßig gehörte, so wie es zuvor der Fall war. \Die [From.GetRulingParty] haben sich in den letzten zehn Jahren als hervorragende Propagandisten erwiesen, die den Verlauf der Ereignisse der letzten Jahrzehnte bis heute in eine Geschichte einpassen, die nur eine mögliche Schlussfolgerung zulässt: die Qing, und nur die Qing können China den Weg weisen, seinen Platz in der Welt wieder einzunehmen, im Zentrum der Welt! Selbst die zynischsten westlichen Kolonialisten oder die idealistischsten chinesischen Republikaner müssen manchmal an ihrer Sache zweifeln, da [Von.GetName] jetzt wahrscheinlich der am weitesten entwickelte, ressourcenreichste und am besten bewaffnete Staat ist, der im Reich der Mitte übrig geblieben ist.\nWird das chinesische Kaiserreich aufstehen und den Zyklus noch einmal vollenden und der Welt zeigen, dass das Reich der Mitte für immer Bestand haben wird? Oder werden diejenigen, die den Untergang des Reichs der Mitte verfolgten, endgültig Recht behalten?</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.18.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">A century of lacking political shrewdness overcome, in few years? Perhaps, perhaps... that must mean something.</t>
+    <t xml:space="preserve">Ein Jahrhundert mangelnder politischer Klugheit überwunden, in wenigen Jahren? Vielleicht, vielleicht... das muss etwas bedeuten.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.22.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Establish Vichy France.</t>
+    <t xml:space="preserve">Etablierung von Vichy-Frankreich.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.22.c:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Establish Bourbon France.</t>
+    <t xml:space="preserve">Etablierung des bourbonischen Frankreichs.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.23.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The Second Armistice at Compiégne</t>
+    <t xml:space="preserve">Der zweite Waffenstillstand von Compiégne</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.23.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Following a betrayal by more defeatist elements in the government and military, an armistice between the [From.GetName] and the French has been signed at Compiégne, in the very railway carriage in which the German surrender in World War I was negotiated. [FRA.GetLeader] and his government were ousted after the disasterous defeats recently and fled overseas. The coup was mainly executed by radicals admiring the German ways...\n \nUnder the terms of the armistice, a French government under [vichy_france.GetLeader] based out of Vichy will continue to administer most of southern France, while the rest of the country falls under a German Occupation Zone. \n\n The French monarch and several French officers have vowed to continue resistance from abroad, but this puts an effective end to the fighting in France, at least for the time being.</t>
+    <t xml:space="preserve">Nach einem Verrat durch eher defätistische Elemente in der Regierung und im Militär wurde in Compiégne ein Waffenstillstand zwischen den [From.GetName] und den Franzosen unterzeichnet, und zwar in genau dem Eisenbahnwaggon, in dem die deutsche Kapitulation im Ersten Weltkrieg ausgehandelt wurde. [FRA.GetLeader] und seine Regierung wurden nach den katastrophalen Niederlagen der letzten Zeit gestürzt und flohen nach Übersee. Der Staatsstreich wurde hauptsächlich von Radikalen ausgeführt, die die deutschen Methoden bewunderten...\n \nNach den Bedingungen des Waffenstillstands wird eine französische Regierung unter [vichy_france.GetLeader] mit Sitz in Vichy den größten Teil Südfrankreichs weiter verwalten, während der Rest des Landes unter eine deutsche Besatzungszone fällt. \Der französische Monarch und einige französische Offiziere haben geschworen, den Widerstand aus dem Ausland fortzusetzen, aber damit sind die Kämpfe in Frankreich zumindest vorläufig beendet.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.23.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Will [FRA.GetLeader] be able to recover the French throne once more for his dynasty?</t>
+    <t xml:space="preserve">Wird es [FRA.GetLeader] gelingen, den französischen Thron wieder für seine Dynastie zu erobern?</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.23.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Konig, Kaiser oder Republik, Frankreich steht immer unter Deutschland!</t>
+    <t xml:space="preserve">König, Kaiser oder Republik, Frankreich steht immer unter Deutschland!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.25.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Alliance with the Brits?</t>
+    <t xml:space="preserve">Allianz mit den Briten?</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.25.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">With the ongoing German Invasion of Western Europe, we should perhaps reach out to our old ally and rival across sea. Even though our government has less love for the Brits than the republic, we should perhaps consider this alliance untill the German threat is defeated.</t>
+    <t xml:space="preserve">Angesichts der laufenden deutschen Invasion in Westeuropa sollten wir vielleicht unserem alten Verbündeten und Rivalen jenseits des Meeres die Hand reichen. Auch wenn unsere Regierung die Briten weniger liebt als die Republik, sollten wir dieses Bündnis vielleicht in Betracht ziehen, bis die deutsche Bedrohung besiegt ist.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.25.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Lets go for it, for now at least...</t>
+    <t xml:space="preserve">Lasst uns das tun, zumindest für den Moment...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.25.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">France can deal with this on its own just fine.</t>
+    <t xml:space="preserve">Frankreich kann das ganz gut allein bewältigen.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.26.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The French propose temporary alliance against Germany</t>
+    <t xml:space="preserve">Die Franzosen schlagen ein vorübergehendes Bündnis gegen Deutschland vor</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.26.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">While the current French regime is not the same as during the Great War, being less democratic and fundamentally more opposed to our interests, they have asked to create an allliance untill Germany is defeated. In the end we might just help one future foe defeat the current one, giving us larger troubles in the future...</t>
+    <t xml:space="preserve">Obwohl das derzeitige französische Regime nicht mehr dasselbe ist wie während des Ersten Weltkriegs, da es weniger demokratisch ist und unseren Interessen grundsätzlich ablehnender gegenübersteht, haben sie darum gebeten, ein Bündnis zu schließen, bis Deutschland besiegt ist. Am Ende könnten wir einem zukünftigen Feind helfen, den jetzigen zu besiegen, was uns in der Zukunft größere Probleme bereiten würde...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.26.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Lets go for it, we will think about future problems when we face them....</t>
+    <t xml:space="preserve">Lasst es uns tun, wir werden über zukünftige Probleme nachdenken, wenn wir ihnen gegenüberstehen....</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.26.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Let them fight it out.</t>
+    <t xml:space="preserve">Lasst sie es ausfechten.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.27.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Ending our membership of the Allies</t>
+    <t xml:space="preserve">Beendigung unserer Mitgliedschaft bei den Alliierten</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.27.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">With the German threat over, we should again strive towards own goals, which perhaps will go against our current allies...</t>
+    <t xml:space="preserve">Da die deutsche Bedrohung vorüber ist, sollten wir wieder eigene Ziele anstreben, die vielleicht gegen unsere derzeitigen Verbündeten gerichtet sind...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.27.a:0</t>
@@ -538,355 +538,355 @@
     <t xml:space="preserve"> bramja.27.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Perhaps we can still use some extra backup...</t>
+    <t xml:space="preserve">Vielleicht können wir noch etwas zusätzliche Unterstützung gebrauchen...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.28.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">[From.GetNameDef] leaves the Allies</t>
+    <t xml:space="preserve">[From.GetNameDef] verlässt die Alliierten</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.28.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">With the German threat defeated, [From.GetNameDef] has announced they will go their own way once more, mentioning ever more diverging goals now their common enemy has been laid low...</t>
+    <t xml:space="preserve">Nachdem die deutsche Bedrohung besiegt ist, hat [From.GetNameDef] angekündigt, dass sie wieder eigene Wege gehen werden, wobei sie immer weiter voneinander abweichende Ziele nennen, nachdem ihr gemeinsamer Feind besiegt wurde...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.28.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Will the French be new troublemakers in the European house?</t>
+    <t xml:space="preserve">Werden die Franzosen die neuen Unruhestifter im europäischen Haus sein?</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.29.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Our claims on Yugoslav lands</t>
+    <t xml:space="preserve">Unsere Ansprüche auf jugoslawisches Land</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.29.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">As Yugoslavia is currently at war with the Italians and their allies, now is the opportune moment to demand our lost land back from them, lest they face our wrath as well...</t>
+    <t xml:space="preserve">Da sich Jugoslawien derzeit im Krieg mit den Italienern und ihren Verbündeten befindet, ist jetzt der richtige Zeitpunkt, um unser verlorenes Land von ihnen zurückzufordern, damit sie nicht auch unseren Zorn zu spüren bekommen...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.29.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Trianon will be reversed!</t>
+    <t xml:space="preserve">Trianon wird rückgängig gemacht werden!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.29.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Our current situation is too dire currently...</t>
+    <t xml:space="preserve">Unsere gegenwärtige Situation ist derzeit zu schlimm...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.30.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Our brethern in Macedonia</t>
+    <t xml:space="preserve">Unseren Brüdern in Mazedonien</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.30.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Our old enemies in the West face invasion and occupation, this is a great opportunity to free our ancestral homelands of Macedonia and Thrace, we should not let this chance slip.</t>
+    <t xml:space="preserve">Unsere alten Feinde im Westen stehen vor einer Invasion und Besetzung, dies ist eine große Chance, unsere angestammten Heimatländer Makedonien und Thrakien zu befreien, wir sollten diese Chance nicht verstreichen lassen.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.30.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">We will take what is ours.</t>
+    <t xml:space="preserve">Wir werden uns nehmen, was uns gehört.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.30.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Our position is too precarious too risk this.</t>
+    <t xml:space="preserve">Unsere Lage ist zu prekär, um dies zu riskieren.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.31.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Bulgaria prepares occupation of Macedonia</t>
+    <t xml:space="preserve">Bulgarien bereitet die Besetzung Mazedoniens vor</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.31.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">As their old enemies in Greece and Yugoslavia are being invaded, Bulgaria has proclaimed once more that Macedonia is part of the Bulgarian homelands. Using the weakness of their neighbours, Bulgaria has already started moving its troops into the contested regions.</t>
+    <t xml:space="preserve">Während seine alten Feinde in Griechenland und Jugoslawien überfallen werden, hat Bulgarien einmal mehr erklärt, dass Mazedonien zu den bulgarischen Heimatländern gehört. Bulgarien nutzt die Schwäche seiner Nachbarn und hat bereits damit begonnen, seine Truppen in die umstrittenen Regionen zu verlegen.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.31.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The Balkans remain the most entertaining subcontinent on the planet.</t>
+    <t xml:space="preserve">Der Balkan bleibt der unterhaltsamste Subkontinent der Welt.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.31.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Finally greater Bulgaria will be reborn.</t>
+    <t xml:space="preserve">Endlich wird ein größeres Bulgarien wiedergeboren werden.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.32.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">More Historically appropriate Tech?</t>
+    <t xml:space="preserve">Mehr historisch angemessene Technik?</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.32.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">This event gives you the option to let all nations start the game with more historically appropriate techs researched, dependent on their specific context. Eg. most nations would get WWI hulls, fuel silo's etc. researched, while some nations like eg. Italy would Marines tech researched by this.\nThis event will not come up if the historical MP rule is set to yes.</t>
+    <t xml:space="preserve">Dieses Ereignis gibt Ihnen die Möglichkeit, alle Nationen mit historisch angemesseneren Technologien ins Spiel starten zu lassen, abhängig von ihrem spezifischen Kontext. Z.B. würden die meisten Nationen Hüllen des Ersten Weltkriegs, Treibstoffsilos usw. erforscht bekommen, während einige Nationen wie z.B. Italien dadurch erforschte Technologien markieren würden.\nDieses Ereignis tritt nicht ein, wenn die historische MP-Regel auf Ja gesetzt ist.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.32.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes please.</t>
+    <t xml:space="preserve">Ja bitte.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.32.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Rather not.</t>
+    <t xml:space="preserve">Eher nicht.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.33.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Recovery from the Great Patriotic War</t>
+    <t xml:space="preserve">Erholung vom Großen Vaterländischen Krieg</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.33.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Now the Germans and their reactionary puppets have been driven out of Mother Russia and have been laid low, we must direct ourselves to rebuild and restore. These efforts to recover from the recent invasion are going to require a significant amount of our resources. While our peoples willingness to fight has been stretched to the limit, a new invasion of our Homeland will find even tougher resistance than the last one, as the Red Army and the people never have been more experienced with war and the lay of our lands.</t>
+    <t xml:space="preserve">Jetzt, wo die Deutschen und ihre reaktionären Marionetten aus Mütterchen Russland vertrieben und niedergeschlagen sind, müssen wir uns auf den Wiederaufbau und die Wiederherstellung konzentrieren. Diese Anstrengungen zur Erholung von der jüngsten Invasion werden einen erheblichen Teil unserer Ressourcen erfordern. Während die Kampfbereitschaft unseres Volkes bis zum Äußersten strapaziert wurde, wird eine erneute Invasion unserer Heimat auf einen noch härteren Widerstand stoßen als die letzte, denn die Rote Armee und das Volk haben noch nie so viel Erfahrung mit dem Krieg und der Lage unserer Länder gehabt.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.33.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Let us consolidate what we gained for the Revolution!</t>
+    <t xml:space="preserve">Lasst uns festigen, was wir für die Revolution gewonnen haben!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.34.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Fruits of the Revolutions victory</t>
+    <t xml:space="preserve">Früchte des Sieges der Revolutionen</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.34.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Germany has been defeated and we have conquered and occupied swathes of Europe. Now that the peace conference has defined the borders and spheres of influence in Europe, we should execute our plans as defined during the War; to spread the Revolution and maintain ideological unity and purity, we will, surely but subtly, ensure conformity in our sphere. Handily this buffer will also protect the Revolutions Heartland... \n We shall tighten control over our sphere of influence by spreading the communist ideals, surpressing and outmanouvering any other political forces and ensuring only loyal Stalinists get into positions of power. Finally this will also enable us to extract the industrial resources needed for our recovery and the maintainance of our stature and communism internationally!</t>
+    <t xml:space="preserve">Deutschland ist besiegt, wir haben weite Teile Europas erobert und besetzt. Jetzt, da die Friedenskonferenz die Grenzen und Einflusssphären in Europa festgelegt hat, sollten wir unsere während des Krieges festgelegten Pläne ausführen; um die Revolution zu verbreiten und die ideologische Einheit und Reinheit aufrechtzuerhalten, werden wir sicher, aber subtil, die Konformität in unserem Bereich sicherstellen. Praktischerweise wird dieser Puffer auch das Kernland der Revolutionen schützen... \n Wir werden die Kontrolle über unseren Einflussbereich verstärken, indem wir die kommunistischen Ideale verbreiten, alle anderen politischen Kräfte unterdrücken und ausmanövrieren und sicherstellen, dass nur loyale Stalinisten in Machtpositionen gelangen. Dies wird es uns schließlich auch ermöglichen, die industriellen Ressourcen zu gewinnen, die wir für unseren Aufschwung und die Aufrechterhaltung unseres Ansehens und des Kommunismus auf internationaler Ebene benötigen!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.34.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Proceed as planned</t>
+    <t xml:space="preserve">Wie geplant vorgehen</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.34.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Shouldn't we like euh, let the workers in these liberated countries do their own thing?</t>
+    <t xml:space="preserve">Sollten wir nicht die Arbeiter in diesen befreiten Ländern ihr eigenes Ding machen lassen?</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.34.c:0</t>
   </si>
   <si>
-    <t xml:space="preserve">They should be bound to our fate!</t>
+    <t xml:space="preserve">Sie sollten an unser Schicksal gebunden sein!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.36.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Stalins hold over Europe</t>
+    <t xml:space="preserve">Stalins Herrschaft über Europa</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.36.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve"> \"...an Iron Curtain has descended across the continent. Behind that line lie all the capitals of the ancient states of Central and Eastern Europe...all these famous cities and the populations around them lie in what I must call the Soviet sphere, and all are subject, in one form or another, not only to Soviet influence but to a very high and in some cases increasing measure of control from Moscow.\" \n Winston Churchills speech yesterday serves as a stark warning on Sovjet expansionism and the threats of communism. His speech does summarize the situation in an excellent manner. Some analysts say the Soviet policy is only natural &amp; to be expected, if not agreed on beforehand, given the Soviets reasonable desire to protect themselves from another invasion from the West. </t>
+    <t xml:space="preserve"> \"...ein Eiserner Vorhang hat sich über den Kontinent gesenkt. Hinter dieser Linie liegen alle Hauptstädte der alten Staaten Mittel- und Osteuropas...alle diese berühmten Städte und die sie umgebenden Bevölkerungen liegen in dem, was ich die sowjetische Sphäre nennen muss, und alle unterliegen in der einen oder anderen Form nicht nur dem sowjetischen Einfluss, sondern auch einem sehr hohen und in einigen Fällen zunehmenden Maß an Kontrolle durch Moskau.\" \n Winston Churchills gestrige Rede dient als eindringliche Warnung vor dem sowjetischen Expansionismus und der Bedrohung durch den Kommunismus. Seine Rede fasst die Situation in hervorragender Weise zusammen. Einige Analysten meinen, die sowjetische Politik sei nur natürlich und zu erwarten, wenn auch nicht von vornherein vereinbart, da die Sowjets den berechtigten Wunsch haben, sich vor einer weiteren Invasion des Westens zu schützen. </t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.36.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">In the embers of one conflict another starts flaming up...</t>
+    <t xml:space="preserve">In der Glut eines Konflikts beginnt ein anderer aufzuflammen...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.36.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The capitalists can spread their propaganda against us as much as they want...</t>
+    <t xml:space="preserve">Die Kapitalisten können ihre Propaganda gegen uns verbreiten, so viel sie wollen...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.38.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">[ITA.GetLeader] offers terms for peace... </t>
+    <t xml:space="preserve">[ITA.GetLeader] bietet Bedingungen für den Frieden an... </t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.38.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">As the Italians and their allies push further into our Patrie, their war elsewhere, against other powers continues. Given this situation and feeling the waning commitment to our war against them, they have sent us terms for peace. Given their position of strength, the terms are as follows...</t>
+    <t xml:space="preserve">Während die Italiener und ihre Verbündeten weiter in unsere Patrie vordringen, geht ihr Krieg anderswo, gegen andere Mächte, weiter. In Anbetracht dieser Situation und des schwindenden Engagements in unserem Krieg gegen sie, haben sie uns Friedensbedingungen geschickt. In Anbetracht ihrer Position der Stärke lauten die Bedingungen wie folgt...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.38.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Peace and terms?! Ridiculous!</t>
+    <t xml:space="preserve">Frieden und Bedingungen?! Das ist doch lächerlich!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.38.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Handover Savoy, Corsica and all overseas territory held by [ITA.GetName] and her allies.</t>
+    <t xml:space="preserve">Übergebt Savoyen, Korsika und alle überseeischen Gebiete, die von [ITA.GetName] und ihren Verbündeten gehalten werden.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.38.c:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Make a counter proposal: give Corsica and some colonies to [ITA.GetName] and join their alliance. Latins must no longer infight.</t>
+    <t xml:space="preserve">Macht einen Gegenvorschlag: Gebt Korsika und einige Kolonien an [ITA.GetName] und tretet ihrem Bündnis bei. Die Lateiner dürfen sich nicht mehr bekriegen.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.38.d_2:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Give away all territory accross the Rhone and currently occupied by [ITA.GetName] and submit to their protection.</t>
+    <t xml:space="preserve">Geben Sie alle Gebiete jenseits der Rhone ab, die derzeit von [ITA.GetName] besetzt sind, und unterwerfen Sie sich deren Schutz.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.40.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">[FRA.GetLeader] accepts Italian terms for peace</t>
+    <t xml:space="preserve">[FRA.GetLeader] akzeptiert die italienischen Friedensbedingungen</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.40.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">With [FRA.GetNameDef]s positions on mainland Europe getting overrun and [ITA.GetLeader] preferring to focus on enemies elsewhere, a peace treaty has been signed. The treaty stipulates that [FRA.GetName] handover ancient Italian land in Europe and all colonies currently occupied by Italy and her allies.\n While harsh terms, [FRA.GetLeader] and his government had little alternatives. Moreover [FRA.GetNameDef] can use this breathing room to rebuild and later strike again, at the right time and place...\n [ITA.GetLeader] can now concentrate on his remaining enemies, without having to think about the [From.GetAdjective] front and potential full occupation of the region. </t>
+    <t xml:space="preserve">Da die Stellungen von [FRA.GetNameDef]auf dem europäischen Festland überrannt werden und [ITA.GetLeader] es vorzieht, sich auf andere Feinde zu konzentrieren, wurde ein Friedensvertrag unterzeichnet. Der Vertrag sieht vor, dass [FRA.GetName] altes italienisches Land in Europa und alle Kolonien, die derzeit von Italien und seinen Verbündeten besetzt sind, abgibt.\n Obwohl die Bedingungen hart sind, hatten [FRA.GetLeader] und seine Regierung kaum Alternativen. Außerdem kann [FRA.GetNameDef] diese Atempause nutzen, um sich wieder aufzubauen und später zur richtigen Zeit und am richtigen Ort erneut zuzuschlagen...\n [ITA.GetLeader] kann sich nun auf seine verbleibenden Feinde konzentrieren, ohne an die [From.GetAdjective]-Front und eine mögliche vollständige Besetzung der Region denken zu müssen. </t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.40.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Didn't Machiavelli write:\" Never do your enemy a minor injury.\" ?</t>
+    <t xml:space="preserve">Hat Machiavelli nicht geschrieben:\" Füge deinem Feind niemals eine kleine Verletzung zu.\" ?</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.41.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Latin giants burry the hatchet and continue the struggle together</t>
+    <t xml:space="preserve">Lateinamerikanische Giganten begraben das Kriegsbeil und setzen den Kampf gemeinsam fort</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.41.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">In a surprising outcome of negotiations between [ITA.GetName] and [FRA.GetName], the brother Latin nations have declared that they will halt hostilities and go forth as allies. Furthermore [FRA.GetLeader] agreed to cede territory to Italy, citing historical [ITA.GetAdjective] claims... How this twist came about, who played his hand best at the negotiation table and which party stands to gain the most out this agreement is a hotly debated topic in Europe's highest circles... </t>
+    <t xml:space="preserve">In einem überraschenden Ergebnis der Verhandlungen zwischen [ITA.GetName] und [FRA.GetName] haben die beiden lateinamerikanischen Nationen erklärt, dass sie die Feindseligkeiten einstellen und als Verbündete weitermachen werden. Außerdem hat [FRA.GetLeader] unter Berufung auf historische [ITA.GetAdjective]-Ansprüche zugestimmt, Italien Territorium abzutreten... Wie es zu dieser Wendung kam, wer sein Blatt am Verhandlungstisch am besten gespielt hat und welche Partei am meisten von diesem Abkommen profitiert, ist ein heiß diskutiertes Thema in den höchsten Kreisen Europas... </t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.41.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Latin peoples...always in a for twist to the story eh.</t>
+    <t xml:space="preserve">Die lateinischen Völker... immer für eine Wendung in der Geschichte, was?</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.42.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">[FRA.GetName] submits to [ITA.GetLeader]</t>
+    <t xml:space="preserve">[FRA.GetName] unterwirft sich [ITA.GetLeader]</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.42.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">[From.GetAdjective] war exhaustion, military weakness and similarities in both nations leading ideologies have led to [FRA.GetLeader] accepting the [ITA.GetAdjective] demands for swathes of territory and submission. It seems the [FRA.GetAdjective] leadership thought this was the only way to avoid complete occupation and loss of autonomy for the nation within the growing [ITA.GetAdjective] empire...</t>
+    <t xml:space="preserve">[From.GetAdjective] Kriegsmüdigkeit, militärische Schwäche und Ähnlichkeiten in den führenden Ideologien beider Nationen haben dazu geführt, dass [FRA.GetLeader] die Forderungen der [ITA.GetAdjective] nach Gebietsabtretungen und Unterwerfung akzeptiert hat. Anscheinend hielt die [FRA.GetAdjective]-Führung dies für den einzigen Weg, um eine vollständige Besetzung und den Verlust der Autonomie der Nation innerhalb des wachsenden [ITA.GetAdjective]-Imperiums zu vermeiden...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.42.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Finally, a modern iteration of the \"De Bello Gallico\" !</t>
+    <t xml:space="preserve">Endlich, eine moderne Version des "De Bello Gallico"!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.43.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">War in Brasil becomes desperate...</t>
+    <t xml:space="preserve">Der Krieg in Brasilien wird verzweifelt...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.43.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">[POR.GetLeader] is ever more confronted with the failings of the war in Brazil. Should we give up the dream of a reunited empire, lest we might loose all otherwise?</t>
+    <t xml:space="preserve">[POR.GetLeader] wird immer mehr mit den Mängeln des Krieges in Brasilien konfrontiert. Sollen wir den Traum von einem wiedervereinigten Imperium aufgeben, um nicht alles zu verlieren?</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.43.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">We have no choice</t>
+    <t xml:space="preserve">Wir haben keine Wahl</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.43.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">I'd rather die fighting for our legacy...</t>
+    <t xml:space="preserve">Ich würde lieber im Kampf für unser Erbe sterben...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.44.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Portugal backs out of Brazil</t>
+    <t xml:space="preserve">Portugal zieht sich aus Brasilien zurück</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.44.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">As asserting any claim of his family over Brazil militarily had become a mere fiction by now, [POR.GetLeader]s government has finally decided to retreat, an attempt to save [POR.GetLeader]s own only recently reacquired throne at home.</t>
+    <t xml:space="preserve">Da die Behauptung eines militärischen Anspruchs seiner Familie auf Brasilien inzwischen zur bloßen Fiktion geworden ist, hat sich die Regierung von [POR.GetLeader] schließlich zum Rückzug entschlossen, um den erst kürzlich wiedererworbenen Thron im eigenen Land zu retten.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.44.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Well, it was a far stretch no</t>
+    <t xml:space="preserve">Nun, das war ein weiter Weg, nein</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.44.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Our hope to regain glory is forever extinguished now</t>
+    <t xml:space="preserve">Unsere Hoffnung, den Ruhm wiederzuerlangen, ist nun für immer erloschen</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.45.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The Tehran Dictate</t>
+    <t xml:space="preserve">Das Teheraner Diktat</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.45.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The [FROM.GetAdjective] advance into [PER.GetName] compelled the latter to accept [FROM.GetAdjective] demands. Given the region is on the edge of its sphere influence and the significant presence of friendly elements, the [FROM.GetAdjective] leadership left more autonomy than usual for [PER.GetName], making it a \"neutral\" bufferstate. Its geographic features make [PER.GetName] an ideal candidate for this. Still the agreement is often ironically named \"the Tehran Dictate\", mostly by enemies who add jokingly that [PER.GetName]s oil fields have not received so much autonomy, making it more an oil buffer than anything else for its new overlords. \n\n Whatever may be said, the reality is that the region has suffered immensely since its direct involvement in the war as a pawn of bigger players, nurturing chaos and lawlessness. As its reinstated ruler Reza Shah is currently held prisoner somewhere in the Brittish Empire, the prospects for a return to stability are grim if this remains unchanged. However stories go round that the [FROM.GetAdjective] intelligence organisation has already located the Shah, not too far off from his first residence when just exiled...</t>
+    <t xml:space="preserve">Der [FROM.GetAdjective]-Vorstoß in [PER.GetName] zwang letzteren, die [FROM.GetAdjective]-Forderungen zu akzeptieren. Angesichts der Tatsache, dass die Region am Rande ihrer Einflusssphäre liegt, und der bedeutenden Präsenz befreundeter Elemente ließ die Führung von [FROM.GetAdjective] [PER.GetName] mehr Autonomie als üblich und machte es zu einem "neutralen" Pufferstaat. Seine geografischen Merkmale machen [PER.GetName] zu einem idealen Kandidaten dafür. Dennoch wird das Abkommen oft ironisch als "Teheraner Diktat" bezeichnet, meist von Gegnern, die scherzhaft hinzufügen, dass die Ölfelder von [PER.GetName] nicht so viel Autonomie erhalten haben, so dass es für seine neuen Machthaber mehr ein Ölpuffer als alles andere ist. \n\n Was auch immer gesagt werden mag, die Realität ist, dass die Region seit ihrer direkten Verwicklung in den Krieg als Spielball größerer Akteure sehr gelitten hat und Chaos und Gesetzlosigkeit genährt hat. Da der wiedereingesetzte Herrscher Reza Schah derzeit irgendwo im Britischen Reich gefangen gehalten wird, sind die Aussichten auf eine Rückkehr zur Stabilität düster, wenn dies so bleibt. Es gibt jedoch Gerüchte, dass der Geheimdienst [FROM.GetAdjective] den Schah bereits ausfindig gemacht hat, und zwar nicht allzu weit von seinem ersten Wohnsitz entfernt, als er gerade ins Exil gegangen war...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.45.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">How many spy movies will be made about this?</t>
+    <t xml:space="preserve">Wie viele Spionagefilme werden wohl darüber gedreht werden?</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.45.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Who last laughs, laughs best...</t>
+    <t xml:space="preserve">Wer zuletzt lacht, lacht am besten...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.46.t:0</t>
@@ -895,241 +895,241 @@
     <t xml:space="preserve"> bramja.46.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The [FROM.GetAdjective] advance into [PER.GetName] compelled the latter to accept [FROM.GetAdjective] demands. Given the region is on the edge of its sphere influence and the significant presence of friendly elements, the [FROM.GetAdjective] leadership left more autonomy than usual for [PER.GetName], making it a \"neutral\" bufferstate. Its geographic features make [PER.GetName] an ideal candidate for this. Still the agreement is often ironically named \"the Tehran Dictate\", mostly by enemies who add jokingly that [PER.GetName]s oil fields have not received so much autonomy, making it more of an oil buffer than anything else for its new overlords.</t>
+    <t xml:space="preserve">Der [FROM.GetAdjective]-Vorstoß in [PER.GetName] zwang letzteren, die [FROM.GetAdjective]-Forderungen zu akzeptieren. In Anbetracht der Tatsache, dass sich die Region am Rande ihrer Einflusssphäre befindet, und der bedeutenden Präsenz befreundeter Elemente ließ die Führung von [FROM.GetAdjective] [PER.GetName] mehr Autonomie als üblich und machte es zu einem "neutralen" Pufferstaat. Seine geografischen Merkmale machen [PER.GetName] zu einem idealen Kandidaten dafür. Dennoch wird das Abkommen oft ironisch als "Teheraner Diktat" bezeichnet, meist von Gegnern, die scherzhaft hinzufügen, dass die Ölfelder von [PER.GetName] nicht so viel Autonomie erhalten haben, so dass es für die neuen Machthaber eher ein Ölpuffer ist als alles andere.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.46.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">All the oil in the world, my empire for all the oil!</t>
+    <t xml:space="preserve">Alles Öl der Welt, mein Imperium für alles Öl!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.46.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Another glorius triumph!</t>
+    <t xml:space="preserve">Ein weiterer glorreicher Triumph!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.47.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">A [FROM.GetAdjective] message: repent and be forgiven</t>
+    <t xml:space="preserve">Eine [FROM.GetAdjective]-Botschaft: Bereue und verzeihe</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.47.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve"> §W\"If we confess our sins, he is faithful and just and will forgive us our sins and purify us from all unrighteousness.\" §! §b 1 John 1:9 §! \n\nThe [GER.GetFactionName] war machine is at our doorstep, after a long and bloody conquest of Afrika. We feared the coming of this moment ever since the defeats in Egypt...\nThe [GER.GetAdjective]s have sent us an ultimatum opening up with a well targetted Biblical citation, offering to spare us any further deaths and destruction, if we were to formally submit and align with their ideals. The [FROM.GetAdjective]s envision [SAF.GetNameDef] as an autonomous entity ruled with [FROM.GetRulingIdeologyNoun] as the guiding ideology. \n\nThe war was never popular to begin with amongst the South African population, let alone the Afrikaners, but now that we potentially face an untimely end as a culture, many, most of them Afrikaners, are more than supportive of the [FROM.GetAdjective] proposals. Whatever we choose to respond, it is sure we will loose even more than we have already have as a nation. The question now for [SAF.GetName] is which choice won't make us loose all, and the answer depends on what the responder holds more dearly: freedom, equality and honour or the primacy of your own kin, force and survival.</t>
+    <t xml:space="preserve"> §W§W \"Wenn wir unsere Sünden bekennen, ist er treu und gerecht und wird uns die Sünden vergeben und uns von aller Ungerechtigkeit reinigen.\"  §!§!  §b§b 1. Johannes 1,9 §!§!  \n\nDie [GER.GetFactionName] Kriegsmaschine steht vor unserer Tür, nach einer langen und blutigen Eroberung Afrikas. Wir haben diesen Moment seit den Niederlagen in Ägypten gefürchtet...\nDie [GER.GetAdjective]s haben uns ein Ultimatum geschickt, das mit einem gezielten Bibelzitat eröffnet wurde, in dem sie uns anboten, uns weiteren Tod und Zerstörung zu ersparen, wenn wir uns formell unterwerfen und uns ihren Idealen anschließen würden. Die [FROM.GetAdjective]s stellen sich [SAF.GetNameDef] als eine autonome Einheit vor, die von [FROM.GetRulingIdeologyNoun] als Leitideologie regiert wird. \Der Krieg war in der südafrikanischen Bevölkerung nie populär, geschweige denn bei den Afrikanern, aber jetzt, da wir möglicherweise einem vorzeitigen Ende unserer Kultur entgegensehen, unterstützen viele, vor allem Afrikaner, die [FROM.GetAdjective]-Vorschläge mehr als deutlich. Wie auch immer wir darauf reagieren werden, es ist sicher, dass wir noch mehr verlieren werden, als wir es als Nation bereits getan haben. Die Frage, die sich [SAF.GetName] nun stellen muss, ist, bei welcher Entscheidung wir nicht alles verlieren werden, und die Antwort hängt davon ab, was dem Antwortenden wichtiger ist: Freiheit, Gleichheit und Ehre oder das Primat der eigenen Sippe, Gewalt und Überleben.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.47.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">[SAF.GetLeader] and his pro-[SAF.GetFactionName] faction wins out: \"Death before dishonour!\" \n\n §R This will likely lead to a civil war, as forces of the \"Gryshemde\", \"Gesuiwerde Nasionale Party\" and \"Ossewabrandwag\", most likely with strong [FROM.GetAdjective] support won't accept this decision.§!</t>
+    <t xml:space="preserve">[SAF.GetLeader] und seine Pro-[SAF.GetFactionName]-Fraktion gewinnt: \"Tod vor Unehre!\" \n\n §R§R Dies wird wahrscheinlich zu einem Bürgerkrieg führen, da Kräfte der \"Gryshemde\", \"Gesuiwerde Nasionale Party\" und \"Ossewabrandwag\", höchstwahrscheinlich mit starker [FROM.GetAdjective] Unterstützung, diese Entscheidung nicht akzeptieren werden. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.47.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The pro-[GER.GetFactionName] nationalists push through:\"Together with our brethren in [GER.GetNameDef] we shall remake our nation in our own image, stronger than ever!\" </t>
+    <t xml:space="preserve">Die Pro-[GER.GetFactionName] Nationalisten setzen sich durch:\"Zusammen mit unseren Brüdern in [GER.GetNameDef] werden wir unsere Nation nach unserem eigenen Bild neu erschaffen, stärker als je zuvor!\" </t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.48.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">At worlds end...</t>
+    <t xml:space="preserve">Am Ende der Welt...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.48.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">This morning the freshly installed [GetRulingParty] government of [From.GetNameDef] announced the immediate cessation of hostilities with their former enemies of the [ROOT.GetFactionName]. With the [ROOT.GetFactionName] war machine at their doorstep, after a long and bloody Trek through Afrika, the [FROM.GetAdjective] government received a [GER.GetAdjective] ultimatum offering them peace and protection if they were to formally submit to [GER.GetNameDef] and align with National Socialist ideology.\n\n The note aparently put extra stress on the shared Germanic roots and brotherhood between the two nations ruling classes. Experts comment the Reichs diplomats used these wordings to specifically target the Afrikaner population, whose dissatisfaction with the war had beeen great from the start and only increased as more fathers and sons would not be returning home. Some even speculate that radical elements within the Afrikaner community directly collaborated with the [GER.GetAdjective]s since the [ROOT.GetFactionName] conquest of Egypt, reasoning it was the only way to preserve their way of life and position of power. Even though the theory is not based on any concrete evidence, it aligns well with the notions of the \"encroaching British imperialism\" or an increasingly assertive native population...</t>
+    <t xml:space="preserve">Heute Morgen verkündete die frisch installierte [GetRulingParty]-Regierung von [From.GetNameDef] die sofortige Einstellung der Feindseligkeiten mit ihren ehemaligen Feinden von [ROOT.GetFactionName]. Mit der [ROOT.GetFactionName]-Kriegsmaschinerie vor der Haustür und nach einem langen und blutigen Treck durch Afrika erhielt die [FROM.GetAdjective]-Regierung ein Ultimatum von [GER.GetAdjective], das ihr Frieden und Schutz anbot, wenn sie sich formell der [GER.GetNameDef] unterwerfen und sich der nationalsozialistischen Ideologie anschließen würde.\n\n Die Note betonte offensichtlich die gemeinsamen germanischen Wurzeln und die Brüderlichkeit zwischen den herrschenden Klassen beider Nationen. Experten zufolge zielten die Reichsdiplomaten mit diesen Formulierungen speziell auf die afrikanische Bevölkerung ab, deren Unzufriedenheit mit dem Krieg von Anfang an groß gewesen war und nur noch zunahm, da immer mehr Väter und Söhne nicht mehr nach Hause zurückkehren würden. Einige spekulieren sogar, dass radikale Elemente innerhalb der afrikanischen Gemeinschaft seit der Eroberung Ägyptens durch [ROOT.GetFactionName] direkt mit den [GER.GetAdjective]s kollaboriert haben, weil sie der Meinung waren, dass dies die einzige Möglichkeit war, ihre Lebensweise und ihre Machtposition zu erhalten. Auch wenn sich diese Theorie nicht auf konkrete Beweise stützt, passt sie doch gut zu den Vorstellungen vom "übergriffigen britischen Imperialismus" oder einer zunehmend selbstbewussten einheimischen Bevölkerung...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.48.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Continue</t>
+    <t xml:space="preserve">Weiter</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.48.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Good...</t>
+    <t xml:space="preserve">Gut...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.52.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">...and the fringes of humanity</t>
+    <t xml:space="preserve">...und die Ränder der Menschheit</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.52.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">...Whaterver preceded, what is known is that once the ultimatum was received, anti-British elements swiftly ousted the incumbent government and agreed to the terms. \n\nThough a blow for their former allies, the country itself will suffer under the new regimes policies or \"Apartheidswette\". Surely, the [FROM.GetRulingParty] now has carte blache when implementing the \"Apartheid\", not only unhindered by any politically organized opposition, but with vigorous endorsement and rigorous scrutiny of their adept \"Brethren and allies\".           </t>
+    <t xml:space="preserve">...Was auch immer dem vorausging, bekannt ist, dass nach Erhalt des Ultimatums anti-britische Elemente die amtierende Regierung rasch absetzten und den Bedingungen zustimmten. \Das ist zwar ein Schlag für die ehemaligen Verbündeten, aber das Land selbst wird unter der Politik des neuen Regimes oder der "Apartheidswette" leiden. Sicherlich hat die [FROM.GetRulingParty] nun freie Hand bei der Umsetzung der \"Apartheidswette\", nicht nur ungehindert von jeglicher politisch organisierten Opposition, sondern auch mit tatkräftiger Unterstützung und strenger Prüfung durch ihre versierten \"Brüder und Verbündeten\".           </t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.52.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">A ghastly image indeed.</t>
+    <t xml:space="preserve">In der Tat ein grauenhaftes Bild.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.52.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The strong do as they please and the weak suffer what they must...§L \"The Melian Dialogue\", Thucydides§!</t>
+    <t xml:space="preserve">Die Starken tun, was sie wollen, und die Schwachen leiden, was sie müssen...§L§L \"Der Melianische Dialog\", Thukydides §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.50.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">"Rescue attempt failed" #Check Loc 50 &amp; 51!</t>
+    <t xml:space="preserve">"Rettungsversuch gescheitert" #Check Loc 50 &amp; 51!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.50.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Our attemtpt to free the Shah has failed, our attempt having been foiled due to additive factors working against us. We shall have to try again...           </t>
+    <t xml:space="preserve">Unser Versuch, den Schah zu befreien, ist gescheitert. Unser Versuch wurde durch additive Faktoren vereitelt, die gegen uns arbeiten. Wir werden es erneut versuchen müssen...           </t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.50.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Quiters are losers...</t>
+    <t xml:space="preserve">Verlierer sind Verlierer...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.51.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">[Per.GetAdjective] Shah freed and on his way back to Tehran</t>
+    <t xml:space="preserve">[Per.GetAdjective] Schah befreit und auf dem Weg zurück nach Teheran</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.51.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">[FROM.GetAdjective] state media (with the usual pomp) announced this morning that [FROM.GetAdjective] Special Forces successfully executed a daring raid last night to free the recently reinstated but imprisoned Shah of Iran, Reza Shah, thereby fulfilling vows made by [From.GetLeader]. Aside from solidying their hold on the Middle East, this is also another terrific piece of propaganda for [From.GetLeader] and [From.GetNameDef].\n\n§L As the Shah is journeying back to the \"§OTakht-e Khurshīd§!\"(the Persian Sun Throne), he must be wondering whether he is now actually free, to rule a over a liberated realm or that there had only been a change of watch and had received a grander cell.§!</t>
+    <t xml:space="preserve">[Die staatlichen Medien haben heute Morgen (mit dem üblichen Pomp) verkündet, dass [FROM.GetAdjective] Spezialeinheiten letzte Nacht erfolgreich eine gewagte Razzia durchgeführt haben, um den kürzlich wiedereingesetzten, aber inhaftierten Schah von Iran, Reza Schah, zu befreien und damit die von [From.GetLeader] gegebenen Versprechen zu erfüllen.] Abgesehen davon, dass sie ihren Einfluss im Nahen Osten festigen, ist dies auch ein weiteres großartiges Stück Propaganda für [From.GetLeader] und [From.GetNameDef].\n\n§L§L Da der Schah auf dem Weg zurück zum \"§O§O Takht-e Khurshīd §!§! \" (dem persischen Sonnenthron), muss er sich fragen, ob er nun tatsächlich frei ist, um über ein befreites Reich zu herrschen, oder ob es nur eine Wachablösung gegeben hat und er eine größere Zelle erhalten hat. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.51.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">MI5, MI6, more like MI0! Wahaha §R(German humour)§!</t>
+    <t xml:space="preserve">MI5, MI6, eher MI0! Wahaha §R§R (deutscher Humor) §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.51.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Damn them!</t>
+    <t xml:space="preserve">Zum Teufel mit ihnen!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.51.c:0</t>
   </si>
   <si>
-    <t xml:space="preserve">A daring escape, bravo!</t>
+    <t xml:space="preserve">Eine kühne Flucht, bravo!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.53.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">A Good ole German Peace proposal</t>
+    <t xml:space="preserve">Ein guter alter deutscher Friedensvorschlag</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.53.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">A [GER.GetAdjective] delegation arrived at Commander in Chief Gustav Mannerheims HQ at noon to discuss peace terms, proposing a return to the status ante bellum. The Germans have little interest in maintaining the current state of war with us after having defeated our allies. The meeting went over in a friendly fashion all in all, one of the delegates even seemed to be giving cryptic warnings that soon the real enemies of Finland could be at the borders...\n Whatever be the case, there is little reason not to make peace, our former allies being utterly defeated and our alliance with them no longer serving the need for protection from either Western or Eastern threats...</t>
+    <t xml:space="preserve">Eine [GER.GetAdjective] Delegation ist am Mittag im Hauptquartier von Oberbefehlshaber Gustav Mannerheim eingetroffen, um die Friedensbedingungen zu besprechen und schlägt eine Rückkehr zum Status ante bellum vor. Die Deutschen haben wenig Interesse daran, den derzeitigen Kriegszustand mit uns aufrechtzuerhalten, nachdem sie unsere Verbündeten besiegt haben. Das Treffen verlief alles in allem freundlich, einer der Delegierten schien sogar kryptische Warnungen auszusprechen, dass die wahren Feinde Finnlands bald an den Grenzen stehen könnten...\n Wie dem auch sei, es gibt wenig Grund, keinen Frieden zu schließen, da unsere früheren Verbündeten völlig besiegt sind und unser Bündnis mit ihnen nicht mehr dem Bedürfnis nach Schutz vor westlichen oder östlichen Bedrohungen entspricht...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.53.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Of course we accept</t>
+    <t xml:space="preserve">Natürlich akzeptieren wir</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.53.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">We fear no Hun, whether it be an Eastern or Western one!</t>
+    <t xml:space="preserve">Wir fürchten keinen Hunnen, weder einen östlichen noch einen westlichen!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.56.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Bringing an end to the state of war with [SOV.GetNameDef]?</t>
+    <t xml:space="preserve">Beendigung des Kriegszustandes mit [SOV.GetNameDef]?</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.56.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">In accordance with the guarantees given to the various nations of Central Europe, we declared war on those violated their integrity. However as we now are war with both [GER.GetNameDef] and [SOV.GetNameDef] and our contiental allies are all but utterly defeated, we should consider retacting our declaration of war on the Sovjet, as we lack any means to achieve vitory as it stands now. We even actualy risk only achieving a closer bond between the Germans &amp; the Russians, with us being a common enemy.\n This means we would abandon central Europe to its fate, for now...</t>
+    <t xml:space="preserve">In Übereinstimmung mit den Garantien, die wir den verschiedenen Nationen Mitteleuropas gegeben haben, haben wir denjenigen den Krieg erklärt, die ihre Integrität verletzen. Da wir uns nun jedoch sowohl mit [GER.GetNameDef] als auch mit [SOV.GetNameDef] im Krieg befinden und unsere Verbündeten in Mitteleuropa so gut wie besiegt sind, sollten wir in Erwägung ziehen, unsere Kriegserklärung an die Sowjetunion zu revidieren, da uns in der jetzigen Situation jegliche Mittel fehlen, um den Sieg zu erringen. Wir riskieren sogar, die Deutschen und die Russen noch enger an uns zu binden, da wir ein gemeinsamer Feind sind.\n Das bedeutet, dass wir Mitteleuropa vorerst seinem Schicksal überlassen würden...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.56.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Better to fight one monster at a time...</t>
+    <t xml:space="preserve">Es ist besser, ein Monster nach dem anderen zu bekämpfen...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.56.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">We will not renege on our agreements, friendships or our principles!</t>
+    <t xml:space="preserve">Wir werden nicht von unseren Vereinbarungen, Freundschaften oder Grundsätzen abrücken!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.57.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">[ENG.GetAdjective] retract earlier declaration of war on the Soviet Union!</t>
+    <t xml:space="preserve">[ENG.GetAdjective] Ziehen Sie Ihre frühere Kriegserklärung an die Sowjetunion zurück!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.57.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">\n\n\nEarlier [ENG.GetNameDef] had declared war on [SOV.GetNameDef], acting on the guarantees given to a multitude of states in Central Europe to support them in case of an invasion. However as they now are war with both [GER.GetNameDef] and [SOV.GetNameDef] and left with no major allies on the continent, the maintainance of a state of war between the 2 powers made little sense anymore, as both sides can hardly even get forces to get in contact. Finally there is also the greatly expanded [GER.GetFactionName] sitting in between the 2 now former bellingerents, which could prove to be a greater concern for eiher...</t>
+    <t xml:space="preserve">\Zuvor hatte [ENG.GetNameDef] [SOV.GetNameDef] den Krieg erklärt und sich dabei auf die Garantien gestützt, die einer Vielzahl von Staaten in Mitteleuropa gegeben wurden, um sie im Falle einer Invasion zu unterstützen. Da sie sich nun aber sowohl mit [GER.GetNameDef] als auch mit [SOV.GetNameDef] im Krieg befinden und keine wichtigen Verbündeten mehr auf dem Kontinent haben, macht die Aufrechterhaltung des Kriegszustandes zwischen den beiden Mächten kaum noch Sinn, da beide Seiten kaum noch Truppen aufbieten können, um Kontakt aufzunehmen. Schließlich gibt es auch noch die stark erweiterte [GER.GetFactionName], die zwischen den beiden ehemaligen Kriegsgegnern sitzt, was für beide ein größeres Problem darstellen könnte...</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.57.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">But which dog will run off with the bone?</t>
+    <t xml:space="preserve">Aber welcher Hund wird mit dem Knochen abhauen?</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.57.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">At least our situation is somewhat less desperate now</t>
+    <t xml:space="preserve">Zumindest ist unsere Situation jetzt etwas weniger verzweifelt</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.57.c:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Just a brief pause in the march forward of Socialism!</t>
+    <t xml:space="preserve">Nur eine kurze Pause auf dem Vormarsch des Sozialismus!</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.71.t:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Allow State Name Changes?</t>
+    <t xml:space="preserve">Änderungen von Staatsnamen zulassen?</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.71.d:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Excuses for once again interrupting your game, I swear this the last time.\nOne final question: do you want to allow some States and Victory Points to change names when they change controller? While this increases immersion it does slightly increases the tax on your system and could increase lag slightly.</t>
+    <t xml:space="preserve">Entschuldigt, dass ich wieder einmal euer Spiel unterbreche, ich schwöre, das war das letzte Mal. Eine letzte Frage: Wollt ihr zulassen, dass einige Staaten und Siegpunkte ihren Namen ändern, wenn sie den Kontrolleur wechseln? Das erhöht zwar die Immersion, belastet aber das System etwas mehr und könnte die Verzögerung etwas erhöhen.</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.71.a:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes that would be cool</t>
+    <t xml:space="preserve">Ja, das wäre cool</t>
   </si>
   <si>
     <t xml:space="preserve"> bramja.71.b:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Immersion is cringe</t>
+    <t xml:space="preserve">Eintauchen ist zum Kotzen</t>
   </si>
 </sst>
 </file>
@@ -1349,8 +1349,8 @@
   </sheetPr>
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1365,6 +1365,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1382,11 +1383,11 @@
       </c>
       <c r="C2" s="1" t="str">
         <f aca="false">A2 &amp;" " &amp;"""" &amp;B2 &amp;""""</f>
-        <v> bramja.14.t:0 "Atomic bombing Continues..."</v>
+        <v> bramja.14.t:0 "Atombombenabwurf geht weiter..."</v>
       </c>
       <c r="D2" s="1" t="str">
         <f aca="false">IF(ISBLANK(A2),"",C2)</f>
-        <v> bramja.14.t:0 "Atomic bombing Continues..."</v>
+        <v> bramja.14.t:0 "Atombombenabwurf geht weiter..."</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1398,11 +1399,11 @@
       </c>
       <c r="C3" s="1" t="str">
         <f aca="false">A3 &amp;" " &amp;"""" &amp;B3 &amp;""""</f>
-        <v> bramja.14.d:0 "The fear that more atomic bombs would be used against human life, has been realised today...  Todays bombing of [From.From.GetName] is another testament to the hellish nature of war and another sad episode in the history of man\n ...and perhaps one of the last? "</v>
+        <v> bramja.14.d:0 "Die Befürchtung, dass weitere Atombomben gegen Menschenleben eingesetzt werden, hat sich heute bewahrheitet...  Die heutige Bombardierung von [Von.Von.GetName] ist ein weiteres Zeugnis für die höllische Natur des Krieges und eine weitere traurige Episode in der Geschichte des Menschen ... und vielleicht eine der letzten? "</v>
       </c>
       <c r="D3" s="1" t="str">
         <f aca="false">IF(ISBLANK(A3),"",C3)</f>
-        <v> bramja.14.d:0 "The fear that more atomic bombs would be used against human life, has been realised today...  Todays bombing of [From.From.GetName] is another testament to the hellish nature of war and another sad episode in the history of man\n ...and perhaps one of the last? "</v>
+        <v> bramja.14.d:0 "Die Befürchtung, dass weitere Atombomben gegen Menschenleben eingesetzt werden, hat sich heute bewahrheitet...  Die heutige Bombardierung von [Von.Von.GetName] ist ein weiteres Zeugnis für die höllische Natur des Krieges und eine weitere traurige Episode in der Geschichte des Menschen ... und vielleicht eine der letzten? "</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1414,11 +1415,11 @@
       </c>
       <c r="C4" s="1" t="str">
         <f aca="false">A4 &amp;" " &amp;"""" &amp;B4 &amp;""""</f>
-        <v> bramja.14.a:0 "The heat is almost as hot as Amanda"</v>
+        <v> bramja.14.a:0 "Die Hitze ist fast so heiß wie Amanda"</v>
       </c>
       <c r="D4" s="1" t="str">
         <f aca="false">IF(ISBLANK(A4),"",C4)</f>
-        <v> bramja.14.a:0 "The heat is almost as hot as Amanda"</v>
+        <v> bramja.14.a:0 "Die Hitze ist fast so heiß wie Amanda"</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1430,11 +1431,11 @@
       </c>
       <c r="C5" s="1" t="str">
         <f aca="false">A5 &amp;" " &amp;"""" &amp;B5 &amp;""""</f>
-        <v> bramja.14.b:0 "Will they do anything to win this war?!"</v>
+        <v> bramja.14.b:0 "Werden sie alles tun, um diesen Krieg zu gewinnen?!"</v>
       </c>
       <c r="D5" s="1" t="str">
         <f aca="false">IF(ISBLANK(A5),"",C5)</f>
-        <v> bramja.14.b:0 "Will they do anything to win this war?!"</v>
+        <v> bramja.14.b:0 "Werden sie alles tun, um diesen Krieg zu gewinnen?!"</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1446,11 +1447,11 @@
       </c>
       <c r="C6" s="1" t="str">
         <f aca="false">A6 &amp;" " &amp;"""" &amp;B6 &amp;""""</f>
-        <v> bramja.1.t:0 "\nIncreasing draft evasion in [From.GetNameDef]..."</v>
+        <v> bramja.1.t:0 "\nSteigende Wehrdienstverweigerung in [From.GetNameDef]..."</v>
       </c>
       <c r="D6" s="1" t="str">
         <f aca="false">IF(ISBLANK(A6),"",C6)</f>
-        <v> bramja.1.t:0 "\nIncreasing draft evasion in [From.GetNameDef]..."</v>
+        <v> bramja.1.t:0 "\nSteigende Wehrdienstverweigerung in [From.GetNameDef]..."</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1462,11 +1463,11 @@
       </c>
       <c r="C7" s="1" t="str">
         <f aca="false">A7 &amp;" " &amp;"""" &amp;B7 &amp;""""</f>
-        <v> bramja.1.d:0 "\n\n\nWorrying reports are coming in from [From.GetNameDef], due to loss of faith in the leadership, draft evasion is on the rise. Can [From.GetLeader] still inspire his people?"</v>
+        <v> bramja.1.d:0 "\n\n\nBesorgniserregende Berichte kommen aus [Von.GetNameDef], aufgrund des Vertrauensverlustes in die Führung nimmt die Wehrdienstverweigerung zu. Kann [From.GetLeader] seine Leute noch inspirieren?"</v>
       </c>
       <c r="D7" s="1" t="str">
         <f aca="false">IF(ISBLANK(A7),"",C7)</f>
-        <v> bramja.1.d:0 "\n\n\nWorrying reports are coming in from [From.GetNameDef], due to loss of faith in the leadership, draft evasion is on the rise. Can [From.GetLeader] still inspire his people?"</v>
+        <v> bramja.1.d:0 "\n\n\nBesorgniserregende Berichte kommen aus [Von.GetNameDef], aufgrund des Vertrauensverlustes in die Führung nimmt die Wehrdienstverweigerung zu. Kann [From.GetLeader] seine Leute noch inspirieren?"</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1478,11 +1479,11 @@
       </c>
       <c r="C8" s="1" t="str">
         <f aca="false">A8 &amp;" " &amp;"""" &amp;B8 &amp;""""</f>
-        <v> bramja.1.a:0 "Hopefully this is handled before our enemies can use this to their advantage..."</v>
+        <v> bramja.1.a:0 "Hoffentlich ist die Sache erledigt, bevor unsere Feinde dies zu ihrem Vorteil nutzen können..."</v>
       </c>
       <c r="D8" s="1" t="str">
         <f aca="false">IF(ISBLANK(A8),"",C8)</f>
-        <v> bramja.1.a:0 "Hopefully this is handled before our enemies can use this to their advantage..."</v>
+        <v> bramja.1.a:0 "Hoffentlich ist die Sache erledigt, bevor unsere Feinde dies zu ihrem Vorteil nutzen können..."</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1494,11 +1495,11 @@
       </c>
       <c r="C9" s="1" t="str">
         <f aca="false">A9 &amp;" " &amp;"""" &amp;B9 &amp;""""</f>
-        <v> bramja.1.b:0 "Cowardice only leads to destruction..."</v>
+        <v> bramja.1.b:0 "Feigheit führt nur zur Zerstörung..."</v>
       </c>
       <c r="D9" s="1" t="str">
         <f aca="false">IF(ISBLANK(A9),"",C9)</f>
-        <v> bramja.1.b:0 "Cowardice only leads to destruction..."</v>
+        <v> bramja.1.b:0 "Feigheit führt nur zur Zerstörung..."</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1510,11 +1511,11 @@
       </c>
       <c r="C10" s="1" t="str">
         <f aca="false">A10 &amp;" " &amp;"""" &amp;B10 &amp;""""</f>
-        <v> bramja.2.t:0 "Social unrest reaches tipping point in [From.GetNameDef]"</v>
+        <v> bramja.2.t:0 "Soziale Unruhen erreichen in [From.GetNameDef] den Kipppunkt"</v>
       </c>
       <c r="D10" s="1" t="str">
         <f aca="false">IF(ISBLANK(A10),"",C10)</f>
-        <v> bramja.2.t:0 "Social unrest reaches tipping point in [From.GetNameDef]"</v>
+        <v> bramja.2.t:0 "Soziale Unruhen erreichen in [From.GetNameDef] den Kipppunkt"</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,11 +1527,11 @@
       </c>
       <c r="C11" s="1" t="str">
         <f aca="false">A11 &amp;" " &amp;"""" &amp;B11 &amp;""""</f>
-        <v> bramja.2.d:0 "\nThe cocktail of existing internal divides and increasing outside pressures, is starting to tear the [From.GetAdjective] nation apart from within. Strikes have broken out accross [From.GetNameDef] which the [From.GetAdjective] [From.GetRulingParty] has to resolve to reverse the trend."</v>
+        <v> bramja.2.d:0 "\Der Cocktail aus bestehenden internen Spaltungen und zunehmendem Druck von außen beginnt, die [From.GetAdjective] Nation von innen heraus zu zerreißen. In ganz [Von.GetNameDef] sind Streiks ausgebrochen, die die [Von.GetAdjective] [Von.GetRulingParty] lösen muss, um den Trend umzukehren."</v>
       </c>
       <c r="D11" s="1" t="str">
         <f aca="false">IF(ISBLANK(A11),"",C11)</f>
-        <v> bramja.2.d:0 "\nThe cocktail of existing internal divides and increasing outside pressures, is starting to tear the [From.GetAdjective] nation apart from within. Strikes have broken out accross [From.GetNameDef] which the [From.GetAdjective] [From.GetRulingParty] has to resolve to reverse the trend."</v>
+        <v> bramja.2.d:0 "\Der Cocktail aus bestehenden internen Spaltungen und zunehmendem Druck von außen beginnt, die [From.GetAdjective] Nation von innen heraus zu zerreißen. In ganz [Von.GetNameDef] sind Streiks ausgebrochen, die die [Von.GetAdjective] [Von.GetRulingParty] lösen muss, um den Trend umzukehren."</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1542,11 +1543,11 @@
       </c>
       <c r="C12" s="1" t="str">
         <f aca="false">A12 &amp;" " &amp;"""" &amp;B12 &amp;""""</f>
-        <v> bramja.2.a:0 "The Home Front cannot falter, the men must be put back to work!"</v>
+        <v> bramja.2.a:0 "Die Heimatfront darf nicht wanken, die Männer müssen wieder an die Arbeit gehen!"</v>
       </c>
       <c r="D12" s="1" t="str">
         <f aca="false">IF(ISBLANK(A12),"",C12)</f>
-        <v> bramja.2.a:0 "The Home Front cannot falter, the men must be put back to work!"</v>
+        <v> bramja.2.a:0 "Die Heimatfront darf nicht wanken, die Männer müssen wieder an die Arbeit gehen!"</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1558,11 +1559,11 @@
       </c>
       <c r="C13" s="1" t="str">
         <f aca="false">A13 &amp;" " &amp;"""" &amp;B13 &amp;""""</f>
-        <v> bramja.2.b:0 "The ideological foundations of [From.GetNameDef] seem to be sinking like on quicksand!"</v>
+        <v> bramja.2.b:0 "Die ideologischen Grundlagen von [From.GetNameDef] scheinen wie auf Treibsand zu versinken!"</v>
       </c>
       <c r="D13" s="1" t="str">
         <f aca="false">IF(ISBLANK(A13),"",C13)</f>
-        <v> bramja.2.b:0 "The ideological foundations of [From.GetNameDef] seem to be sinking like on quicksand!"</v>
+        <v> bramja.2.b:0 "Die ideologischen Grundlagen von [From.GetNameDef] scheinen wie auf Treibsand zu versinken!"</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1574,11 +1575,11 @@
       </c>
       <c r="C14" s="1" t="str">
         <f aca="false">A14 &amp;" " &amp;"""" &amp;B14 &amp;""""</f>
-        <v> bramja.3.t:0 "Insurrection in [From.GetNameDef]!"</v>
+        <v> bramja.3.t:0 "Aufstand in [Von.GetNameDef]!"</v>
       </c>
       <c r="D14" s="1" t="str">
         <f aca="false">IF(ISBLANK(A14),"",C14)</f>
-        <v> bramja.3.t:0 "Insurrection in [From.GetNameDef]!"</v>
+        <v> bramja.3.t:0 "Aufstand in [Von.GetNameDef]!"</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,11 +1591,11 @@
       </c>
       <c r="C15" s="1" t="str">
         <f aca="false">A15 &amp;" " &amp;"""" &amp;B15 &amp;""""</f>
-        <v> bramja.3.d:0 "Little more than two decades ago, mutinies sprang up as the Great War seemingly endlessy condused the life spirit of nations. However the people who rose up often saw their countries defeated and rarely ended up better in the long run...\nIf the [From.GetAdjective] leadership doesn't stop this in its infancy, it might well mean the end of the war...and their nation"</v>
+        <v> bramja.3.d:0 "Vor etwas mehr als zwei Jahrzehnten kam es zu Meutereien, als der Große Krieg den Lebensgeist der Nationen scheinbar endlos verdarb. Doch die Menschen, die sich erhoben, sahen ihre Länder oft besiegt und selten ging es ihnen auf lange Sicht besser...\nWenn die [From.GetAdjective]-Führung dies nicht im Keim erstickt, könnte es das Ende des Krieges bedeuten...und ihrer Nation"</v>
       </c>
       <c r="D15" s="1" t="str">
         <f aca="false">IF(ISBLANK(A15),"",C15)</f>
-        <v> bramja.3.d:0 "Little more than two decades ago, mutinies sprang up as the Great War seemingly endlessy condused the life spirit of nations. However the people who rose up often saw their countries defeated and rarely ended up better in the long run...\nIf the [From.GetAdjective] leadership doesn't stop this in its infancy, it might well mean the end of the war...and their nation"</v>
+        <v> bramja.3.d:0 "Vor etwas mehr als zwei Jahrzehnten kam es zu Meutereien, als der Große Krieg den Lebensgeist der Nationen scheinbar endlos verdarb. Doch die Menschen, die sich erhoben, sahen ihre Länder oft besiegt und selten ging es ihnen auf lange Sicht besser...\nWenn die [From.GetAdjective]-Führung dies nicht im Keim erstickt, könnte es das Ende des Krieges bedeuten...und ihrer Nation"</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,11 +1607,11 @@
       </c>
       <c r="C16" s="1" t="str">
         <f aca="false">A16 &amp;" " &amp;"""" &amp;B16 &amp;""""</f>
-        <v> bramja.3.a:0 "We have to douse the fire before it engulfs our entire nation!"</v>
+        <v> bramja.3.a:0 "Wir müssen das Feuer löschen, bevor es unsere ganze Nation verschlingt!"</v>
       </c>
       <c r="D16" s="1" t="str">
         <f aca="false">IF(ISBLANK(A16),"",C16)</f>
-        <v> bramja.3.a:0 "We have to douse the fire before it engulfs our entire nation!"</v>
+        <v> bramja.3.a:0 "Wir müssen das Feuer löschen, bevor es unsere ganze Nation verschlingt!"</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1622,11 +1623,11 @@
       </c>
       <c r="C17" s="1" t="str">
         <f aca="false">A17 &amp;" " &amp;"""" &amp;B17 &amp;""""</f>
-        <v> bramja.3.b:0 "Who can blame them really? Well outside of their wives, children, parents, historians to be, etc."</v>
+        <v> bramja.3.b:0 "Wer kann es ihnen wirklich verdenken? Abgesehen von ihren Ehefrauen, Kindern, Eltern, zukünftigen Historikern, usw."</v>
       </c>
       <c r="D17" s="1" t="str">
         <f aca="false">IF(ISBLANK(A17),"",C17)</f>
-        <v> bramja.3.b:0 "Who can blame them really? Well outside of their wives, children, parents, historians to be, etc."</v>
+        <v> bramja.3.b:0 "Wer kann es ihnen wirklich verdenken? Abgesehen von ihren Ehefrauen, Kindern, Eltern, zukünftigen Historikern, usw."</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,11 +1639,11 @@
       </c>
       <c r="C18" s="1" t="str">
         <f aca="false">A18 &amp;" " &amp;"""" &amp;B18 &amp;""""</f>
-        <v> bramja.3.c:0 "The greatest victory is that which requires no battle... our might and determination slowly but surely crushes the enemies spine! "</v>
+        <v> bramja.3.c:0 "Der größte Sieg ist der, der keine Schlacht erfordert... unsere Macht und Entschlossenheit zerbricht langsam aber sicher das Rückgrat des Feindes! "</v>
       </c>
       <c r="D18" s="1" t="str">
         <f aca="false">IF(ISBLANK(A18),"",C18)</f>
-        <v> bramja.3.c:0 "The greatest victory is that which requires no battle... our might and determination slowly but surely crushes the enemies spine! "</v>
+        <v> bramja.3.c:0 "Der größte Sieg ist der, der keine Schlacht erfordert... unsere Macht und Entschlossenheit zerbricht langsam aber sicher das Rückgrat des Feindes! "</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,11 +1655,11 @@
       </c>
       <c r="C19" s="1" t="str">
         <f aca="false">A19 &amp;" " &amp;"""" &amp;B19 &amp;""""</f>
-        <v> bramja.6.t:0 "General MacArthur has forcefully taken over the [From.GetAdjective] government!"</v>
+        <v> bramja.6.t:0 "General MacArthur hat die [From.GetAdjective]-Regierung gewaltsam an sich gerissen!"</v>
       </c>
       <c r="D19" s="1" t="str">
         <f aca="false">IF(ISBLANK(A19),"",C19)</f>
-        <v> bramja.6.t:0 "General MacArthur has forcefully taken over the [From.GetAdjective] government!"</v>
+        <v> bramja.6.t:0 "General MacArthur hat die [From.GetAdjective]-Regierung gewaltsam an sich gerissen!"</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,11 +1671,11 @@
       </c>
       <c r="C20" s="1" t="str">
         <f aca="false">A20 &amp;" " &amp;"""" &amp;B20 &amp;""""</f>
-        <v> bramja.6.d:0 "MacArthur and like minded generals have made use of the popular dissatisfaction caused by the fruitless sacrifices and the means used in the ongoing war. He promises a swift victory, one way or another... \n\n Whatever MacArthur plans to do once and if the war is won with his powers, remains unclear..."</v>
+        <v> bramja.6.d:0 "MacArthur und gleichgesinnte Generäle haben sich die Unzufriedenheit der Bevölkerung zunutze gemacht, die durch die vergeblichen Opfer und die im laufenden Krieg eingesetzten Mittel entstanden ist. Er verspricht einen raschen Sieg, so oder so... \Was MacArthur zu tun gedenkt, sobald und falls der Krieg mit seinen Kräften gewonnen ist, bleibt unklar..."</v>
       </c>
       <c r="D20" s="1" t="str">
         <f aca="false">IF(ISBLANK(A20),"",C20)</f>
-        <v> bramja.6.d:0 "MacArthur and like minded generals have made use of the popular dissatisfaction caused by the fruitless sacrifices and the means used in the ongoing war. He promises a swift victory, one way or another... \n\n Whatever MacArthur plans to do once and if the war is won with his powers, remains unclear..."</v>
+        <v> bramja.6.d:0 "MacArthur und gleichgesinnte Generäle haben sich die Unzufriedenheit der Bevölkerung zunutze gemacht, die durch die vergeblichen Opfer und die im laufenden Krieg eingesetzten Mittel entstanden ist. Er verspricht einen raschen Sieg, so oder so... \Was MacArthur zu tun gedenkt, sobald und falls der Krieg mit seinen Kräften gewonnen ist, bleibt unklar..."</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1686,11 +1687,11 @@
       </c>
       <c r="C21" s="1" t="str">
         <f aca="false">A21 &amp;" " &amp;"""" &amp;B21 &amp;""""</f>
-        <v> bramja.6.a:0 "We should defend Democracy in America! Fight this blood crazed general!"</v>
+        <v> bramja.6.a:0 "Wir sollten die Demokratie in Amerika verteidigen! Kämpft gegen diesen blutrünstigen General!"</v>
       </c>
       <c r="D21" s="1" t="str">
         <f aca="false">IF(ISBLANK(A21),"",C21)</f>
-        <v> bramja.6.a:0 "We should defend Democracy in America! Fight this blood crazed general!"</v>
+        <v> bramja.6.a:0 "Wir sollten die Demokratie in Amerika verteidigen! Kämpft gegen diesen blutrünstigen General!"</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,11 +1703,11 @@
       </c>
       <c r="C22" s="1" t="str">
         <f aca="false">A22 &amp;" " &amp;"""" &amp;B22 &amp;""""</f>
-        <v> bramja.6.b:0 "Hail MacArthur, Saviour of America!"</v>
+        <v> bramja.6.b:0 "Es lebe MacArthur, der Retter Amerikas!"</v>
       </c>
       <c r="D22" s="1" t="str">
         <f aca="false">IF(ISBLANK(A22),"",C22)</f>
-        <v> bramja.6.b:0 "Hail MacArthur, Saviour of America!"</v>
+        <v> bramja.6.b:0 "Es lebe MacArthur, der Retter Amerikas!"</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,11 +1735,11 @@
       </c>
       <c r="C24" s="1" t="str">
         <f aca="false">A24 &amp;" " &amp;"""" &amp;B24 &amp;""""</f>
-        <v> bramja.7.d:0 "MacArthur and like minded generals have made use of the popular dissatisfaction caused by the fruitless sacrifices and the means used in the ongoing war. With promises of a swift victory, MacArthur led a putsch against [USA.GetLeader]s government.\nNotwithstanding the diminishing popular and military support for [USA.GetLeader] and his [From.GetRulingParty] government, they were still able to prevent MacArthurs takeover of the entire country. \n\nThe battle lines between MacArthurs forces and those of the government will cut right through families and the American nation, as former minor differences of opnion slowly turn into civil war... "</v>
+        <v> bramja.7.d:0 "MacArthur und gleichgesinnte Generäle haben sich die Unzufriedenheit der Bevölkerung zunutze gemacht, die durch die vergeblichen Opfer und die im laufenden Krieg eingesetzten Mittel entstanden ist. Mit dem Versprechen eines schnellen Sieges führte MacArthur einen Putsch gegen die Regierung von [USA.GetLeader] an.\nUngeachtet der schwindenden Unterstützung des Volkes und des Militärs für [USA.GetLeader] und seine Regierung [From.GetRulingParty] konnten sie MacArthurs Übernahme des gesamten Landes noch verhindern. \n\nDie Kampflinien zwischen MacArthurs Streitkräften und denen der Regierung werden quer durch die Familien und die amerikanische Nation verlaufen, da sich ehemals geringfügige Meinungsverschiedenheiten langsam in einen Bürgerkrieg verwandeln... "</v>
       </c>
       <c r="D24" s="1" t="str">
         <f aca="false">IF(ISBLANK(A24),"",C24)</f>
-        <v> bramja.7.d:0 "MacArthur and like minded generals have made use of the popular dissatisfaction caused by the fruitless sacrifices and the means used in the ongoing war. With promises of a swift victory, MacArthur led a putsch against [USA.GetLeader]s government.\nNotwithstanding the diminishing popular and military support for [USA.GetLeader] and his [From.GetRulingParty] government, they were still able to prevent MacArthurs takeover of the entire country. \n\nThe battle lines between MacArthurs forces and those of the government will cut right through families and the American nation, as former minor differences of opnion slowly turn into civil war... "</v>
+        <v> bramja.7.d:0 "MacArthur und gleichgesinnte Generäle haben sich die Unzufriedenheit der Bevölkerung zunutze gemacht, die durch die vergeblichen Opfer und die im laufenden Krieg eingesetzten Mittel entstanden ist. Mit dem Versprechen eines schnellen Sieges führte MacArthur einen Putsch gegen die Regierung von [USA.GetLeader] an.\nUngeachtet der schwindenden Unterstützung des Volkes und des Militärs für [USA.GetLeader] und seine Regierung [From.GetRulingParty] konnten sie MacArthurs Übernahme des gesamten Landes noch verhindern. \n\nDie Kampflinien zwischen MacArthurs Streitkräften und denen der Regierung werden quer durch die Familien und die amerikanische Nation verlaufen, da sich ehemals geringfügige Meinungsverschiedenheiten langsam in einen Bürgerkrieg verwandeln... "</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,11 +1751,11 @@
       </c>
       <c r="C25" s="1" t="str">
         <f aca="false">A25 &amp;" " &amp;"""" &amp;B25 &amp;""""</f>
-        <v> bramja.7.a:0 "They will be out of the war for a good while..."</v>
+        <v> bramja.7.a:0 "Sie werden für eine ganze Weile aus dem Krieg heraus sein..."</v>
       </c>
       <c r="D25" s="1" t="str">
         <f aca="false">IF(ISBLANK(A25),"",C25)</f>
-        <v> bramja.7.a:0 "They will be out of the war for a good while..."</v>
+        <v> bramja.7.a:0 "Sie werden für eine ganze Weile aus dem Krieg heraus sein..."</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,11 +1767,11 @@
       </c>
       <c r="C26" s="1" t="str">
         <f aca="false">A26 &amp;" " &amp;"""" &amp;B26 &amp;""""</f>
-        <v> bramja.7.b:0 "With America distracted and soon in flames, who can stop us?"</v>
+        <v> bramja.7.b:0 "Wenn Amerika abgelenkt ist und bald in Flammen steht, wer kann uns aufhalten?"</v>
       </c>
       <c r="D26" s="1" t="str">
         <f aca="false">IF(ISBLANK(A26),"",C26)</f>
-        <v> bramja.7.b:0 "With America distracted and soon in flames, who can stop us?"</v>
+        <v> bramja.7.b:0 "Wenn Amerika abgelenkt ist und bald in Flammen steht, wer kann uns aufhalten?"</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,11 +1783,11 @@
       </c>
       <c r="C27" s="1" t="str">
         <f aca="false">A27 &amp;" " &amp;"""" &amp;B27 &amp;""""</f>
-        <v> bramja.7.c:0 "And so the Bastion of Democracy falls..."</v>
+        <v> bramja.7.c:0 "Und so fällt die Bastion der Demokratie..."</v>
       </c>
       <c r="D27" s="1" t="str">
         <f aca="false">IF(ISBLANK(A27),"",C27)</f>
-        <v> bramja.7.c:0 "And so the Bastion of Democracy falls..."</v>
+        <v> bramja.7.c:0 "Und so fällt die Bastion der Demokratie..."</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1814,11 +1815,11 @@
       </c>
       <c r="C29" s="1" t="str">
         <f aca="false">A29 &amp;" " &amp;"""" &amp;B29 &amp;""""</f>
-        <v> bramja.8.t:0 "What with our allies?"</v>
+        <v> bramja.8.t:0 "Was ist mit unseren Verbündeten?"</v>
       </c>
       <c r="D29" s="1" t="str">
         <f aca="false">IF(ISBLANK(A29),"",C29)</f>
-        <v> bramja.8.t:0 "What with our allies?"</v>
+        <v> bramja.8.t:0 "Was ist mit unseren Verbündeten?"</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,11 +1831,11 @@
       </c>
       <c r="C30" s="1" t="str">
         <f aca="false">A30 &amp;" " &amp;"""" &amp;B30 &amp;""""</f>
-        <v> bramja.8.d:0 "Now that general MacArthur has established his rule, we have decide what to do about our membership of [Root.GetFactionName]. Our allies have drawn, some even say manipulated, us into the war, thus many amongst our people and the leadership feel we should leave them to their fate, correcting the mistake of ending our policy of Isolationism. \n\nEven though this would leave us weaker in face of our enemies, it would further legitimize our rule, as we prove we stand by our propagated goals for taking over the government.\nOur allies have anyway proven to be an impediment to the conduct of the war which is not ours, we have little to loose."</v>
+        <v> bramja.8.d:0 "Nun, da General MacArthur seine Herrschaft errichtet hat, müssen wir entscheiden, was mit unserer Mitgliedschaft in [Root.GetFactionName] geschehen soll. Unsere Verbündeten haben uns in den Krieg hineingezogen, manche sagen sogar, sie haben uns manipuliert, und deshalb sind viele in unserem Volk und in der Führung der Meinung, wir sollten sie ihrem Schicksal überlassen und den Fehler korrigieren, unsere Politik des Isolationismus zu beenden. \n\nAuch wenn wir dadurch unseren Feinden gegenüber schwächer wären, würde dies unsere Herrschaft weiter legitimieren, da wir beweisen, dass wir zu unseren propagierten Zielen für die Übernahme der Regierung stehen.\nUnsere Verbündeten haben sich ohnehin als Hindernis für die Führung des Krieges erwiesen, der nicht der unsere ist, wir haben wenig zu verlieren."</v>
       </c>
       <c r="D30" s="1" t="str">
         <f aca="false">IF(ISBLANK(A30),"",C30)</f>
-        <v> bramja.8.d:0 "Now that general MacArthur has established his rule, we have decide what to do about our membership of [Root.GetFactionName]. Our allies have drawn, some even say manipulated, us into the war, thus many amongst our people and the leadership feel we should leave them to their fate, correcting the mistake of ending our policy of Isolationism. \n\nEven though this would leave us weaker in face of our enemies, it would further legitimize our rule, as we prove we stand by our propagated goals for taking over the government.\nOur allies have anyway proven to be an impediment to the conduct of the war which is not ours, we have little to loose."</v>
+        <v> bramja.8.d:0 "Nun, da General MacArthur seine Herrschaft errichtet hat, müssen wir entscheiden, was mit unserer Mitgliedschaft in [Root.GetFactionName] geschehen soll. Unsere Verbündeten haben uns in den Krieg hineingezogen, manche sagen sogar, sie haben uns manipuliert, und deshalb sind viele in unserem Volk und in der Führung der Meinung, wir sollten sie ihrem Schicksal überlassen und den Fehler korrigieren, unsere Politik des Isolationismus zu beenden. \n\nAuch wenn wir dadurch unseren Feinden gegenüber schwächer wären, würde dies unsere Herrschaft weiter legitimieren, da wir beweisen, dass wir zu unseren propagierten Zielen für die Übernahme der Regierung stehen.\nUnsere Verbündeten haben sich ohnehin als Hindernis für die Führung des Krieges erwiesen, der nicht der unsere ist, wir haben wenig zu verlieren."</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,11 +1863,11 @@
       </c>
       <c r="C32" s="1" t="str">
         <f aca="false">A32 &amp;" " &amp;"""" &amp;B32 &amp;""""</f>
-        <v> bramja.8.b:0 "We need our allies, at least for now..."</v>
+        <v> bramja.8.b:0 "Wir brauchen unsere Verbündeten, zumindest im Moment..."</v>
       </c>
       <c r="D32" s="1" t="str">
         <f aca="false">IF(ISBLANK(A32),"",C32)</f>
-        <v> bramja.8.b:0 "We need our allies, at least for now..."</v>
+        <v> bramja.8.b:0 "Wir brauchen unsere Verbündeten, zumindest im Moment..."</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,11 +1879,11 @@
       </c>
       <c r="C33" s="1" t="str">
         <f aca="false">A33 &amp;" " &amp;"""" &amp;B33 &amp;""""</f>
-        <v> bramja.9.t:0 "MacArthur starts return to Isolationism!"</v>
+        <v> bramja.9.t:0 "MacArthur leitet die Rückkehr zum Isolationismus ein!"</v>
       </c>
       <c r="D33" s="1" t="str">
         <f aca="false">IF(ISBLANK(A33),"",C33)</f>
-        <v> bramja.9.t:0 "MacArthur starts return to Isolationism!"</v>
+        <v> bramja.9.t:0 "MacArthur leitet die Rückkehr zum Isolationismus ein!"</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1894,11 +1895,11 @@
       </c>
       <c r="C34" s="1" t="str">
         <f aca="false">A34 &amp;" " &amp;"""" &amp;B34 &amp;""""</f>
-        <v> bramja.9.d:0 "In line with his program, MacArthur started the return to Isolationism today, by officially declaring their aliances outside of the Western Hemisphere null and void. America fights alone, but also stands alone, for now..."</v>
+        <v> bramja.9.d:0 "Im Einklang mit seinem Programm hat MacArthur heute die Rückkehr zum Isolationismus eingeleitet, indem er die Bündnisse außerhalb der westlichen Hemisphäre offiziell für null und nichtig erklärte. Amerika kämpft allein, steht aber auch allein da, vorerst..."</v>
       </c>
       <c r="D34" s="1" t="str">
         <f aca="false">IF(ISBLANK(A34),"",C34)</f>
-        <v> bramja.9.d:0 "In line with his program, MacArthur started the return to Isolationism today, by officially declaring their aliances outside of the Western Hemisphere null and void. America fights alone, but also stands alone, for now..."</v>
+        <v> bramja.9.d:0 "Im Einklang mit seinem Programm hat MacArthur heute die Rückkehr zum Isolationismus eingeleitet, indem er die Bündnisse außerhalb der westlichen Hemisphäre offiziell für null und nichtig erklärte. Amerika kämpft allein, steht aber auch allein da, vorerst..."</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1910,11 +1911,11 @@
       </c>
       <c r="C35" s="1" t="str">
         <f aca="false">A35 &amp;" " &amp;"""" &amp;B35 &amp;""""</f>
-        <v> bramja.9.a:0 "Sad it had to come to this... We shall persevere on our own!"</v>
+        <v> bramja.9.a:0 "Traurig, dass es so weit kommen musste... Wir werden auf uns allein gestellt durchhalten!"</v>
       </c>
       <c r="D35" s="1" t="str">
         <f aca="false">IF(ISBLANK(A35),"",C35)</f>
-        <v> bramja.9.a:0 "Sad it had to come to this... We shall persevere on our own!"</v>
+        <v> bramja.9.a:0 "Traurig, dass es so weit kommen musste... Wir werden auf uns allein gestellt durchhalten!"</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,11 +1927,11 @@
       </c>
       <c r="C36" s="1" t="str">
         <f aca="false">A36 &amp;" " &amp;"""" &amp;B36 &amp;""""</f>
-        <v> bramja.9.b:0 "Divide and conquer..."</v>
+        <v> bramja.9.b:0 "Teile und herrsche..."</v>
       </c>
       <c r="D36" s="1" t="str">
         <f aca="false">IF(ISBLANK(A36),"",C36)</f>
-        <v> bramja.9.b:0 "Divide and conquer..."</v>
+        <v> bramja.9.b:0 "Teile und herrsche..."</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,11 +1943,11 @@
       </c>
       <c r="C37" s="1" t="str">
         <f aca="false">A37 &amp;" " &amp;"""" &amp;B37 &amp;""""</f>
-        <v> bramja.9.c:0 "How will this impact the course of the war?"</v>
+        <v> bramja.9.c:0 "Wie wird sich dies auf den Verlauf des Krieges auswirken?"</v>
       </c>
       <c r="D37" s="1" t="str">
         <f aca="false">IF(ISBLANK(A37),"",C37)</f>
-        <v> bramja.9.c:0 "How will this impact the course of the war?"</v>
+        <v> bramja.9.c:0 "Wie wird sich dies auf den Verlauf des Krieges auswirken?"</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,11 +1975,11 @@
       </c>
       <c r="C39" s="1" t="str">
         <f aca="false">A39 &amp;" " &amp;"""" &amp;B39 &amp;""""</f>
-        <v> bramja.10.t:0 "MacArthur Stays true to the [Root.GetFactionName]"</v>
+        <v> bramja.10.t:0 "MacArthur bleibt der [Root.GetFactionName] treu"</v>
       </c>
       <c r="D39" s="1" t="str">
         <f aca="false">IF(ISBLANK(A39),"",C39)</f>
-        <v> bramja.10.t:0 "MacArthur Stays true to the [Root.GetFactionName]"</v>
+        <v> bramja.10.t:0 "MacArthur bleibt der [Root.GetFactionName] treu"</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1990,11 +1991,11 @@
       </c>
       <c r="C40" s="1" t="str">
         <f aca="false">A40 &amp;" " &amp;"""" &amp;B40 &amp;""""</f>
-        <v> bramja.10.d:0 "Going against the expectations, the newly appointed minister of war of [From.GetNameDef] has spoken publicly on their maintainance of commitments made to the their allies for the duration of the current war. \nGiven MacArthurs supporters mainly advocate for a return to isolationism, this can have consequences for his rule."</v>
+        <v> bramja.10.d:0 "Entgegen den Erwartungen hat sich der neu ernannte Kriegsminister von [From.GetNameDef] öffentlich zur Einhaltung der gegenüber den Verbündeten eingegangenen Verpflichtungen für die Dauer des laufenden Krieges geäußert. \Da MacArthurs Anhänger hauptsächlich für eine Rückkehr zum Isolationismus plädieren, kann dies Folgen für seine Herrschaft haben."</v>
       </c>
       <c r="D40" s="1" t="str">
         <f aca="false">IF(ISBLANK(A40),"",C40)</f>
-        <v> bramja.10.d:0 "Going against the expectations, the newly appointed minister of war of [From.GetNameDef] has spoken publicly on their maintainance of commitments made to the their allies for the duration of the current war. \nGiven MacArthurs supporters mainly advocate for a return to isolationism, this can have consequences for his rule."</v>
+        <v> bramja.10.d:0 "Entgegen den Erwartungen hat sich der neu ernannte Kriegsminister von [From.GetNameDef] öffentlich zur Einhaltung der gegenüber den Verbündeten eingegangenen Verpflichtungen für die Dauer des laufenden Krieges geäußert. \Da MacArthurs Anhänger hauptsächlich für eine Rückkehr zum Isolationismus plädieren, kann dies Folgen für seine Herrschaft haben."</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2006,11 +2007,11 @@
       </c>
       <c r="C41" s="1" t="str">
         <f aca="false">A41 &amp;" " &amp;"""" &amp;B41 &amp;""""</f>
-        <v> bramja.10.a:0 "A surprise indeed, and a good one"</v>
+        <v> bramja.10.a:0 "In der Tat eine Überraschung, und eine gute dazu"</v>
       </c>
       <c r="D41" s="1" t="str">
         <f aca="false">IF(ISBLANK(A41),"",C41)</f>
-        <v> bramja.10.a:0 "A surprise indeed, and a good one"</v>
+        <v> bramja.10.a:0 "In der Tat eine Überraschung, und eine gute dazu"</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,11 +2023,11 @@
       </c>
       <c r="C42" s="1" t="str">
         <f aca="false">A42 &amp;" " &amp;"""" &amp;B42 &amp;""""</f>
-        <v> bramja.10.b:0 "We shall crush them nonetheless"</v>
+        <v> bramja.10.b:0 "Wir werden sie trotzdem vernichten"</v>
       </c>
       <c r="D42" s="1" t="str">
         <f aca="false">IF(ISBLANK(A42),"",C42)</f>
-        <v> bramja.10.b:0 "We shall crush them nonetheless"</v>
+        <v> bramja.10.b:0 "Wir werden sie trotzdem vernichten"</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2038,11 +2039,11 @@
       </c>
       <c r="C43" s="1" t="str">
         <f aca="false">A43 &amp;" " &amp;"""" &amp;B43 &amp;""""</f>
-        <v> bramja.10.c:0 "Stratocracy or democracy, what does is it matter"</v>
+        <v> bramja.10.c:0 "Stratokratie oder Demokratie, was spielt das für eine Rolle?"</v>
       </c>
       <c r="D43" s="1" t="str">
         <f aca="false">IF(ISBLANK(A43),"",C43)</f>
-        <v> bramja.10.c:0 "Stratocracy or democracy, what does is it matter"</v>
+        <v> bramja.10.c:0 "Stratokratie oder Demokratie, was spielt das für eine Rolle?"</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2054,11 +2055,11 @@
       </c>
       <c r="C44" s="1" t="str">
         <f aca="false">A44 &amp;" " &amp;"""" &amp;B44 &amp;""""</f>
-        <v> bramja.11.t:0 "Communists revolt as our enemies close in!"</v>
+        <v> bramja.11.t:0 "Kommunisten revoltieren, während unsere Feinde immer näher rücken!"</v>
       </c>
       <c r="D44" s="1" t="str">
         <f aca="false">IF(ISBLANK(A44),"",C44)</f>
-        <v> bramja.11.t:0 "Communists revolt as our enemies close in!"</v>
+        <v> bramja.11.t:0 "Kommunisten revoltieren, während unsere Feinde immer näher rücken!"</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,11 +2071,11 @@
       </c>
       <c r="C45" s="1" t="str">
         <f aca="false">A45 &amp;" " &amp;"""" &amp;B45 &amp;""""</f>
-        <v> bramja.11.d:0 "With the war against bolshevism in the east still ongoing and the invasion of our homelands, [SOV.GetNameDef] has instructed communists in our country to rise up. Our situation is becoming more and more precarious every day. We must act fast if we still want to prevent our destruction by enemies from without and within!"</v>
+        <v> bramja.11.d:0 "Angesichts des noch immer andauernden Krieges gegen den Bolschewismus im Osten und der Invasion in unsere Heimatländer hat [SOV.GetNameDef] die Kommunisten in unserem Land angewiesen, sich zu erheben. Unsere Lage wird von Tag zu Tag prekärer. Wir müssen schnell handeln, wenn wir unsere Vernichtung durch Feinde von außen und innen noch verhindern wollen!"</v>
       </c>
       <c r="D45" s="1" t="str">
         <f aca="false">IF(ISBLANK(A45),"",C45)</f>
-        <v> bramja.11.d:0 "With the war against bolshevism in the east still ongoing and the invasion of our homelands, [SOV.GetNameDef] has instructed communists in our country to rise up. Our situation is becoming more and more precarious every day. We must act fast if we still want to prevent our destruction by enemies from without and within!"</v>
+        <v> bramja.11.d:0 "Angesichts des noch immer andauernden Krieges gegen den Bolschewismus im Osten und der Invasion in unsere Heimatländer hat [SOV.GetNameDef] die Kommunisten in unserem Land angewiesen, sich zu erheben. Unsere Lage wird von Tag zu Tag prekärer. Wir müssen schnell handeln, wenn wir unsere Vernichtung durch Feinde von außen und innen noch verhindern wollen!"</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2086,11 +2087,11 @@
       </c>
       <c r="C46" s="1" t="str">
         <f aca="false">A46 &amp;" " &amp;"""" &amp;B46 &amp;""""</f>
-        <v> bramja.11.a:0 "Our lands are becoming mere bargaining chips to be used in the grand game of chess!"</v>
+        <v> bramja.11.a:0 "Unsere Länder werden zu bloßen Verhandlungsobjekten, die im großen Schachspiel eingesetzt werden!"</v>
       </c>
       <c r="D46" s="1" t="str">
         <f aca="false">IF(ISBLANK(A46),"",C46)</f>
-        <v> bramja.11.a:0 "Our lands are becoming mere bargaining chips to be used in the grand game of chess!"</v>
+        <v> bramja.11.a:0 "Unsere Länder werden zu bloßen Verhandlungsobjekten, die im großen Schachspiel eingesetzt werden!"</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2102,11 +2103,11 @@
       </c>
       <c r="C47" s="1" t="str">
         <f aca="false">A47 &amp;" " &amp;"""" &amp;B47 &amp;""""</f>
-        <v> bramja.12.t:0 "\n\nCommunists revolt in [From.GetNameDef] as enemies close in"</v>
+        <v> bramja.12.t:0 "\n\nKommunisten revoltieren in [From.GetNameDef], während die Feinde näher rücken"</v>
       </c>
       <c r="D47" s="1" t="str">
         <f aca="false">IF(ISBLANK(A47),"",C47)</f>
-        <v> bramja.12.t:0 "\n\nCommunists revolt in [From.GetNameDef] as enemies close in"</v>
+        <v> bramja.12.t:0 "\n\nKommunisten revoltieren in [From.GetNameDef], während die Feinde näher rücken"</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2118,11 +2119,11 @@
       </c>
       <c r="C48" s="1" t="str">
         <f aca="false">A48 &amp;" " &amp;"""" &amp;B48 &amp;""""</f>
-        <v> bramja.12.d:0 "\n\n\n\nWith the [Root.GetFactionName] still waging war against bolshevism in the east, while the [From.GetAdjective] homelands are being invaded, [SOV.GetLeader] has instructed [From.GetAdjective] communists to rise up. [From.GetNameDef]s situation is becoming more and more precarious every day..."</v>
+        <v> bramja.12.d:0 "\Da die [Root.GetFactionName] immer noch Krieg gegen den Bolschewismus im Osten führt, während die [From.GetAdjective]-Heimatländer überfallen werden, hat [SOV.GetLeader] die [From.GetAdjective]-Kommunisten angewiesen, sich zu erheben. Die Lage der [From.GetNameDef]s wird von Tag zu Tag prekärer..."</v>
       </c>
       <c r="D48" s="1" t="str">
         <f aca="false">IF(ISBLANK(A48),"",C48)</f>
-        <v> bramja.12.d:0 "\n\n\n\nWith the [Root.GetFactionName] still waging war against bolshevism in the east, while the [From.GetAdjective] homelands are being invaded, [SOV.GetLeader] has instructed [From.GetAdjective] communists to rise up. [From.GetNameDef]s situation is becoming more and more precarious every day..."</v>
+        <v> bramja.12.d:0 "\Da die [Root.GetFactionName] immer noch Krieg gegen den Bolschewismus im Osten führt, während die [From.GetAdjective]-Heimatländer überfallen werden, hat [SOV.GetLeader] die [From.GetAdjective]-Kommunisten angewiesen, sich zu erheben. Die Lage der [From.GetNameDef]s wird von Tag zu Tag prekärer..."</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2134,11 +2135,11 @@
       </c>
       <c r="C49" s="1" t="str">
         <f aca="false">A49 &amp;" " &amp;"""" &amp;B49 &amp;""""</f>
-        <v> bramja.12.a:0 "Either a white or a red flag, it seems the [From.GetAdjective] are useless allies!"</v>
+        <v> bramja.12.a:0 "Entweder eine weiße oder eine rote Fahne, die [From.GetAdjective] sind anscheinend nutzlose Verbündete!"</v>
       </c>
       <c r="D49" s="1" t="str">
         <f aca="false">IF(ISBLANK(A49),"",C49)</f>
-        <v> bramja.12.a:0 "Either a white or a red flag, it seems the [From.GetAdjective] are useless allies!"</v>
+        <v> bramja.12.a:0 "Entweder eine weiße oder eine rote Fahne, die [From.GetAdjective] sind anscheinend nutzlose Verbündete!"</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2150,11 +2151,11 @@
       </c>
       <c r="C50" s="1" t="str">
         <f aca="false">A50 &amp;" " &amp;"""" &amp;B50 &amp;""""</f>
-        <v> bramja.12.b:0 "The end of the [From.GetAdjective] puppet state is nigh"</v>
+        <v> bramja.12.b:0 "Das Ende des [From.GetAdjective]-Marionettenstaats ist nah"</v>
       </c>
       <c r="D50" s="1" t="str">
         <f aca="false">IF(ISBLANK(A50),"",C50)</f>
-        <v> bramja.12.b:0 "The end of the [From.GetAdjective] puppet state is nigh"</v>
+        <v> bramja.12.b:0 "Das Ende des [From.GetAdjective]-Marionettenstaats ist nah"</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2166,11 +2167,11 @@
       </c>
       <c r="C51" s="1" t="str">
         <f aca="false">A51 &amp;" " &amp;"""" &amp;B51 &amp;""""</f>
-        <v> bramja.12.c:0 "It is time the [From.GetAdjective] choose who they want in charge!"</v>
+        <v> bramja.12.c:0 "Es ist an der Zeit, dass die [From.GetAdjective] wählen, wen sie an der Macht haben wollen!"</v>
       </c>
       <c r="D51" s="1" t="str">
         <f aca="false">IF(ISBLANK(A51),"",C51)</f>
-        <v> bramja.12.c:0 "It is time the [From.GetAdjective] choose who they want in charge!"</v>
+        <v> bramja.12.c:0 "Es ist an der Zeit, dass die [From.GetAdjective] wählen, wen sie an der Macht haben wollen!"</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2182,11 +2183,11 @@
       </c>
       <c r="C52" s="1" t="str">
         <f aca="false">A52 &amp;" " &amp;"""" &amp;B52 &amp;""""</f>
-        <v> bramja_13a_tt:0 "We will lose control over our subjects given our dire situation.\n If Manchuko feels it cannot survive without our support, they might choose to stay loyal to us.\n This will largely depend on how much of an immediate threat the Russians form to them. "</v>
+        <v> bramja_13a_tt:0 "Angesichts unserer misslichen Lage werden wir die Kontrolle über unsere Untertanen verlieren.\n Wenn Mandschuko das Gefühl hat, dass es ohne unsere Unterstützung nicht überleben kann, wird es sich vielleicht dafür entscheiden, uns treu zu bleiben.\n Das wird weitgehend davon abhängen, wie groß die unmittelbare Bedrohung durch die Russen für sie ist. "</v>
       </c>
       <c r="D52" s="1" t="str">
         <f aca="false">IF(ISBLANK(A52),"",C52)</f>
-        <v> bramja_13a_tt:0 "We will lose control over our subjects given our dire situation.\n If Manchuko feels it cannot survive without our support, they might choose to stay loyal to us.\n This will largely depend on how much of an immediate threat the Russians form to them. "</v>
+        <v> bramja_13a_tt:0 "Angesichts unserer misslichen Lage werden wir die Kontrolle über unsere Untertanen verlieren.\n Wenn Mandschuko das Gefühl hat, dass es ohne unsere Unterstützung nicht überleben kann, wird es sich vielleicht dafür entscheiden, uns treu zu bleiben.\n Das wird weitgehend davon abhängen, wie groß die unmittelbare Bedrohung durch die Russen für sie ist. "</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2198,11 +2199,11 @@
       </c>
       <c r="C53" s="1" t="str">
         <f aca="false">A53 &amp;" " &amp;"""" &amp;B53 &amp;""""</f>
-        <v> bramja_13b_tt:0 "Does the exact same as the first option, but you will also declare war on all former subjects."</v>
+        <v> bramja_13b_tt:0 "Führt genau dasselbe durch wie die erste Option, aber Sie werden auch allen ehemaligen Untertanen den Krieg erklären."</v>
       </c>
       <c r="D53" s="1" t="str">
         <f aca="false">IF(ISBLANK(A53),"",C53)</f>
-        <v> bramja_13b_tt:0 "Does the exact same as the first option, but you will also declare war on all former subjects."</v>
+        <v> bramja_13b_tt:0 "Führt genau dasselbe durch wie die erste Option, aber Sie werden auch allen ehemaligen Untertanen den Krieg erklären."</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,11 +2215,11 @@
       </c>
       <c r="C54" s="1" t="str">
         <f aca="false">A54 &amp;" " &amp;"""" &amp;B54 &amp;""""</f>
-        <v> bramja.13.t:0 "Rebellions in our overseas conquests!"</v>
+        <v> bramja.13.t:0 "Rebellionen in unseren überseeischen Eroberungsgebieten!"</v>
       </c>
       <c r="D54" s="1" t="str">
         <f aca="false">IF(ISBLANK(A54),"",C54)</f>
-        <v> bramja.13.t:0 "Rebellions in our overseas conquests!"</v>
+        <v> bramja.13.t:0 "Rebellionen in unseren überseeischen Eroberungsgebieten!"</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2230,11 +2231,11 @@
       </c>
       <c r="C55" s="1" t="str">
         <f aca="false">A55 &amp;" " &amp;"""" &amp;B55 &amp;""""</f>
-        <v> bramja.13.d:0 "The Dai Nippon Teikoku is on the brink of the abyss. With the hated gaijin ever more constricting us like the snakes they are, our connections with the overseas parts of the empire are withering away. Our Asian \"brethren\" have made use of this situation to betray our cause and go their own way. Realistically we have little means to \"guide\" them back in our folds, even though these wayward nations are often weak and divided. What shall we do?"</v>
+        <v> bramja.13.d:0 "Die Dai Nippon Teikoku befindet sich am Rande des Abgrunds. Da die verhassten Gaijin uns immer mehr einschnüren wie die Schlangen, die sie sind, verkümmern unsere Verbindungen mit den überseeischen Teilen des Reiches. Unsere asiatischen \"Brüder\" haben diese Situation genutzt, um unsere Sache zu verraten und ihren eigenen Weg zu gehen. Realistisch betrachtet haben wir kaum Mittel, um sie in unsere Schranken zu verweisen, auch wenn diese abtrünnigen Nationen oft schwach und gespalten sind. Was sollen wir also tun?"</v>
       </c>
       <c r="D55" s="1" t="str">
         <f aca="false">IF(ISBLANK(A55),"",C55)</f>
-        <v> bramja.13.d:0 "The Dai Nippon Teikoku is on the brink of the abyss. With the hated gaijin ever more constricting us like the snakes they are, our connections with the overseas parts of the empire are withering away. Our Asian \"brethren\" have made use of this situation to betray our cause and go their own way. Realistically we have little means to \"guide\" them back in our folds, even though these wayward nations are often weak and divided. What shall we do?"</v>
+        <v> bramja.13.d:0 "Die Dai Nippon Teikoku befindet sich am Rande des Abgrunds. Da die verhassten Gaijin uns immer mehr einschnüren wie die Schlangen, die sie sind, verkümmern unsere Verbindungen mit den überseeischen Teilen des Reiches. Unsere asiatischen \"Brüder\" haben diese Situation genutzt, um unsere Sache zu verraten und ihren eigenen Weg zu gehen. Realistisch betrachtet haben wir kaum Mittel, um sie in unsere Schranken zu verweisen, auch wenn diese abtrünnigen Nationen oft schwach und gespalten sind. Was sollen wir also tun?"</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2278,11 +2279,11 @@
       </c>
       <c r="C58" s="1" t="str">
         <f aca="false">A58 &amp;" " &amp;"""" &amp;B58 &amp;""""</f>
-        <v> bramja.16.t:0 "Japanese sphere falling apart"</v>
+        <v> bramja.16.t:0 "Zerfall der japanischen Sphäre"</v>
       </c>
       <c r="D58" s="1" t="str">
         <f aca="false">IF(ISBLANK(A58),"",C58)</f>
-        <v> bramja.16.t:0 "Japanese sphere falling apart"</v>
+        <v> bramja.16.t:0 "Zerfall der japanischen Sphäre"</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2294,11 +2295,11 @@
       </c>
       <c r="C59" s="1" t="str">
         <f aca="false">A59 &amp;" " &amp;"""" &amp;B59 &amp;""""</f>
-        <v> bramja.16.d:0 "Most of the Japanese overseas allies and subjects have risen up against their former \"protector\". They cite the increasing oppressiveness of Nippon within the Sphere as their main reason. One leader of the formerly subjected nations formulated it as follows:\n\"The Japanese were supposedly freeing us from Western imperialism. However in the end they were worse as an antidote than the poison itself...\" The reason why this is happening now is obvious: with their navy mostly resting at the bottom of the sea, the [From.GetAdjective] overseas holdings had been cut off from the Home Islands. However this turns out, it will surely be a turning point in Asian history."</v>
+        <v> bramja.16.d:0 "Die meisten der japanischen Verbündeten und Untertanen in Übersee haben sich gegen ihren ehemaligen "Beschützer" erhoben. Als Hauptgrund geben sie die zunehmende Unterdrückung durch Nippon innerhalb der Sphäre an. Ein Führer der ehemals unterworfenen Nationen formulierte es folgendermaßen: "Die Japaner haben uns angeblich vom westlichen Imperialismus befreit. Doch am Ende waren sie als Gegengift schlimmer als das Gift selbst...\" Der Grund, warum dies jetzt geschieht, liegt auf der Hand: Da ihre Marine größtenteils auf dem Meeresgrund lag, waren die [From.GetAdjective] Überseegebiete von den Heimatinseln abgeschnitten. Wie auch immer es ausgeht, es wird sicherlich ein Wendepunkt in der asiatischen Geschichte sein."</v>
       </c>
       <c r="D59" s="1" t="str">
         <f aca="false">IF(ISBLANK(A59),"",C59)</f>
-        <v> bramja.16.d:0 "Most of the Japanese overseas allies and subjects have risen up against their former \"protector\". They cite the increasing oppressiveness of Nippon within the Sphere as their main reason. One leader of the formerly subjected nations formulated it as follows:\n\"The Japanese were supposedly freeing us from Western imperialism. However in the end they were worse as an antidote than the poison itself...\" The reason why this is happening now is obvious: with their navy mostly resting at the bottom of the sea, the [From.GetAdjective] overseas holdings had been cut off from the Home Islands. However this turns out, it will surely be a turning point in Asian history."</v>
+        <v> bramja.16.d:0 "Die meisten der japanischen Verbündeten und Untertanen in Übersee haben sich gegen ihren ehemaligen "Beschützer" erhoben. Als Hauptgrund geben sie die zunehmende Unterdrückung durch Nippon innerhalb der Sphäre an. Ein Führer der ehemals unterworfenen Nationen formulierte es folgendermaßen: "Die Japaner haben uns angeblich vom westlichen Imperialismus befreit. Doch am Ende waren sie als Gegengift schlimmer als das Gift selbst...\" Der Grund, warum dies jetzt geschieht, liegt auf der Hand: Da ihre Marine größtenteils auf dem Meeresgrund lag, waren die [From.GetAdjective] Überseegebiete von den Heimatinseln abgeschnitten. Wie auch immer es ausgeht, es wird sicherlich ein Wendepunkt in der asiatischen Geschichte sein."</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2310,11 +2311,11 @@
       </c>
       <c r="C60" s="1" t="str">
         <f aca="false">A60 &amp;" " &amp;"""" &amp;B60 &amp;""""</f>
-        <v> bramja.16.a:0 "This chaos in the East won't help our cause!"</v>
+        <v> bramja.16.a:0 "Dieses Chaos im Osten wird unserer Sache nicht dienlich sein!"</v>
       </c>
       <c r="D60" s="1" t="str">
         <f aca="false">IF(ISBLANK(A60),"",C60)</f>
-        <v> bramja.16.a:0 "This chaos in the East won't help our cause!"</v>
+        <v> bramja.16.a:0 "Dieses Chaos im Osten wird unserer Sache nicht dienlich sein!"</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2326,11 +2327,11 @@
       </c>
       <c r="C61" s="1" t="str">
         <f aca="false">A61 &amp;" " &amp;"""" &amp;B61 &amp;""""</f>
-        <v> bramja.16.b:0 "This not the end of the beginning anymore, but the beginning of the end!"</v>
+        <v> bramja.16.b:0 "Dies ist nicht mehr das Ende vom Anfang, sondern der Anfang vom Ende!"</v>
       </c>
       <c r="D61" s="1" t="str">
         <f aca="false">IF(ISBLANK(A61),"",C61)</f>
-        <v> bramja.16.b:0 "This not the end of the beginning anymore, but the beginning of the end!"</v>
+        <v> bramja.16.b:0 "Dies ist nicht mehr das Ende vom Anfang, sondern der Anfang vom Ende!"</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2342,11 +2343,11 @@
       </c>
       <c r="C62" s="1" t="str">
         <f aca="false">A62 &amp;" " &amp;"""" &amp;B62 &amp;""""</f>
-        <v> bramja.16.c:0 "East or West, none are spared in the conflagration"</v>
+        <v> bramja.16.c:0 "Ob im Osten oder im Westen, keiner wird von der Feuersbrunst verschont."</v>
       </c>
       <c r="D62" s="1" t="str">
         <f aca="false">IF(ISBLANK(A62),"",C62)</f>
-        <v> bramja.16.c:0 "East or West, none are spared in the conflagration"</v>
+        <v> bramja.16.c:0 "Ob im Osten oder im Westen, keiner wird von der Feuersbrunst verschont."</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2358,11 +2359,11 @@
       </c>
       <c r="C63" s="1" t="str">
         <f aca="false">A63 &amp;" " &amp;"""" &amp;B63 &amp;""""</f>
-        <v> bramja.17.t:0 "The Middle Kingdom..."</v>
+        <v> bramja.17.t:0 "Das Reich der Mitte..."</v>
       </c>
       <c r="D63" s="1" t="str">
         <f aca="false">IF(ISBLANK(A63),"",C63)</f>
-        <v> bramja.17.t:0 "The Middle Kingdom..."</v>
+        <v> bramja.17.t:0 "Das Reich der Mitte..."</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2374,11 +2375,11 @@
       </c>
       <c r="C64" s="1" t="str">
         <f aca="false">A64 &amp;" " &amp;"""" &amp;B64 &amp;""""</f>
-        <v> bramja.17.d:0 "§B\"The Empire, long divided, must unite; long united, must divide. Thus it has ever been.\"§!\n\nSo it was written in China's most read book the \"Romance of the Three Kingdoms\" (Sānguó Yǎnyì). The book phrases a view common throughout the East, a philosophy which conceives history as circular, Ying &amp; Yang, as the eternal self eating snake, the ever swinging pendulum, back and forth, never really moving. Westerners often grew up with the linear view of history, as if always working its way to a final climax (or rather a literal Apocalypse), as so it is taught by the Abrahamic Religions. Not surprisingly, this difference in worldview has been used by Westerners to explain and justify their superiority over the world, as this would lead to a more active, driven people who wouldn't accept their lot but would always strive for more... \n \nRecent events in China could prove the already battered beliefs of the West wrong. Recently the well known saying has been going over the lips markedly more throughout China, as adapted versions of the Chinese novel spread out from the North. The adaptions are well crafted, stressings the analogies between the present and the past. This is only one of many ways how the idea spreads that \"the unity and prosperity  of the Chinese realm\" shall soon return, guided by the Mandate of Heaven."</v>
+        <v> bramja.17.d:0 "§B§B \"Das Reich, lange geteilt, muss sich vereinen; lange vereint, muss sich trennen. So ist es schon immer gewesen.\" §!§! \n\nSo stand es in Chinas meistgelesenem Buch, dem \"Roman der drei Reiche\" (Sānguó Yǎnyì). Das Buch formuliert eine im gesamten Osten verbreitete Sichtweise, eine Philosophie, die die Geschichte als kreisförmig, als Ying und Yang, als die ewige, sich selbst verzehrende Schlange, als das ewig schwingende Pendel, das hin und her schwingt und sich nie wirklich bewegt, begreift. Westler sind oft mit einer linearen Sicht der Geschichte aufgewachsen, als ob sie immer auf einen endgültigen Höhepunkt (oder besser gesagt eine buchstäbliche Apokalypse) zusteuert, wie sie von den abrahamitischen Religionen gelehrt wird. Es überrascht nicht, dass dieser Unterschied in der Weltanschauung von den Menschen des Westens benutzt wurde, um ihre Überlegenheit über die Welt zu erklären und zu rechtfertigen, da dies zu einem aktiveren, getriebeneren Volk führen würde, das sich nicht mit seinem Schicksal abfindet, sondern immer nach mehr strebt... \n \nDie jüngsten Ereignisse in China könnten die bereits angeschlagenen Überzeugungen des Westens widerlegen. In letzter Zeit ist das bekannte Sprichwort in ganz China deutlich mehr über die Lippen gekommen, da sich vom Norden aus adaptierte Versionen des chinesischen Romans ausbreiten. Die Bearbeitungen sind gut gemacht und betonen die Analogien zwischen Gegenwart und Vergangenheit. Dies ist nur eine von vielen Möglichkeiten, wie sich die Idee verbreitet, dass \"die Einheit und der Wohlstand des chinesischen Reiches\" bald zurückkehren werden, geleitet durch das Mandat des Himmels."</v>
       </c>
       <c r="D64" s="1" t="str">
         <f aca="false">IF(ISBLANK(A64),"",C64)</f>
-        <v> bramja.17.d:0 "§B\"The Empire, long divided, must unite; long united, must divide. Thus it has ever been.\"§!\n\nSo it was written in China's most read book the \"Romance of the Three Kingdoms\" (Sānguó Yǎnyì). The book phrases a view common throughout the East, a philosophy which conceives history as circular, Ying &amp; Yang, as the eternal self eating snake, the ever swinging pendulum, back and forth, never really moving. Westerners often grew up with the linear view of history, as if always working its way to a final climax (or rather a literal Apocalypse), as so it is taught by the Abrahamic Religions. Not surprisingly, this difference in worldview has been used by Westerners to explain and justify their superiority over the world, as this would lead to a more active, driven people who wouldn't accept their lot but would always strive for more... \n \nRecent events in China could prove the already battered beliefs of the West wrong. Recently the well known saying has been going over the lips markedly more throughout China, as adapted versions of the Chinese novel spread out from the North. The adaptions are well crafted, stressings the analogies between the present and the past. This is only one of many ways how the idea spreads that \"the unity and prosperity  of the Chinese realm\" shall soon return, guided by the Mandate of Heaven."</v>
+        <v> bramja.17.d:0 "§B§B \"Das Reich, lange geteilt, muss sich vereinen; lange vereint, muss sich trennen. So ist es schon immer gewesen.\" §!§! \n\nSo stand es in Chinas meistgelesenem Buch, dem \"Roman der drei Reiche\" (Sānguó Yǎnyì). Das Buch formuliert eine im gesamten Osten verbreitete Sichtweise, eine Philosophie, die die Geschichte als kreisförmig, als Ying und Yang, als die ewige, sich selbst verzehrende Schlange, als das ewig schwingende Pendel, das hin und her schwingt und sich nie wirklich bewegt, begreift. Westler sind oft mit einer linearen Sicht der Geschichte aufgewachsen, als ob sie immer auf einen endgültigen Höhepunkt (oder besser gesagt eine buchstäbliche Apokalypse) zusteuert, wie sie von den abrahamitischen Religionen gelehrt wird. Es überrascht nicht, dass dieser Unterschied in der Weltanschauung von den Menschen des Westens benutzt wurde, um ihre Überlegenheit über die Welt zu erklären und zu rechtfertigen, da dies zu einem aktiveren, getriebeneren Volk führen würde, das sich nicht mit seinem Schicksal abfindet, sondern immer nach mehr strebt... \n \nDie jüngsten Ereignisse in China könnten die bereits angeschlagenen Überzeugungen des Westens widerlegen. In letzter Zeit ist das bekannte Sprichwort in ganz China deutlich mehr über die Lippen gekommen, da sich vom Norden aus adaptierte Versionen des chinesischen Romans ausbreiten. Die Bearbeitungen sind gut gemacht und betonen die Analogien zwischen Gegenwart und Vergangenheit. Dies ist nur eine von vielen Möglichkeiten, wie sich die Idee verbreitet, dass \"die Einheit und der Wohlstand des chinesischen Reiches\" bald zurückkehren werden, geleitet durch das Mandat des Himmels."</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,11 +2391,11 @@
       </c>
       <c r="C65" s="1" t="str">
         <f aca="false">A65 &amp;" " &amp;"""" &amp;B65 &amp;""""</f>
-        <v> bramja.17.a:0 " \n\n §T §T [MAN.GetFlag]"</v>
+        <v> bramja.17.a:0 " \n\n §T§T §T§T [MAN.GetFlag]"</v>
       </c>
       <c r="D65" s="1" t="str">
         <f aca="false">IF(ISBLANK(A65),"",C65)</f>
-        <v> bramja.17.a:0 " \n\n §T §T [MAN.GetFlag]"</v>
+        <v> bramja.17.a:0 " \n\n §T§T §T§T [MAN.GetFlag]"</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2406,11 +2407,11 @@
       </c>
       <c r="C66" s="1" t="str">
         <f aca="false">A66 &amp;" " &amp;"""" &amp;B66 &amp;""""</f>
-        <v> bramja.17.b:0 " \n §T Fate is with the Qing\n To part 2  §T [MAN.GetFlag]"</v>
+        <v> bramja.17.b:0 " \n §T§T Das Schicksal ist mit den Qing\n Zu Teil 2 §T§T [MAN.GetFlag]"</v>
       </c>
       <c r="D66" s="1" t="str">
         <f aca="false">IF(ISBLANK(A66),"",C66)</f>
-        <v> bramja.17.b:0 " \n §T Fate is with the Qing\n To part 2  §T [MAN.GetFlag]"</v>
+        <v> bramja.17.b:0 " \n §T§T Das Schicksal ist mit den Qing\n Zu Teil 2 §T§T [MAN.GetFlag]"</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2422,11 +2423,11 @@
       </c>
       <c r="C67" s="1" t="str">
         <f aca="false">A67 &amp;" " &amp;"""" &amp;B67 &amp;""""</f>
-        <v> bramja.18.t:0 "...will rise from the ash or be forever extinguished?"</v>
+        <v> bramja.18.t:0 "...wird sich aus der Asche erheben oder für immer ausgelöscht werden?"</v>
       </c>
       <c r="D67" s="1" t="str">
         <f aca="false">IF(ISBLANK(A67),"",C67)</f>
-        <v> bramja.18.t:0 "...will rise from the ash or be forever extinguished?"</v>
+        <v> bramja.18.t:0 "...wird sich aus der Asche erheben oder für immer ausgelöscht werden?"</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2438,11 +2439,11 @@
       </c>
       <c r="C68" s="1" t="str">
         <f aca="false">A68 &amp;" " &amp;"""" &amp;B68 &amp;""""</f>
-        <v> bramja.18.d:0 "The last dark decennia, in which China sank away into the chaos of Unequal Treaties, warlords, revolutionaries and finally unrelenting invaders, does seem to be coming to an end. Today in [Root.Capital.GetName] it was announced in the proper ritualistic fashion, how [FROM.GetLeader] was crowned Emperor of all of China once more. The final defeat of China's existential threats by the [From.GetAdjective] armies, had proven to whom the Mandate rightfully belonged, just as it had before. \nThe [From.GetRulingParty] have proven to be excellent propagandists over the last decade, using the course of events of the last decennia until now to fit a story with only one possible conclusion, the Qing, and the Qing only can show the path for China to regain its place in the world, in the center of it! Even the most cynic Western colonialist or idealistic Chinese republicans, must at times doubt their cause, as [From.GetName] now likely is the  most developed, resource rich and well armed state left in the Middle Kingdom.\nWill the Chinese Empire stand and complete the cycle once more, showing the world the Middle Kingdom ìs to last forever? Or will those who pursued the Middle Kingdoms demise enjoy final vindication?"</v>
+        <v> bramja.18.d:0 "Die letzten dunklen Jahrzehnte, in denen China im Chaos von ungleichen Verträgen, Kriegsherren, Revolutionären und schließlich unerbittlichen Invasoren versank, scheinen sich ihrem Ende zu nähern. Heute wurde in [Root.Capital.GetName] rituell verkündet, wie [FROM.GetLeader] erneut zum Kaiser von ganz China gekrönt wurde. Die endgültige Niederlage der existenziellen Bedrohungen Chinas durch die Armeen von [FROM.GetAdjective] hatte bewiesen, wem das Mandat rechtmäßig gehörte, so wie es zuvor der Fall war. \Die [From.GetRulingParty] haben sich in den letzten zehn Jahren als hervorragende Propagandisten erwiesen, die den Verlauf der Ereignisse der letzten Jahrzehnte bis heute in eine Geschichte einpassen, die nur eine mögliche Schlussfolgerung zulässt: die Qing, und nur die Qing können China den Weg weisen, seinen Platz in der Welt wieder einzunehmen, im Zentrum der Welt! Selbst die zynischsten westlichen Kolonialisten oder die idealistischsten chinesischen Republikaner müssen manchmal an ihrer Sache zweifeln, da [Von.GetName] jetzt wahrscheinlich der am weitesten entwickelte, ressourcenreichste und am besten bewaffnete Staat ist, der im Reich der Mitte übrig geblieben ist.\nWird das chinesische Kaiserreich aufstehen und den Zyklus noch einmal vollenden und der Welt zeigen, dass das Reich der Mitte für immer Bestand haben wird? Oder werden diejenigen, die den Untergang des Reichs der Mitte verfolgten, endgültig Recht behalten?"</v>
       </c>
       <c r="D68" s="1" t="str">
         <f aca="false">IF(ISBLANK(A68),"",C68)</f>
-        <v> bramja.18.d:0 "The last dark decennia, in which China sank away into the chaos of Unequal Treaties, warlords, revolutionaries and finally unrelenting invaders, does seem to be coming to an end. Today in [Root.Capital.GetName] it was announced in the proper ritualistic fashion, how [FROM.GetLeader] was crowned Emperor of all of China once more. The final defeat of China's existential threats by the [From.GetAdjective] armies, had proven to whom the Mandate rightfully belonged, just as it had before. \nThe [From.GetRulingParty] have proven to be excellent propagandists over the last decade, using the course of events of the last decennia until now to fit a story with only one possible conclusion, the Qing, and the Qing only can show the path for China to regain its place in the world, in the center of it! Even the most cynic Western colonialist or idealistic Chinese republicans, must at times doubt their cause, as [From.GetName] now likely is the  most developed, resource rich and well armed state left in the Middle Kingdom.\nWill the Chinese Empire stand and complete the cycle once more, showing the world the Middle Kingdom ìs to last forever? Or will those who pursued the Middle Kingdoms demise enjoy final vindication?"</v>
+        <v> bramja.18.d:0 "Die letzten dunklen Jahrzehnte, in denen China im Chaos von ungleichen Verträgen, Kriegsherren, Revolutionären und schließlich unerbittlichen Invasoren versank, scheinen sich ihrem Ende zu nähern. Heute wurde in [Root.Capital.GetName] rituell verkündet, wie [FROM.GetLeader] erneut zum Kaiser von ganz China gekrönt wurde. Die endgültige Niederlage der existenziellen Bedrohungen Chinas durch die Armeen von [FROM.GetAdjective] hatte bewiesen, wem das Mandat rechtmäßig gehörte, so wie es zuvor der Fall war. \Die [From.GetRulingParty] haben sich in den letzten zehn Jahren als hervorragende Propagandisten erwiesen, die den Verlauf der Ereignisse der letzten Jahrzehnte bis heute in eine Geschichte einpassen, die nur eine mögliche Schlussfolgerung zulässt: die Qing, und nur die Qing können China den Weg weisen, seinen Platz in der Welt wieder einzunehmen, im Zentrum der Welt! Selbst die zynischsten westlichen Kolonialisten oder die idealistischsten chinesischen Republikaner müssen manchmal an ihrer Sache zweifeln, da [Von.GetName] jetzt wahrscheinlich der am weitesten entwickelte, ressourcenreichste und am besten bewaffnete Staat ist, der im Reich der Mitte übrig geblieben ist.\nWird das chinesische Kaiserreich aufstehen und den Zyklus noch einmal vollenden und der Welt zeigen, dass das Reich der Mitte für immer Bestand haben wird? Oder werden diejenigen, die den Untergang des Reichs der Mitte verfolgten, endgültig Recht behalten?"</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2454,11 +2455,11 @@
       </c>
       <c r="C69" s="1" t="str">
         <f aca="false">A69 &amp;" " &amp;"""" &amp;B69 &amp;""""</f>
-        <v> bramja.18.a:0 "A century of lacking political shrewdness overcome, in few years? Perhaps, perhaps... that must mean something."</v>
+        <v> bramja.18.a:0 "Ein Jahrhundert mangelnder politischer Klugheit überwunden, in wenigen Jahren? Vielleicht, vielleicht... das muss etwas bedeuten."</v>
       </c>
       <c r="D69" s="1" t="str">
         <f aca="false">IF(ISBLANK(A69),"",C69)</f>
-        <v> bramja.18.a:0 "A century of lacking political shrewdness overcome, in few years? Perhaps, perhaps... that must mean something."</v>
+        <v> bramja.18.a:0 "Ein Jahrhundert mangelnder politischer Klugheit überwunden, in wenigen Jahren? Vielleicht, vielleicht... das muss etwas bedeuten."</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2470,11 +2471,11 @@
       </c>
       <c r="C70" s="1" t="str">
         <f aca="false">A70 &amp;" " &amp;"""" &amp;B70 &amp;""""</f>
-        <v> bramja.22.a:0 "Establish Vichy France."</v>
+        <v> bramja.22.a:0 "Etablierung von Vichy-Frankreich."</v>
       </c>
       <c r="D70" s="1" t="str">
         <f aca="false">IF(ISBLANK(A70),"",C70)</f>
-        <v> bramja.22.a:0 "Establish Vichy France."</v>
+        <v> bramja.22.a:0 "Etablierung von Vichy-Frankreich."</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2486,11 +2487,11 @@
       </c>
       <c r="C71" s="1" t="str">
         <f aca="false">A71 &amp;" " &amp;"""" &amp;B71 &amp;""""</f>
-        <v> bramja.22.c:0 "Establish Bourbon France."</v>
+        <v> bramja.22.c:0 "Etablierung des bourbonischen Frankreichs."</v>
       </c>
       <c r="D71" s="1" t="str">
         <f aca="false">IF(ISBLANK(A71),"",C71)</f>
-        <v> bramja.22.c:0 "Establish Bourbon France."</v>
+        <v> bramja.22.c:0 "Etablierung des bourbonischen Frankreichs."</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,11 +2503,11 @@
       </c>
       <c r="C72" s="1" t="str">
         <f aca="false">A72 &amp;" " &amp;"""" &amp;B72 &amp;""""</f>
-        <v> bramja.23.t:0 "The Second Armistice at Compiégne"</v>
+        <v> bramja.23.t:0 "Der zweite Waffenstillstand von Compiégne"</v>
       </c>
       <c r="D72" s="1" t="str">
         <f aca="false">IF(ISBLANK(A72),"",C72)</f>
-        <v> bramja.23.t:0 "The Second Armistice at Compiégne"</v>
+        <v> bramja.23.t:0 "Der zweite Waffenstillstand von Compiégne"</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,11 +2519,11 @@
       </c>
       <c r="C73" s="1" t="str">
         <f aca="false">A73 &amp;" " &amp;"""" &amp;B73 &amp;""""</f>
-        <v> bramja.23.d:0 "Following a betrayal by more defeatist elements in the government and military, an armistice between the [From.GetName] and the French has been signed at Compiégne, in the very railway carriage in which the German surrender in World War I was negotiated. [FRA.GetLeader] and his government were ousted after the disasterous defeats recently and fled overseas. The coup was mainly executed by radicals admiring the German ways...\n \nUnder the terms of the armistice, a French government under [vichy_france.GetLeader] based out of Vichy will continue to administer most of southern France, while the rest of the country falls under a German Occupation Zone. \n\n The French monarch and several French officers have vowed to continue resistance from abroad, but this puts an effective end to the fighting in France, at least for the time being."</v>
+        <v> bramja.23.d:0 "Nach einem Verrat durch eher defätistische Elemente in der Regierung und im Militär wurde in Compiégne ein Waffenstillstand zwischen den [From.GetName] und den Franzosen unterzeichnet, und zwar in genau dem Eisenbahnwaggon, in dem die deutsche Kapitulation im Ersten Weltkrieg ausgehandelt wurde. [FRA.GetLeader] und seine Regierung wurden nach den katastrophalen Niederlagen der letzten Zeit gestürzt und flohen nach Übersee. Der Staatsstreich wurde hauptsächlich von Radikalen ausgeführt, die die deutschen Methoden bewunderten...\n \nNach den Bedingungen des Waffenstillstands wird eine französische Regierung unter [vichy_france.GetLeader] mit Sitz in Vichy den größten Teil Südfrankreichs weiter verwalten, während der Rest des Landes unter eine deutsche Besatzungszone fällt. \Der französische Monarch und einige französische Offiziere haben geschworen, den Widerstand aus dem Ausland fortzusetzen, aber damit sind die Kämpfe in Frankreich zumindest vorläufig beendet."</v>
       </c>
       <c r="D73" s="1" t="str">
         <f aca="false">IF(ISBLANK(A73),"",C73)</f>
-        <v> bramja.23.d:0 "Following a betrayal by more defeatist elements in the government and military, an armistice between the [From.GetName] and the French has been signed at Compiégne, in the very railway carriage in which the German surrender in World War I was negotiated. [FRA.GetLeader] and his government were ousted after the disasterous defeats recently and fled overseas. The coup was mainly executed by radicals admiring the German ways...\n \nUnder the terms of the armistice, a French government under [vichy_france.GetLeader] based out of Vichy will continue to administer most of southern France, while the rest of the country falls under a German Occupation Zone. \n\n The French monarch and several French officers have vowed to continue resistance from abroad, but this puts an effective end to the fighting in France, at least for the time being."</v>
+        <v> bramja.23.d:0 "Nach einem Verrat durch eher defätistische Elemente in der Regierung und im Militär wurde in Compiégne ein Waffenstillstand zwischen den [From.GetName] und den Franzosen unterzeichnet, und zwar in genau dem Eisenbahnwaggon, in dem die deutsche Kapitulation im Ersten Weltkrieg ausgehandelt wurde. [FRA.GetLeader] und seine Regierung wurden nach den katastrophalen Niederlagen der letzten Zeit gestürzt und flohen nach Übersee. Der Staatsstreich wurde hauptsächlich von Radikalen ausgeführt, die die deutschen Methoden bewunderten...\n \nNach den Bedingungen des Waffenstillstands wird eine französische Regierung unter [vichy_france.GetLeader] mit Sitz in Vichy den größten Teil Südfrankreichs weiter verwalten, während der Rest des Landes unter eine deutsche Besatzungszone fällt. \Der französische Monarch und einige französische Offiziere haben geschworen, den Widerstand aus dem Ausland fortzusetzen, aber damit sind die Kämpfe in Frankreich zumindest vorläufig beendet."</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2534,11 +2535,11 @@
       </c>
       <c r="C74" s="1" t="str">
         <f aca="false">A74 &amp;" " &amp;"""" &amp;B74 &amp;""""</f>
-        <v> bramja.23.a:0 "Will [FRA.GetLeader] be able to recover the French throne once more for his dynasty?"</v>
+        <v> bramja.23.a:0 "Wird es [FRA.GetLeader] gelingen, den französischen Thron wieder für seine Dynastie zu erobern?"</v>
       </c>
       <c r="D74" s="1" t="str">
         <f aca="false">IF(ISBLANK(A74),"",C74)</f>
-        <v> bramja.23.a:0 "Will [FRA.GetLeader] be able to recover the French throne once more for his dynasty?"</v>
+        <v> bramja.23.a:0 "Wird es [FRA.GetLeader] gelingen, den französischen Thron wieder für seine Dynastie zu erobern?"</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2550,11 +2551,11 @@
       </c>
       <c r="C75" s="1" t="str">
         <f aca="false">A75 &amp;" " &amp;"""" &amp;B75 &amp;""""</f>
-        <v> bramja.23.b:0 "Konig, Kaiser oder Republik, Frankreich steht immer unter Deutschland!"</v>
+        <v> bramja.23.b:0 "König, Kaiser oder Republik, Frankreich steht immer unter Deutschland!"</v>
       </c>
       <c r="D75" s="1" t="str">
         <f aca="false">IF(ISBLANK(A75),"",C75)</f>
-        <v> bramja.23.b:0 "Konig, Kaiser oder Republik, Frankreich steht immer unter Deutschland!"</v>
+        <v> bramja.23.b:0 "König, Kaiser oder Republik, Frankreich steht immer unter Deutschland!"</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2566,11 +2567,11 @@
       </c>
       <c r="C76" s="1" t="str">
         <f aca="false">A76 &amp;" " &amp;"""" &amp;B76 &amp;""""</f>
-        <v> bramja.25.t:0 "Alliance with the Brits?"</v>
+        <v> bramja.25.t:0 "Allianz mit den Briten?"</v>
       </c>
       <c r="D76" s="1" t="str">
         <f aca="false">IF(ISBLANK(A76),"",C76)</f>
-        <v> bramja.25.t:0 "Alliance with the Brits?"</v>
+        <v> bramja.25.t:0 "Allianz mit den Briten?"</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2582,11 +2583,11 @@
       </c>
       <c r="C77" s="1" t="str">
         <f aca="false">A77 &amp;" " &amp;"""" &amp;B77 &amp;""""</f>
-        <v> bramja.25.d:0 "With the ongoing German Invasion of Western Europe, we should perhaps reach out to our old ally and rival across sea. Even though our government has less love for the Brits than the republic, we should perhaps consider this alliance untill the German threat is defeated."</v>
+        <v> bramja.25.d:0 "Angesichts der laufenden deutschen Invasion in Westeuropa sollten wir vielleicht unserem alten Verbündeten und Rivalen jenseits des Meeres die Hand reichen. Auch wenn unsere Regierung die Briten weniger liebt als die Republik, sollten wir dieses Bündnis vielleicht in Betracht ziehen, bis die deutsche Bedrohung besiegt ist."</v>
       </c>
       <c r="D77" s="1" t="str">
         <f aca="false">IF(ISBLANK(A77),"",C77)</f>
-        <v> bramja.25.d:0 "With the ongoing German Invasion of Western Europe, we should perhaps reach out to our old ally and rival across sea. Even though our government has less love for the Brits than the republic, we should perhaps consider this alliance untill the German threat is defeated."</v>
+        <v> bramja.25.d:0 "Angesichts der laufenden deutschen Invasion in Westeuropa sollten wir vielleicht unserem alten Verbündeten und Rivalen jenseits des Meeres die Hand reichen. Auch wenn unsere Regierung die Briten weniger liebt als die Republik, sollten wir dieses Bündnis vielleicht in Betracht ziehen, bis die deutsche Bedrohung besiegt ist."</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2598,11 +2599,11 @@
       </c>
       <c r="C78" s="1" t="str">
         <f aca="false">A78 &amp;" " &amp;"""" &amp;B78 &amp;""""</f>
-        <v> bramja.25.a:0 "Lets go for it, for now at least..."</v>
+        <v> bramja.25.a:0 "Lasst uns das tun, zumindest für den Moment..."</v>
       </c>
       <c r="D78" s="1" t="str">
         <f aca="false">IF(ISBLANK(A78),"",C78)</f>
-        <v> bramja.25.a:0 "Lets go for it, for now at least..."</v>
+        <v> bramja.25.a:0 "Lasst uns das tun, zumindest für den Moment..."</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2614,11 +2615,11 @@
       </c>
       <c r="C79" s="1" t="str">
         <f aca="false">A79 &amp;" " &amp;"""" &amp;B79 &amp;""""</f>
-        <v> bramja.25.b:0 "France can deal with this on its own just fine."</v>
+        <v> bramja.25.b:0 "Frankreich kann das ganz gut allein bewältigen."</v>
       </c>
       <c r="D79" s="1" t="str">
         <f aca="false">IF(ISBLANK(A79),"",C79)</f>
-        <v> bramja.25.b:0 "France can deal with this on its own just fine."</v>
+        <v> bramja.25.b:0 "Frankreich kann das ganz gut allein bewältigen."</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2630,11 +2631,11 @@
       </c>
       <c r="C80" s="1" t="str">
         <f aca="false">A80 &amp;" " &amp;"""" &amp;B80 &amp;""""</f>
-        <v> bramja.26.t:0 "The French propose temporary alliance against Germany"</v>
+        <v> bramja.26.t:0 "Die Franzosen schlagen ein vorübergehendes Bündnis gegen Deutschland vor"</v>
       </c>
       <c r="D80" s="1" t="str">
         <f aca="false">IF(ISBLANK(A80),"",C80)</f>
-        <v> bramja.26.t:0 "The French propose temporary alliance against Germany"</v>
+        <v> bramja.26.t:0 "Die Franzosen schlagen ein vorübergehendes Bündnis gegen Deutschland vor"</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2646,11 +2647,11 @@
       </c>
       <c r="C81" s="1" t="str">
         <f aca="false">A81 &amp;" " &amp;"""" &amp;B81 &amp;""""</f>
-        <v> bramja.26.d:0 "While the current French regime is not the same as during the Great War, being less democratic and fundamentally more opposed to our interests, they have asked to create an allliance untill Germany is defeated. In the end we might just help one future foe defeat the current one, giving us larger troubles in the future..."</v>
+        <v> bramja.26.d:0 "Obwohl das derzeitige französische Regime nicht mehr dasselbe ist wie während des Ersten Weltkriegs, da es weniger demokratisch ist und unseren Interessen grundsätzlich ablehnender gegenübersteht, haben sie darum gebeten, ein Bündnis zu schließen, bis Deutschland besiegt ist. Am Ende könnten wir einem zukünftigen Feind helfen, den jetzigen zu besiegen, was uns in der Zukunft größere Probleme bereiten würde..."</v>
       </c>
       <c r="D81" s="1" t="str">
         <f aca="false">IF(ISBLANK(A81),"",C81)</f>
-        <v> bramja.26.d:0 "While the current French regime is not the same as during the Great War, being less democratic and fundamentally more opposed to our interests, they have asked to create an allliance untill Germany is defeated. In the end we might just help one future foe defeat the current one, giving us larger troubles in the future..."</v>
+        <v> bramja.26.d:0 "Obwohl das derzeitige französische Regime nicht mehr dasselbe ist wie während des Ersten Weltkriegs, da es weniger demokratisch ist und unseren Interessen grundsätzlich ablehnender gegenübersteht, haben sie darum gebeten, ein Bündnis zu schließen, bis Deutschland besiegt ist. Am Ende könnten wir einem zukünftigen Feind helfen, den jetzigen zu besiegen, was uns in der Zukunft größere Probleme bereiten würde..."</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2662,11 +2663,11 @@
       </c>
       <c r="C82" s="1" t="str">
         <f aca="false">A82 &amp;" " &amp;"""" &amp;B82 &amp;""""</f>
-        <v> bramja.26.a:0 "Lets go for it, we will think about future problems when we face them...."</v>
+        <v> bramja.26.a:0 "Lasst es uns tun, wir werden über zukünftige Probleme nachdenken, wenn wir ihnen gegenüberstehen...."</v>
       </c>
       <c r="D82" s="1" t="str">
         <f aca="false">IF(ISBLANK(A82),"",C82)</f>
-        <v> bramja.26.a:0 "Lets go for it, we will think about future problems when we face them...."</v>
+        <v> bramja.26.a:0 "Lasst es uns tun, wir werden über zukünftige Probleme nachdenken, wenn wir ihnen gegenüberstehen...."</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2678,11 +2679,11 @@
       </c>
       <c r="C83" s="1" t="str">
         <f aca="false">A83 &amp;" " &amp;"""" &amp;B83 &amp;""""</f>
-        <v> bramja.26.b:0 "Let them fight it out."</v>
+        <v> bramja.26.b:0 "Lasst sie es ausfechten."</v>
       </c>
       <c r="D83" s="1" t="str">
         <f aca="false">IF(ISBLANK(A83),"",C83)</f>
-        <v> bramja.26.b:0 "Let them fight it out."</v>
+        <v> bramja.26.b:0 "Lasst sie es ausfechten."</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,11 +2695,11 @@
       </c>
       <c r="C84" s="1" t="str">
         <f aca="false">A84 &amp;" " &amp;"""" &amp;B84 &amp;""""</f>
-        <v> bramja.27.t:0 "Ending our membership of the Allies"</v>
+        <v> bramja.27.t:0 "Beendigung unserer Mitgliedschaft bei den Alliierten"</v>
       </c>
       <c r="D84" s="1" t="str">
         <f aca="false">IF(ISBLANK(A84),"",C84)</f>
-        <v> bramja.27.t:0 "Ending our membership of the Allies"</v>
+        <v> bramja.27.t:0 "Beendigung unserer Mitgliedschaft bei den Alliierten"</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,11 +2711,11 @@
       </c>
       <c r="C85" s="1" t="str">
         <f aca="false">A85 &amp;" " &amp;"""" &amp;B85 &amp;""""</f>
-        <v> bramja.27.d:0 "With the German threat over, we should again strive towards own goals, which perhaps will go against our current allies..."</v>
+        <v> bramja.27.d:0 "Da die deutsche Bedrohung vorüber ist, sollten wir wieder eigene Ziele anstreben, die vielleicht gegen unsere derzeitigen Verbündeten gerichtet sind..."</v>
       </c>
       <c r="D85" s="1" t="str">
         <f aca="false">IF(ISBLANK(A85),"",C85)</f>
-        <v> bramja.27.d:0 "With the German threat over, we should again strive towards own goals, which perhaps will go against our current allies..."</v>
+        <v> bramja.27.d:0 "Da die deutsche Bedrohung vorüber ist, sollten wir wieder eigene Ziele anstreben, die vielleicht gegen unsere derzeitigen Verbündeten gerichtet sind..."</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,11 +2743,11 @@
       </c>
       <c r="C87" s="1" t="str">
         <f aca="false">A87 &amp;" " &amp;"""" &amp;B87 &amp;""""</f>
-        <v> bramja.27.b:0 "Perhaps we can still use some extra backup..."</v>
+        <v> bramja.27.b:0 "Vielleicht können wir noch etwas zusätzliche Unterstützung gebrauchen..."</v>
       </c>
       <c r="D87" s="1" t="str">
         <f aca="false">IF(ISBLANK(A87),"",C87)</f>
-        <v> bramja.27.b:0 "Perhaps we can still use some extra backup..."</v>
+        <v> bramja.27.b:0 "Vielleicht können wir noch etwas zusätzliche Unterstützung gebrauchen..."</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2758,11 +2759,11 @@
       </c>
       <c r="C88" s="1" t="str">
         <f aca="false">A88 &amp;" " &amp;"""" &amp;B88 &amp;""""</f>
-        <v> bramja.28.t:0 "[From.GetNameDef] leaves the Allies"</v>
+        <v> bramja.28.t:0 "[From.GetNameDef] verlässt die Alliierten"</v>
       </c>
       <c r="D88" s="1" t="str">
         <f aca="false">IF(ISBLANK(A88),"",C88)</f>
-        <v> bramja.28.t:0 "[From.GetNameDef] leaves the Allies"</v>
+        <v> bramja.28.t:0 "[From.GetNameDef] verlässt die Alliierten"</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,11 +2775,11 @@
       </c>
       <c r="C89" s="1" t="str">
         <f aca="false">A89 &amp;" " &amp;"""" &amp;B89 &amp;""""</f>
-        <v> bramja.28.d:0 "With the German threat defeated, [From.GetNameDef] has announced they will go their own way once more, mentioning ever more diverging goals now their common enemy has been laid low..."</v>
+        <v> bramja.28.d:0 "Nachdem die deutsche Bedrohung besiegt ist, hat [From.GetNameDef] angekündigt, dass sie wieder eigene Wege gehen werden, wobei sie immer weiter voneinander abweichende Ziele nennen, nachdem ihr gemeinsamer Feind besiegt wurde..."</v>
       </c>
       <c r="D89" s="1" t="str">
         <f aca="false">IF(ISBLANK(A89),"",C89)</f>
-        <v> bramja.28.d:0 "With the German threat defeated, [From.GetNameDef] has announced they will go their own way once more, mentioning ever more diverging goals now their common enemy has been laid low..."</v>
+        <v> bramja.28.d:0 "Nachdem die deutsche Bedrohung besiegt ist, hat [From.GetNameDef] angekündigt, dass sie wieder eigene Wege gehen werden, wobei sie immer weiter voneinander abweichende Ziele nennen, nachdem ihr gemeinsamer Feind besiegt wurde..."</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2790,11 +2791,11 @@
       </c>
       <c r="C90" s="1" t="str">
         <f aca="false">A90 &amp;" " &amp;"""" &amp;B90 &amp;""""</f>
-        <v> bramja.28.a:0 "Will the French be new troublemakers in the European house?"</v>
+        <v> bramja.28.a:0 "Werden die Franzosen die neuen Unruhestifter im europäischen Haus sein?"</v>
       </c>
       <c r="D90" s="1" t="str">
         <f aca="false">IF(ISBLANK(A90),"",C90)</f>
-        <v> bramja.28.a:0 "Will the French be new troublemakers in the European house?"</v>
+        <v> bramja.28.a:0 "Werden die Franzosen die neuen Unruhestifter im europäischen Haus sein?"</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,11 +2807,11 @@
       </c>
       <c r="C91" s="1" t="str">
         <f aca="false">A91 &amp;" " &amp;"""" &amp;B91 &amp;""""</f>
-        <v> bramja.29.t:0 "Our claims on Yugoslav lands"</v>
+        <v> bramja.29.t:0 "Unsere Ansprüche auf jugoslawisches Land"</v>
       </c>
       <c r="D91" s="1" t="str">
         <f aca="false">IF(ISBLANK(A91),"",C91)</f>
-        <v> bramja.29.t:0 "Our claims on Yugoslav lands"</v>
+        <v> bramja.29.t:0 "Unsere Ansprüche auf jugoslawisches Land"</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2822,11 +2823,11 @@
       </c>
       <c r="C92" s="1" t="str">
         <f aca="false">A92 &amp;" " &amp;"""" &amp;B92 &amp;""""</f>
-        <v> bramja.29.d:0 "As Yugoslavia is currently at war with the Italians and their allies, now is the opportune moment to demand our lost land back from them, lest they face our wrath as well..."</v>
+        <v> bramja.29.d:0 "Da sich Jugoslawien derzeit im Krieg mit den Italienern und ihren Verbündeten befindet, ist jetzt der richtige Zeitpunkt, um unser verlorenes Land von ihnen zurückzufordern, damit sie nicht auch unseren Zorn zu spüren bekommen..."</v>
       </c>
       <c r="D92" s="1" t="str">
         <f aca="false">IF(ISBLANK(A92),"",C92)</f>
-        <v> bramja.29.d:0 "As Yugoslavia is currently at war with the Italians and their allies, now is the opportune moment to demand our lost land back from them, lest they face our wrath as well..."</v>
+        <v> bramja.29.d:0 "Da sich Jugoslawien derzeit im Krieg mit den Italienern und ihren Verbündeten befindet, ist jetzt der richtige Zeitpunkt, um unser verlorenes Land von ihnen zurückzufordern, damit sie nicht auch unseren Zorn zu spüren bekommen..."</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2838,11 +2839,11 @@
       </c>
       <c r="C93" s="1" t="str">
         <f aca="false">A93 &amp;" " &amp;"""" &amp;B93 &amp;""""</f>
-        <v> bramja.29.a:0 "Trianon will be reversed!"</v>
+        <v> bramja.29.a:0 "Trianon wird rückgängig gemacht werden!"</v>
       </c>
       <c r="D93" s="1" t="str">
         <f aca="false">IF(ISBLANK(A93),"",C93)</f>
-        <v> bramja.29.a:0 "Trianon will be reversed!"</v>
+        <v> bramja.29.a:0 "Trianon wird rückgängig gemacht werden!"</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,11 +2855,11 @@
       </c>
       <c r="C94" s="1" t="str">
         <f aca="false">A94 &amp;" " &amp;"""" &amp;B94 &amp;""""</f>
-        <v> bramja.29.b:0 "Our current situation is too dire currently..."</v>
+        <v> bramja.29.b:0 "Unsere gegenwärtige Situation ist derzeit zu schlimm..."</v>
       </c>
       <c r="D94" s="1" t="str">
         <f aca="false">IF(ISBLANK(A94),"",C94)</f>
-        <v> bramja.29.b:0 "Our current situation is too dire currently..."</v>
+        <v> bramja.29.b:0 "Unsere gegenwärtige Situation ist derzeit zu schlimm..."</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2870,11 +2871,11 @@
       </c>
       <c r="C95" s="1" t="str">
         <f aca="false">A95 &amp;" " &amp;"""" &amp;B95 &amp;""""</f>
-        <v> bramja.30.t:0 "Our brethern in Macedonia"</v>
+        <v> bramja.30.t:0 "Unseren Brüdern in Mazedonien"</v>
       </c>
       <c r="D95" s="1" t="str">
         <f aca="false">IF(ISBLANK(A95),"",C95)</f>
-        <v> bramja.30.t:0 "Our brethern in Macedonia"</v>
+        <v> bramja.30.t:0 "Unseren Brüdern in Mazedonien"</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2886,11 +2887,11 @@
       </c>
       <c r="C96" s="1" t="str">
         <f aca="false">A96 &amp;" " &amp;"""" &amp;B96 &amp;""""</f>
-        <v> bramja.30.d:0 "Our old enemies in the West face invasion and occupation, this is a great opportunity to free our ancestral homelands of Macedonia and Thrace, we should not let this chance slip."</v>
+        <v> bramja.30.d:0 "Unsere alten Feinde im Westen stehen vor einer Invasion und Besetzung, dies ist eine große Chance, unsere angestammten Heimatländer Makedonien und Thrakien zu befreien, wir sollten diese Chance nicht verstreichen lassen."</v>
       </c>
       <c r="D96" s="1" t="str">
         <f aca="false">IF(ISBLANK(A96),"",C96)</f>
-        <v> bramja.30.d:0 "Our old enemies in the West face invasion and occupation, this is a great opportunity to free our ancestral homelands of Macedonia and Thrace, we should not let this chance slip."</v>
+        <v> bramja.30.d:0 "Unsere alten Feinde im Westen stehen vor einer Invasion und Besetzung, dies ist eine große Chance, unsere angestammten Heimatländer Makedonien und Thrakien zu befreien, wir sollten diese Chance nicht verstreichen lassen."</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2902,11 +2903,11 @@
       </c>
       <c r="C97" s="1" t="str">
         <f aca="false">A97 &amp;" " &amp;"""" &amp;B97 &amp;""""</f>
-        <v> bramja.30.a:0 "We will take what is ours."</v>
+        <v> bramja.30.a:0 "Wir werden uns nehmen, was uns gehört."</v>
       </c>
       <c r="D97" s="1" t="str">
         <f aca="false">IF(ISBLANK(A97),"",C97)</f>
-        <v> bramja.30.a:0 "We will take what is ours."</v>
+        <v> bramja.30.a:0 "Wir werden uns nehmen, was uns gehört."</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2918,11 +2919,11 @@
       </c>
       <c r="C98" s="1" t="str">
         <f aca="false">A98 &amp;" " &amp;"""" &amp;B98 &amp;""""</f>
-        <v> bramja.30.b:0 "Our position is too precarious too risk this."</v>
+        <v> bramja.30.b:0 "Unsere Lage ist zu prekär, um dies zu riskieren."</v>
       </c>
       <c r="D98" s="1" t="str">
         <f aca="false">IF(ISBLANK(A98),"",C98)</f>
-        <v> bramja.30.b:0 "Our position is too precarious too risk this."</v>
+        <v> bramja.30.b:0 "Unsere Lage ist zu prekär, um dies zu riskieren."</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2934,11 +2935,11 @@
       </c>
       <c r="C99" s="1" t="str">
         <f aca="false">A99 &amp;" " &amp;"""" &amp;B99 &amp;""""</f>
-        <v> bramja.31.t:0 "Bulgaria prepares occupation of Macedonia"</v>
+        <v> bramja.31.t:0 "Bulgarien bereitet die Besetzung Mazedoniens vor"</v>
       </c>
       <c r="D99" s="1" t="str">
         <f aca="false">IF(ISBLANK(A99),"",C99)</f>
-        <v> bramja.31.t:0 "Bulgaria prepares occupation of Macedonia"</v>
+        <v> bramja.31.t:0 "Bulgarien bereitet die Besetzung Mazedoniens vor"</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,11 +2951,11 @@
       </c>
       <c r="C100" s="1" t="str">
         <f aca="false">A100 &amp;" " &amp;"""" &amp;B100 &amp;""""</f>
-        <v> bramja.31.d:0 "As their old enemies in Greece and Yugoslavia are being invaded, Bulgaria has proclaimed once more that Macedonia is part of the Bulgarian homelands. Using the weakness of their neighbours, Bulgaria has already started moving its troops into the contested regions."</v>
+        <v> bramja.31.d:0 "Während seine alten Feinde in Griechenland und Jugoslawien überfallen werden, hat Bulgarien einmal mehr erklärt, dass Mazedonien zu den bulgarischen Heimatländern gehört. Bulgarien nutzt die Schwäche seiner Nachbarn und hat bereits damit begonnen, seine Truppen in die umstrittenen Regionen zu verlegen."</v>
       </c>
       <c r="D100" s="1" t="str">
         <f aca="false">IF(ISBLANK(A100),"",C100)</f>
-        <v> bramja.31.d:0 "As their old enemies in Greece and Yugoslavia are being invaded, Bulgaria has proclaimed once more that Macedonia is part of the Bulgarian homelands. Using the weakness of their neighbours, Bulgaria has already started moving its troops into the contested regions."</v>
+        <v> bramja.31.d:0 "Während seine alten Feinde in Griechenland und Jugoslawien überfallen werden, hat Bulgarien einmal mehr erklärt, dass Mazedonien zu den bulgarischen Heimatländern gehört. Bulgarien nutzt die Schwäche seiner Nachbarn und hat bereits damit begonnen, seine Truppen in die umstrittenen Regionen zu verlegen."</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,11 +2967,11 @@
       </c>
       <c r="C101" s="1" t="str">
         <f aca="false">A101 &amp;" " &amp;"""" &amp;B101 &amp;""""</f>
-        <v> bramja.31.a:0 "The Balkans remain the most entertaining subcontinent on the planet."</v>
+        <v> bramja.31.a:0 "Der Balkan bleibt der unterhaltsamste Subkontinent der Welt."</v>
       </c>
       <c r="D101" s="1" t="str">
         <f aca="false">IF(ISBLANK(A101),"",C101)</f>
-        <v> bramja.31.a:0 "The Balkans remain the most entertaining subcontinent on the planet."</v>
+        <v> bramja.31.a:0 "Der Balkan bleibt der unterhaltsamste Subkontinent der Welt."</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,11 +2983,11 @@
       </c>
       <c r="C102" s="1" t="str">
         <f aca="false">A102 &amp;" " &amp;"""" &amp;B102 &amp;""""</f>
-        <v> bramja.31.b:0 "Finally greater Bulgaria will be reborn."</v>
+        <v> bramja.31.b:0 "Endlich wird ein größeres Bulgarien wiedergeboren werden."</v>
       </c>
       <c r="D102" s="1" t="str">
         <f aca="false">IF(ISBLANK(A102),"",C102)</f>
-        <v> bramja.31.b:0 "Finally greater Bulgaria will be reborn."</v>
+        <v> bramja.31.b:0 "Endlich wird ein größeres Bulgarien wiedergeboren werden."</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2998,11 +2999,11 @@
       </c>
       <c r="C103" s="1" t="str">
         <f aca="false">A103 &amp;" " &amp;"""" &amp;B103 &amp;""""</f>
-        <v> bramja.32.t:0 "More Historically appropriate Tech?"</v>
+        <v> bramja.32.t:0 "Mehr historisch angemessene Technik?"</v>
       </c>
       <c r="D103" s="1" t="str">
         <f aca="false">IF(ISBLANK(A103),"",C103)</f>
-        <v> bramja.32.t:0 "More Historically appropriate Tech?"</v>
+        <v> bramja.32.t:0 "Mehr historisch angemessene Technik?"</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3014,11 +3015,11 @@
       </c>
       <c r="C104" s="1" t="str">
         <f aca="false">A104 &amp;" " &amp;"""" &amp;B104 &amp;""""</f>
-        <v> bramja.32.d:0 "This event gives you the option to let all nations start the game with more historically appropriate techs researched, dependent on their specific context. Eg. most nations would get WWI hulls, fuel silo's etc. researched, while some nations like eg. Italy would Marines tech researched by this.\nThis event will not come up if the historical MP rule is set to yes."</v>
+        <v> bramja.32.d:0 "Dieses Ereignis gibt Ihnen die Möglichkeit, alle Nationen mit historisch angemesseneren Technologien ins Spiel starten zu lassen, abhängig von ihrem spezifischen Kontext. Z.B. würden die meisten Nationen Hüllen des Ersten Weltkriegs, Treibstoffsilos usw. erforscht bekommen, während einige Nationen wie z.B. Italien dadurch erforschte Technologien markieren würden.\nDieses Ereignis tritt nicht ein, wenn die historische MP-Regel auf Ja gesetzt ist."</v>
       </c>
       <c r="D104" s="1" t="str">
         <f aca="false">IF(ISBLANK(A104),"",C104)</f>
-        <v> bramja.32.d:0 "This event gives you the option to let all nations start the game with more historically appropriate techs researched, dependent on their specific context. Eg. most nations would get WWI hulls, fuel silo's etc. researched, while some nations like eg. Italy would Marines tech researched by this.\nThis event will not come up if the historical MP rule is set to yes."</v>
+        <v> bramja.32.d:0 "Dieses Ereignis gibt Ihnen die Möglichkeit, alle Nationen mit historisch angemesseneren Technologien ins Spiel starten zu lassen, abhängig von ihrem spezifischen Kontext. Z.B. würden die meisten Nationen Hüllen des Ersten Weltkriegs, Treibstoffsilos usw. erforscht bekommen, während einige Nationen wie z.B. Italien dadurch erforschte Technologien markieren würden.\nDieses Ereignis tritt nicht ein, wenn die historische MP-Regel auf Ja gesetzt ist."</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3030,11 +3031,11 @@
       </c>
       <c r="C105" s="1" t="str">
         <f aca="false">A105 &amp;" " &amp;"""" &amp;B105 &amp;""""</f>
-        <v> bramja.32.a:0 "Yes please."</v>
+        <v> bramja.32.a:0 "Ja bitte."</v>
       </c>
       <c r="D105" s="1" t="str">
         <f aca="false">IF(ISBLANK(A105),"",C105)</f>
-        <v> bramja.32.a:0 "Yes please."</v>
+        <v> bramja.32.a:0 "Ja bitte."</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,11 +3047,11 @@
       </c>
       <c r="C106" s="1" t="str">
         <f aca="false">A106 &amp;" " &amp;"""" &amp;B106 &amp;""""</f>
-        <v> bramja.32.b:0 "Rather not."</v>
+        <v> bramja.32.b:0 "Eher nicht."</v>
       </c>
       <c r="D106" s="1" t="str">
         <f aca="false">IF(ISBLANK(A106),"",C106)</f>
-        <v> bramja.32.b:0 "Rather not."</v>
+        <v> bramja.32.b:0 "Eher nicht."</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,11 +3063,11 @@
       </c>
       <c r="C107" s="1" t="str">
         <f aca="false">A107 &amp;" " &amp;"""" &amp;B107 &amp;""""</f>
-        <v> bramja.33.t:0 "Recovery from the Great Patriotic War"</v>
+        <v> bramja.33.t:0 "Erholung vom Großen Vaterländischen Krieg"</v>
       </c>
       <c r="D107" s="1" t="str">
         <f aca="false">IF(ISBLANK(A107),"",C107)</f>
-        <v> bramja.33.t:0 "Recovery from the Great Patriotic War"</v>
+        <v> bramja.33.t:0 "Erholung vom Großen Vaterländischen Krieg"</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3078,11 +3079,11 @@
       </c>
       <c r="C108" s="1" t="str">
         <f aca="false">A108 &amp;" " &amp;"""" &amp;B108 &amp;""""</f>
-        <v> bramja.33.d:0 "Now the Germans and their reactionary puppets have been driven out of Mother Russia and have been laid low, we must direct ourselves to rebuild and restore. These efforts to recover from the recent invasion are going to require a significant amount of our resources. While our peoples willingness to fight has been stretched to the limit, a new invasion of our Homeland will find even tougher resistance than the last one, as the Red Army and the people never have been more experienced with war and the lay of our lands."</v>
+        <v> bramja.33.d:0 "Jetzt, wo die Deutschen und ihre reaktionären Marionetten aus Mütterchen Russland vertrieben und niedergeschlagen sind, müssen wir uns auf den Wiederaufbau und die Wiederherstellung konzentrieren. Diese Anstrengungen zur Erholung von der jüngsten Invasion werden einen erheblichen Teil unserer Ressourcen erfordern. Während die Kampfbereitschaft unseres Volkes bis zum Äußersten strapaziert wurde, wird eine erneute Invasion unserer Heimat auf einen noch härteren Widerstand stoßen als die letzte, denn die Rote Armee und das Volk haben noch nie so viel Erfahrung mit dem Krieg und der Lage unserer Länder gehabt."</v>
       </c>
       <c r="D108" s="1" t="str">
         <f aca="false">IF(ISBLANK(A108),"",C108)</f>
-        <v> bramja.33.d:0 "Now the Germans and their reactionary puppets have been driven out of Mother Russia and have been laid low, we must direct ourselves to rebuild and restore. These efforts to recover from the recent invasion are going to require a significant amount of our resources. While our peoples willingness to fight has been stretched to the limit, a new invasion of our Homeland will find even tougher resistance than the last one, as the Red Army and the people never have been more experienced with war and the lay of our lands."</v>
+        <v> bramja.33.d:0 "Jetzt, wo die Deutschen und ihre reaktionären Marionetten aus Mütterchen Russland vertrieben und niedergeschlagen sind, müssen wir uns auf den Wiederaufbau und die Wiederherstellung konzentrieren. Diese Anstrengungen zur Erholung von der jüngsten Invasion werden einen erheblichen Teil unserer Ressourcen erfordern. Während die Kampfbereitschaft unseres Volkes bis zum Äußersten strapaziert wurde, wird eine erneute Invasion unserer Heimat auf einen noch härteren Widerstand stoßen als die letzte, denn die Rote Armee und das Volk haben noch nie so viel Erfahrung mit dem Krieg und der Lage unserer Länder gehabt."</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3094,11 +3095,11 @@
       </c>
       <c r="C109" s="1" t="str">
         <f aca="false">A109 &amp;" " &amp;"""" &amp;B109 &amp;""""</f>
-        <v> bramja.33.a:0 "Let us consolidate what we gained for the Revolution!"</v>
+        <v> bramja.33.a:0 "Lasst uns festigen, was wir für die Revolution gewonnen haben!"</v>
       </c>
       <c r="D109" s="1" t="str">
         <f aca="false">IF(ISBLANK(A109),"",C109)</f>
-        <v> bramja.33.a:0 "Let us consolidate what we gained for the Revolution!"</v>
+        <v> bramja.33.a:0 "Lasst uns festigen, was wir für die Revolution gewonnen haben!"</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,11 +3111,11 @@
       </c>
       <c r="C110" s="1" t="str">
         <f aca="false">A110 &amp;" " &amp;"""" &amp;B110 &amp;""""</f>
-        <v> bramja.34.t:0 "Fruits of the Revolutions victory"</v>
+        <v> bramja.34.t:0 "Früchte des Sieges der Revolutionen"</v>
       </c>
       <c r="D110" s="1" t="str">
         <f aca="false">IF(ISBLANK(A110),"",C110)</f>
-        <v> bramja.34.t:0 "Fruits of the Revolutions victory"</v>
+        <v> bramja.34.t:0 "Früchte des Sieges der Revolutionen"</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,11 +3127,11 @@
       </c>
       <c r="C111" s="1" t="str">
         <f aca="false">A111 &amp;" " &amp;"""" &amp;B111 &amp;""""</f>
-        <v> bramja.34.d:0 "Germany has been defeated and we have conquered and occupied swathes of Europe. Now that the peace conference has defined the borders and spheres of influence in Europe, we should execute our plans as defined during the War; to spread the Revolution and maintain ideological unity and purity, we will, surely but subtly, ensure conformity in our sphere. Handily this buffer will also protect the Revolutions Heartland... \n We shall tighten control over our sphere of influence by spreading the communist ideals, surpressing and outmanouvering any other political forces and ensuring only loyal Stalinists get into positions of power. Finally this will also enable us to extract the industrial resources needed for our recovery and the maintainance of our stature and communism internationally!"</v>
+        <v> bramja.34.d:0 "Deutschland ist besiegt, wir haben weite Teile Europas erobert und besetzt. Jetzt, da die Friedenskonferenz die Grenzen und Einflusssphären in Europa festgelegt hat, sollten wir unsere während des Krieges festgelegten Pläne ausführen; um die Revolution zu verbreiten und die ideologische Einheit und Reinheit aufrechtzuerhalten, werden wir sicher, aber subtil, die Konformität in unserem Bereich sicherstellen. Praktischerweise wird dieser Puffer auch das Kernland der Revolutionen schützen... \n Wir werden die Kontrolle über unseren Einflussbereich verstärken, indem wir die kommunistischen Ideale verbreiten, alle anderen politischen Kräfte unterdrücken und ausmanövrieren und sicherstellen, dass nur loyale Stalinisten in Machtpositionen gelangen. Dies wird es uns schließlich auch ermöglichen, die industriellen Ressourcen zu gewinnen, die wir für unseren Aufschwung und die Aufrechterhaltung unseres Ansehens und des Kommunismus auf internationaler Ebene benötigen!"</v>
       </c>
       <c r="D111" s="1" t="str">
         <f aca="false">IF(ISBLANK(A111),"",C111)</f>
-        <v> bramja.34.d:0 "Germany has been defeated and we have conquered and occupied swathes of Europe. Now that the peace conference has defined the borders and spheres of influence in Europe, we should execute our plans as defined during the War; to spread the Revolution and maintain ideological unity and purity, we will, surely but subtly, ensure conformity in our sphere. Handily this buffer will also protect the Revolutions Heartland... \n We shall tighten control over our sphere of influence by spreading the communist ideals, surpressing and outmanouvering any other political forces and ensuring only loyal Stalinists get into positions of power. Finally this will also enable us to extract the industrial resources needed for our recovery and the maintainance of our stature and communism internationally!"</v>
+        <v> bramja.34.d:0 "Deutschland ist besiegt, wir haben weite Teile Europas erobert und besetzt. Jetzt, da die Friedenskonferenz die Grenzen und Einflusssphären in Europa festgelegt hat, sollten wir unsere während des Krieges festgelegten Pläne ausführen; um die Revolution zu verbreiten und die ideologische Einheit und Reinheit aufrechtzuerhalten, werden wir sicher, aber subtil, die Konformität in unserem Bereich sicherstellen. Praktischerweise wird dieser Puffer auch das Kernland der Revolutionen schützen... \n Wir werden die Kontrolle über unseren Einflussbereich verstärken, indem wir die kommunistischen Ideale verbreiten, alle anderen politischen Kräfte unterdrücken und ausmanövrieren und sicherstellen, dass nur loyale Stalinisten in Machtpositionen gelangen. Dies wird es uns schließlich auch ermöglichen, die industriellen Ressourcen zu gewinnen, die wir für unseren Aufschwung und die Aufrechterhaltung unseres Ansehens und des Kommunismus auf internationaler Ebene benötigen!"</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3142,11 +3143,11 @@
       </c>
       <c r="C112" s="1" t="str">
         <f aca="false">A112 &amp;" " &amp;"""" &amp;B112 &amp;""""</f>
-        <v> bramja.34.a:0 "Proceed as planned"</v>
+        <v> bramja.34.a:0 "Wie geplant vorgehen"</v>
       </c>
       <c r="D112" s="1" t="str">
         <f aca="false">IF(ISBLANK(A112),"",C112)</f>
-        <v> bramja.34.a:0 "Proceed as planned"</v>
+        <v> bramja.34.a:0 "Wie geplant vorgehen"</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,11 +3159,11 @@
       </c>
       <c r="C113" s="1" t="str">
         <f aca="false">A113 &amp;" " &amp;"""" &amp;B113 &amp;""""</f>
-        <v> bramja.34.b:0 "Shouldn't we like euh, let the workers in these liberated countries do their own thing?"</v>
+        <v> bramja.34.b:0 "Sollten wir nicht die Arbeiter in diesen befreiten Ländern ihr eigenes Ding machen lassen?"</v>
       </c>
       <c r="D113" s="1" t="str">
         <f aca="false">IF(ISBLANK(A113),"",C113)</f>
-        <v> bramja.34.b:0 "Shouldn't we like euh, let the workers in these liberated countries do their own thing?"</v>
+        <v> bramja.34.b:0 "Sollten wir nicht die Arbeiter in diesen befreiten Ländern ihr eigenes Ding machen lassen?"</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3174,11 +3175,11 @@
       </c>
       <c r="C114" s="1" t="str">
         <f aca="false">A114 &amp;" " &amp;"""" &amp;B114 &amp;""""</f>
-        <v> bramja.34.c:0 "They should be bound to our fate!"</v>
+        <v> bramja.34.c:0 "Sie sollten an unser Schicksal gebunden sein!"</v>
       </c>
       <c r="D114" s="1" t="str">
         <f aca="false">IF(ISBLANK(A114),"",C114)</f>
-        <v> bramja.34.c:0 "They should be bound to our fate!"</v>
+        <v> bramja.34.c:0 "Sie sollten an unser Schicksal gebunden sein!"</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,11 +3191,11 @@
       </c>
       <c r="C115" s="1" t="str">
         <f aca="false">A115 &amp;" " &amp;"""" &amp;B115 &amp;""""</f>
-        <v> bramja.36.t:0 "Stalins hold over Europe"</v>
+        <v> bramja.36.t:0 "Stalins Herrschaft über Europa"</v>
       </c>
       <c r="D115" s="1" t="str">
         <f aca="false">IF(ISBLANK(A115),"",C115)</f>
-        <v> bramja.36.t:0 "Stalins hold over Europe"</v>
+        <v> bramja.36.t:0 "Stalins Herrschaft über Europa"</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3206,11 +3207,11 @@
       </c>
       <c r="C116" s="1" t="str">
         <f aca="false">A116 &amp;" " &amp;"""" &amp;B116 &amp;""""</f>
-        <v> bramja.36.d:0 " \"...an Iron Curtain has descended across the continent. Behind that line lie all the capitals of the ancient states of Central and Eastern Europe...all these famous cities and the populations around them lie in what I must call the Soviet sphere, and all are subject, in one form or another, not only to Soviet influence but to a very high and in some cases increasing measure of control from Moscow.\" \n Winston Churchills speech yesterday serves as a stark warning on Sovjet expansionism and the threats of communism. His speech does summarize the situation in an excellent manner. Some analysts say the Soviet policy is only natural &amp; to be expected, if not agreed on beforehand, given the Soviets reasonable desire to protect themselves from another invasion from the West. "</v>
+        <v> bramja.36.d:0 " \"...ein Eiserner Vorhang hat sich über den Kontinent gesenkt. Hinter dieser Linie liegen alle Hauptstädte der alten Staaten Mittel- und Osteuropas...alle diese berühmten Städte und die sie umgebenden Bevölkerungen liegen in dem, was ich die sowjetische Sphäre nennen muss, und alle unterliegen in der einen oder anderen Form nicht nur dem sowjetischen Einfluss, sondern auch einem sehr hohen und in einigen Fällen zunehmenden Maß an Kontrolle durch Moskau.\" \n Winston Churchills gestrige Rede dient als eindringliche Warnung vor dem sowjetischen Expansionismus und der Bedrohung durch den Kommunismus. Seine Rede fasst die Situation in hervorragender Weise zusammen. Einige Analysten meinen, die sowjetische Politik sei nur natürlich und zu erwarten, wenn auch nicht von vornherein vereinbart, da die Sowjets den berechtigten Wunsch haben, sich vor einer weiteren Invasion des Westens zu schützen. "</v>
       </c>
       <c r="D116" s="1" t="str">
         <f aca="false">IF(ISBLANK(A116),"",C116)</f>
-        <v> bramja.36.d:0 " \"...an Iron Curtain has descended across the continent. Behind that line lie all the capitals of the ancient states of Central and Eastern Europe...all these famous cities and the populations around them lie in what I must call the Soviet sphere, and all are subject, in one form or another, not only to Soviet influence but to a very high and in some cases increasing measure of control from Moscow.\" \n Winston Churchills speech yesterday serves as a stark warning on Sovjet expansionism and the threats of communism. His speech does summarize the situation in an excellent manner. Some analysts say the Soviet policy is only natural &amp; to be expected, if not agreed on beforehand, given the Soviets reasonable desire to protect themselves from another invasion from the West. "</v>
+        <v> bramja.36.d:0 " \"...ein Eiserner Vorhang hat sich über den Kontinent gesenkt. Hinter dieser Linie liegen alle Hauptstädte der alten Staaten Mittel- und Osteuropas...alle diese berühmten Städte und die sie umgebenden Bevölkerungen liegen in dem, was ich die sowjetische Sphäre nennen muss, und alle unterliegen in der einen oder anderen Form nicht nur dem sowjetischen Einfluss, sondern auch einem sehr hohen und in einigen Fällen zunehmenden Maß an Kontrolle durch Moskau.\" \n Winston Churchills gestrige Rede dient als eindringliche Warnung vor dem sowjetischen Expansionismus und der Bedrohung durch den Kommunismus. Seine Rede fasst die Situation in hervorragender Weise zusammen. Einige Analysten meinen, die sowjetische Politik sei nur natürlich und zu erwarten, wenn auch nicht von vornherein vereinbart, da die Sowjets den berechtigten Wunsch haben, sich vor einer weiteren Invasion des Westens zu schützen. "</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3222,11 +3223,11 @@
       </c>
       <c r="C117" s="1" t="str">
         <f aca="false">A117 &amp;" " &amp;"""" &amp;B117 &amp;""""</f>
-        <v> bramja.36.a:0 "In the embers of one conflict another starts flaming up..."</v>
+        <v> bramja.36.a:0 "In der Glut eines Konflikts beginnt ein anderer aufzuflammen..."</v>
       </c>
       <c r="D117" s="1" t="str">
         <f aca="false">IF(ISBLANK(A117),"",C117)</f>
-        <v> bramja.36.a:0 "In the embers of one conflict another starts flaming up..."</v>
+        <v> bramja.36.a:0 "In der Glut eines Konflikts beginnt ein anderer aufzuflammen..."</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3238,11 +3239,11 @@
       </c>
       <c r="C118" s="1" t="str">
         <f aca="false">A118 &amp;" " &amp;"""" &amp;B118 &amp;""""</f>
-        <v> bramja.36.b:0 "The capitalists can spread their propaganda against us as much as they want..."</v>
+        <v> bramja.36.b:0 "Die Kapitalisten können ihre Propaganda gegen uns verbreiten, so viel sie wollen..."</v>
       </c>
       <c r="D118" s="1" t="str">
         <f aca="false">IF(ISBLANK(A118),"",C118)</f>
-        <v> bramja.36.b:0 "The capitalists can spread their propaganda against us as much as they want..."</v>
+        <v> bramja.36.b:0 "Die Kapitalisten können ihre Propaganda gegen uns verbreiten, so viel sie wollen..."</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3254,11 +3255,11 @@
       </c>
       <c r="C119" s="1" t="str">
         <f aca="false">A119 &amp;" " &amp;"""" &amp;B119 &amp;""""</f>
-        <v> bramja.38.t:0 "[ITA.GetLeader] offers terms for peace... "</v>
+        <v> bramja.38.t:0 "[ITA.GetLeader] bietet Bedingungen für den Frieden an... "</v>
       </c>
       <c r="D119" s="1" t="str">
         <f aca="false">IF(ISBLANK(A119),"",C119)</f>
-        <v> bramja.38.t:0 "[ITA.GetLeader] offers terms for peace... "</v>
+        <v> bramja.38.t:0 "[ITA.GetLeader] bietet Bedingungen für den Frieden an... "</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3270,11 +3271,11 @@
       </c>
       <c r="C120" s="1" t="str">
         <f aca="false">A120 &amp;" " &amp;"""" &amp;B120 &amp;""""</f>
-        <v> bramja.38.d:0 "As the Italians and their allies push further into our Patrie, their war elsewhere, against other powers continues. Given this situation and feeling the waning commitment to our war against them, they have sent us terms for peace. Given their position of strength, the terms are as follows..."</v>
+        <v> bramja.38.d:0 "Während die Italiener und ihre Verbündeten weiter in unsere Patrie vordringen, geht ihr Krieg anderswo, gegen andere Mächte, weiter. In Anbetracht dieser Situation und des schwindenden Engagements in unserem Krieg gegen sie, haben sie uns Friedensbedingungen geschickt. In Anbetracht ihrer Position der Stärke lauten die Bedingungen wie folgt..."</v>
       </c>
       <c r="D120" s="1" t="str">
         <f aca="false">IF(ISBLANK(A120),"",C120)</f>
-        <v> bramja.38.d:0 "As the Italians and their allies push further into our Patrie, their war elsewhere, against other powers continues. Given this situation and feeling the waning commitment to our war against them, they have sent us terms for peace. Given their position of strength, the terms are as follows..."</v>
+        <v> bramja.38.d:0 "Während die Italiener und ihre Verbündeten weiter in unsere Patrie vordringen, geht ihr Krieg anderswo, gegen andere Mächte, weiter. In Anbetracht dieser Situation und des schwindenden Engagements in unserem Krieg gegen sie, haben sie uns Friedensbedingungen geschickt. In Anbetracht ihrer Position der Stärke lauten die Bedingungen wie folgt..."</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3286,11 +3287,11 @@
       </c>
       <c r="C121" s="1" t="str">
         <f aca="false">A121 &amp;" " &amp;"""" &amp;B121 &amp;""""</f>
-        <v> bramja.38.a:0 "Peace and terms?! Ridiculous!"</v>
+        <v> bramja.38.a:0 "Frieden und Bedingungen?! Das ist doch lächerlich!"</v>
       </c>
       <c r="D121" s="1" t="str">
         <f aca="false">IF(ISBLANK(A121),"",C121)</f>
-        <v> bramja.38.a:0 "Peace and terms?! Ridiculous!"</v>
+        <v> bramja.38.a:0 "Frieden und Bedingungen?! Das ist doch lächerlich!"</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,11 +3303,11 @@
       </c>
       <c r="C122" s="1" t="str">
         <f aca="false">A122 &amp;" " &amp;"""" &amp;B122 &amp;""""</f>
-        <v> bramja.38.b:0 "Handover Savoy, Corsica and all overseas territory held by [ITA.GetName] and her allies."</v>
+        <v> bramja.38.b:0 "Übergebt Savoyen, Korsika und alle überseeischen Gebiete, die von [ITA.GetName] und ihren Verbündeten gehalten werden."</v>
       </c>
       <c r="D122" s="1" t="str">
         <f aca="false">IF(ISBLANK(A122),"",C122)</f>
-        <v> bramja.38.b:0 "Handover Savoy, Corsica and all overseas territory held by [ITA.GetName] and her allies."</v>
+        <v> bramja.38.b:0 "Übergebt Savoyen, Korsika und alle überseeischen Gebiete, die von [ITA.GetName] und ihren Verbündeten gehalten werden."</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,11 +3319,11 @@
       </c>
       <c r="C123" s="1" t="str">
         <f aca="false">A123 &amp;" " &amp;"""" &amp;B123 &amp;""""</f>
-        <v> bramja.38.c:0 "Make a counter proposal: give Corsica and some colonies to [ITA.GetName] and join their alliance. Latins must no longer infight."</v>
+        <v> bramja.38.c:0 "Macht einen Gegenvorschlag: Gebt Korsika und einige Kolonien an [ITA.GetName] und tretet ihrem Bündnis bei. Die Lateiner dürfen sich nicht mehr bekriegen."</v>
       </c>
       <c r="D123" s="1" t="str">
         <f aca="false">IF(ISBLANK(A123),"",C123)</f>
-        <v> bramja.38.c:0 "Make a counter proposal: give Corsica and some colonies to [ITA.GetName] and join their alliance. Latins must no longer infight."</v>
+        <v> bramja.38.c:0 "Macht einen Gegenvorschlag: Gebt Korsika und einige Kolonien an [ITA.GetName] und tretet ihrem Bündnis bei. Die Lateiner dürfen sich nicht mehr bekriegen."</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,11 +3335,11 @@
       </c>
       <c r="C124" s="1" t="str">
         <f aca="false">A124 &amp;" " &amp;"""" &amp;B124 &amp;""""</f>
-        <v> bramja.38.d_2:0 "Give away all territory accross the Rhone and currently occupied by [ITA.GetName] and submit to their protection."</v>
+        <v> bramja.38.d_2:0 "Geben Sie alle Gebiete jenseits der Rhone ab, die derzeit von [ITA.GetName] besetzt sind, und unterwerfen Sie sich deren Schutz."</v>
       </c>
       <c r="D124" s="1" t="str">
         <f aca="false">IF(ISBLANK(A124),"",C124)</f>
-        <v> bramja.38.d_2:0 "Give away all territory accross the Rhone and currently occupied by [ITA.GetName] and submit to their protection."</v>
+        <v> bramja.38.d_2:0 "Geben Sie alle Gebiete jenseits der Rhone ab, die derzeit von [ITA.GetName] besetzt sind, und unterwerfen Sie sich deren Schutz."</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3350,11 +3351,11 @@
       </c>
       <c r="C125" s="1" t="str">
         <f aca="false">A125 &amp;" " &amp;"""" &amp;B125 &amp;""""</f>
-        <v> bramja.40.t:0 "[FRA.GetLeader] accepts Italian terms for peace"</v>
+        <v> bramja.40.t:0 "[FRA.GetLeader] akzeptiert die italienischen Friedensbedingungen"</v>
       </c>
       <c r="D125" s="1" t="str">
         <f aca="false">IF(ISBLANK(A125),"",C125)</f>
-        <v> bramja.40.t:0 "[FRA.GetLeader] accepts Italian terms for peace"</v>
+        <v> bramja.40.t:0 "[FRA.GetLeader] akzeptiert die italienischen Friedensbedingungen"</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,11 +3367,11 @@
       </c>
       <c r="C126" s="1" t="str">
         <f aca="false">A126 &amp;" " &amp;"""" &amp;B126 &amp;""""</f>
-        <v> bramja.40.d:0 "With [FRA.GetNameDef]s positions on mainland Europe getting overrun and [ITA.GetLeader] preferring to focus on enemies elsewhere, a peace treaty has been signed. The treaty stipulates that [FRA.GetName] handover ancient Italian land in Europe and all colonies currently occupied by Italy and her allies.\n While harsh terms, [FRA.GetLeader] and his government had little alternatives. Moreover [FRA.GetNameDef] can use this breathing room to rebuild and later strike again, at the right time and place...\n [ITA.GetLeader] can now concentrate on his remaining enemies, without having to think about the [From.GetAdjective] front and potential full occupation of the region. "</v>
+        <v> bramja.40.d:0 "Da die Stellungen von [FRA.GetNameDef]auf dem europäischen Festland überrannt werden und [ITA.GetLeader] es vorzieht, sich auf andere Feinde zu konzentrieren, wurde ein Friedensvertrag unterzeichnet. Der Vertrag sieht vor, dass [FRA.GetName] altes italienisches Land in Europa und alle Kolonien, die derzeit von Italien und seinen Verbündeten besetzt sind, abgibt.\n Obwohl die Bedingungen hart sind, hatten [FRA.GetLeader] und seine Regierung kaum Alternativen. Außerdem kann [FRA.GetNameDef] diese Atempause nutzen, um sich wieder aufzubauen und später zur richtigen Zeit und am richtigen Ort erneut zuzuschlagen...\n [ITA.GetLeader] kann sich nun auf seine verbleibenden Feinde konzentrieren, ohne an die [From.GetAdjective]-Front und eine mögliche vollständige Besetzung der Region denken zu müssen. "</v>
       </c>
       <c r="D126" s="1" t="str">
         <f aca="false">IF(ISBLANK(A126),"",C126)</f>
-        <v> bramja.40.d:0 "With [FRA.GetNameDef]s positions on mainland Europe getting overrun and [ITA.GetLeader] preferring to focus on enemies elsewhere, a peace treaty has been signed. The treaty stipulates that [FRA.GetName] handover ancient Italian land in Europe and all colonies currently occupied by Italy and her allies.\n While harsh terms, [FRA.GetLeader] and his government had little alternatives. Moreover [FRA.GetNameDef] can use this breathing room to rebuild and later strike again, at the right time and place...\n [ITA.GetLeader] can now concentrate on his remaining enemies, without having to think about the [From.GetAdjective] front and potential full occupation of the region. "</v>
+        <v> bramja.40.d:0 "Da die Stellungen von [FRA.GetNameDef]auf dem europäischen Festland überrannt werden und [ITA.GetLeader] es vorzieht, sich auf andere Feinde zu konzentrieren, wurde ein Friedensvertrag unterzeichnet. Der Vertrag sieht vor, dass [FRA.GetName] altes italienisches Land in Europa und alle Kolonien, die derzeit von Italien und seinen Verbündeten besetzt sind, abgibt.\n Obwohl die Bedingungen hart sind, hatten [FRA.GetLeader] und seine Regierung kaum Alternativen. Außerdem kann [FRA.GetNameDef] diese Atempause nutzen, um sich wieder aufzubauen und später zur richtigen Zeit und am richtigen Ort erneut zuzuschlagen...\n [ITA.GetLeader] kann sich nun auf seine verbleibenden Feinde konzentrieren, ohne an die [From.GetAdjective]-Front und eine mögliche vollständige Besetzung der Region denken zu müssen. "</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3382,11 +3383,11 @@
       </c>
       <c r="C127" s="1" t="str">
         <f aca="false">A127 &amp;" " &amp;"""" &amp;B127 &amp;""""</f>
-        <v> bramja.40.a:0 "Didn't Machiavelli write:\" Never do your enemy a minor injury.\" ?"</v>
+        <v> bramja.40.a:0 "Hat Machiavelli nicht geschrieben:\" Füge deinem Feind niemals eine kleine Verletzung zu.\" ?"</v>
       </c>
       <c r="D127" s="1" t="str">
         <f aca="false">IF(ISBLANK(A127),"",C127)</f>
-        <v> bramja.40.a:0 "Didn't Machiavelli write:\" Never do your enemy a minor injury.\" ?"</v>
+        <v> bramja.40.a:0 "Hat Machiavelli nicht geschrieben:\" Füge deinem Feind niemals eine kleine Verletzung zu.\" ?"</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,11 +3399,11 @@
       </c>
       <c r="C128" s="1" t="str">
         <f aca="false">A128 &amp;" " &amp;"""" &amp;B128 &amp;""""</f>
-        <v> bramja.41.t:0 "Latin giants burry the hatchet and continue the struggle together"</v>
+        <v> bramja.41.t:0 "Lateinamerikanische Giganten begraben das Kriegsbeil und setzen den Kampf gemeinsam fort"</v>
       </c>
       <c r="D128" s="1" t="str">
         <f aca="false">IF(ISBLANK(A128),"",C128)</f>
-        <v> bramja.41.t:0 "Latin giants burry the hatchet and continue the struggle together"</v>
+        <v> bramja.41.t:0 "Lateinamerikanische Giganten begraben das Kriegsbeil und setzen den Kampf gemeinsam fort"</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3414,11 +3415,11 @@
       </c>
       <c r="C129" s="1" t="str">
         <f aca="false">A129 &amp;" " &amp;"""" &amp;B129 &amp;""""</f>
-        <v> bramja.41.d:0 "In a surprising outcome of negotiations between [ITA.GetName] and [FRA.GetName], the brother Latin nations have declared that they will halt hostilities and go forth as allies. Furthermore [FRA.GetLeader] agreed to cede territory to Italy, citing historical [ITA.GetAdjective] claims... How this twist came about, who played his hand best at the negotiation table and which party stands to gain the most out this agreement is a hotly debated topic in Europe's highest circles... "</v>
+        <v> bramja.41.d:0 "In einem überraschenden Ergebnis der Verhandlungen zwischen [ITA.GetName] und [FRA.GetName] haben die beiden lateinamerikanischen Nationen erklärt, dass sie die Feindseligkeiten einstellen und als Verbündete weitermachen werden. Außerdem hat [FRA.GetLeader] unter Berufung auf historische [ITA.GetAdjective]-Ansprüche zugestimmt, Italien Territorium abzutreten... Wie es zu dieser Wendung kam, wer sein Blatt am Verhandlungstisch am besten gespielt hat und welche Partei am meisten von diesem Abkommen profitiert, ist ein heiß diskutiertes Thema in den höchsten Kreisen Europas... "</v>
       </c>
       <c r="D129" s="1" t="str">
         <f aca="false">IF(ISBLANK(A129),"",C129)</f>
-        <v> bramja.41.d:0 "In a surprising outcome of negotiations between [ITA.GetName] and [FRA.GetName], the brother Latin nations have declared that they will halt hostilities and go forth as allies. Furthermore [FRA.GetLeader] agreed to cede territory to Italy, citing historical [ITA.GetAdjective] claims... How this twist came about, who played his hand best at the negotiation table and which party stands to gain the most out this agreement is a hotly debated topic in Europe's highest circles... "</v>
+        <v> bramja.41.d:0 "In einem überraschenden Ergebnis der Verhandlungen zwischen [ITA.GetName] und [FRA.GetName] haben die beiden lateinamerikanischen Nationen erklärt, dass sie die Feindseligkeiten einstellen und als Verbündete weitermachen werden. Außerdem hat [FRA.GetLeader] unter Berufung auf historische [ITA.GetAdjective]-Ansprüche zugestimmt, Italien Territorium abzutreten... Wie es zu dieser Wendung kam, wer sein Blatt am Verhandlungstisch am besten gespielt hat und welche Partei am meisten von diesem Abkommen profitiert, ist ein heiß diskutiertes Thema in den höchsten Kreisen Europas... "</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3430,11 +3431,11 @@
       </c>
       <c r="C130" s="1" t="str">
         <f aca="false">A130 &amp;" " &amp;"""" &amp;B130 &amp;""""</f>
-        <v> bramja.41.a:0 "Latin peoples...always in a for twist to the story eh."</v>
+        <v> bramja.41.a:0 "Die lateinischen Völker... immer für eine Wendung in der Geschichte, was?"</v>
       </c>
       <c r="D130" s="1" t="str">
         <f aca="false">IF(ISBLANK(A130),"",C130)</f>
-        <v> bramja.41.a:0 "Latin peoples...always in a for twist to the story eh."</v>
+        <v> bramja.41.a:0 "Die lateinischen Völker... immer für eine Wendung in der Geschichte, was?"</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,11 +3447,11 @@
       </c>
       <c r="C131" s="1" t="str">
         <f aca="false">A131 &amp;" " &amp;"""" &amp;B131 &amp;""""</f>
-        <v> bramja.42.t:0 "[FRA.GetName] submits to [ITA.GetLeader]"</v>
+        <v> bramja.42.t:0 "[FRA.GetName] unterwirft sich [ITA.GetLeader]"</v>
       </c>
       <c r="D131" s="1" t="str">
         <f aca="false">IF(ISBLANK(A131),"",C131)</f>
-        <v> bramja.42.t:0 "[FRA.GetName] submits to [ITA.GetLeader]"</v>
+        <v> bramja.42.t:0 "[FRA.GetName] unterwirft sich [ITA.GetLeader]"</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3462,11 +3463,11 @@
       </c>
       <c r="C132" s="1" t="str">
         <f aca="false">A132 &amp;" " &amp;"""" &amp;B132 &amp;""""</f>
-        <v> bramja.42.d:0 "[From.GetAdjective] war exhaustion, military weakness and similarities in both nations leading ideologies have led to [FRA.GetLeader] accepting the [ITA.GetAdjective] demands for swathes of territory and submission. It seems the [FRA.GetAdjective] leadership thought this was the only way to avoid complete occupation and loss of autonomy for the nation within the growing [ITA.GetAdjective] empire..."</v>
+        <v> bramja.42.d:0 "[From.GetAdjective] Kriegsmüdigkeit, militärische Schwäche und Ähnlichkeiten in den führenden Ideologien beider Nationen haben dazu geführt, dass [FRA.GetLeader] die Forderungen der [ITA.GetAdjective] nach Gebietsabtretungen und Unterwerfung akzeptiert hat. Anscheinend hielt die [FRA.GetAdjective]-Führung dies für den einzigen Weg, um eine vollständige Besetzung und den Verlust der Autonomie der Nation innerhalb des wachsenden [ITA.GetAdjective]-Imperiums zu vermeiden..."</v>
       </c>
       <c r="D132" s="1" t="str">
         <f aca="false">IF(ISBLANK(A132),"",C132)</f>
-        <v> bramja.42.d:0 "[From.GetAdjective] war exhaustion, military weakness and similarities in both nations leading ideologies have led to [FRA.GetLeader] accepting the [ITA.GetAdjective] demands for swathes of territory and submission. It seems the [FRA.GetAdjective] leadership thought this was the only way to avoid complete occupation and loss of autonomy for the nation within the growing [ITA.GetAdjective] empire..."</v>
+        <v> bramja.42.d:0 "[From.GetAdjective] Kriegsmüdigkeit, militärische Schwäche und Ähnlichkeiten in den führenden Ideologien beider Nationen haben dazu geführt, dass [FRA.GetLeader] die Forderungen der [ITA.GetAdjective] nach Gebietsabtretungen und Unterwerfung akzeptiert hat. Anscheinend hielt die [FRA.GetAdjective]-Führung dies für den einzigen Weg, um eine vollständige Besetzung und den Verlust der Autonomie der Nation innerhalb des wachsenden [ITA.GetAdjective]-Imperiums zu vermeiden..."</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3478,11 +3479,11 @@
       </c>
       <c r="C133" s="1" t="str">
         <f aca="false">A133 &amp;" " &amp;"""" &amp;B133 &amp;""""</f>
-        <v> bramja.42.a:0 "Finally, a modern iteration of the \"De Bello Gallico\" !"</v>
+        <v> bramja.42.a:0 "Endlich, eine moderne Version des "De Bello Gallico"!"</v>
       </c>
       <c r="D133" s="1" t="str">
         <f aca="false">IF(ISBLANK(A133),"",C133)</f>
-        <v> bramja.42.a:0 "Finally, a modern iteration of the \"De Bello Gallico\" !"</v>
+        <v> bramja.42.a:0 "Endlich, eine moderne Version des "De Bello Gallico"!"</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3494,11 +3495,11 @@
       </c>
       <c r="C134" s="1" t="str">
         <f aca="false">A134 &amp;" " &amp;"""" &amp;B134 &amp;""""</f>
-        <v> bramja.43.t:0 "War in Brasil becomes desperate..."</v>
+        <v> bramja.43.t:0 "Der Krieg in Brasilien wird verzweifelt..."</v>
       </c>
       <c r="D134" s="1" t="str">
         <f aca="false">IF(ISBLANK(A134),"",C134)</f>
-        <v> bramja.43.t:0 "War in Brasil becomes desperate..."</v>
+        <v> bramja.43.t:0 "Der Krieg in Brasilien wird verzweifelt..."</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3510,11 +3511,11 @@
       </c>
       <c r="C135" s="1" t="str">
         <f aca="false">A135 &amp;" " &amp;"""" &amp;B135 &amp;""""</f>
-        <v> bramja.43.d:0 "[POR.GetLeader] is ever more confronted with the failings of the war in Brazil. Should we give up the dream of a reunited empire, lest we might loose all otherwise?"</v>
+        <v> bramja.43.d:0 "[POR.GetLeader] wird immer mehr mit den Mängeln des Krieges in Brasilien konfrontiert. Sollen wir den Traum von einem wiedervereinigten Imperium aufgeben, um nicht alles zu verlieren?"</v>
       </c>
       <c r="D135" s="1" t="str">
         <f aca="false">IF(ISBLANK(A135),"",C135)</f>
-        <v> bramja.43.d:0 "[POR.GetLeader] is ever more confronted with the failings of the war in Brazil. Should we give up the dream of a reunited empire, lest we might loose all otherwise?"</v>
+        <v> bramja.43.d:0 "[POR.GetLeader] wird immer mehr mit den Mängeln des Krieges in Brasilien konfrontiert. Sollen wir den Traum von einem wiedervereinigten Imperium aufgeben, um nicht alles zu verlieren?"</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3526,11 +3527,11 @@
       </c>
       <c r="C136" s="1" t="str">
         <f aca="false">A136 &amp;" " &amp;"""" &amp;B136 &amp;""""</f>
-        <v> bramja.43.a:0 "We have no choice"</v>
+        <v> bramja.43.a:0 "Wir haben keine Wahl"</v>
       </c>
       <c r="D136" s="1" t="str">
         <f aca="false">IF(ISBLANK(A136),"",C136)</f>
-        <v> bramja.43.a:0 "We have no choice"</v>
+        <v> bramja.43.a:0 "Wir haben keine Wahl"</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3542,11 +3543,11 @@
       </c>
       <c r="C137" s="1" t="str">
         <f aca="false">A137 &amp;" " &amp;"""" &amp;B137 &amp;""""</f>
-        <v> bramja.43.b:0 "I'd rather die fighting for our legacy..."</v>
+        <v> bramja.43.b:0 "Ich würde lieber im Kampf für unser Erbe sterben..."</v>
       </c>
       <c r="D137" s="1" t="str">
         <f aca="false">IF(ISBLANK(A137),"",C137)</f>
-        <v> bramja.43.b:0 "I'd rather die fighting for our legacy..."</v>
+        <v> bramja.43.b:0 "Ich würde lieber im Kampf für unser Erbe sterben..."</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3558,11 +3559,11 @@
       </c>
       <c r="C138" s="1" t="str">
         <f aca="false">A138 &amp;" " &amp;"""" &amp;B138 &amp;""""</f>
-        <v> bramja.44.t:0 "Portugal backs out of Brazil"</v>
+        <v> bramja.44.t:0 "Portugal zieht sich aus Brasilien zurück"</v>
       </c>
       <c r="D138" s="1" t="str">
         <f aca="false">IF(ISBLANK(A138),"",C138)</f>
-        <v> bramja.44.t:0 "Portugal backs out of Brazil"</v>
+        <v> bramja.44.t:0 "Portugal zieht sich aus Brasilien zurück"</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,11 +3575,11 @@
       </c>
       <c r="C139" s="1" t="str">
         <f aca="false">A139 &amp;" " &amp;"""" &amp;B139 &amp;""""</f>
-        <v> bramja.44.d:0 "As asserting any claim of his family over Brazil militarily had become a mere fiction by now, [POR.GetLeader]s government has finally decided to retreat, an attempt to save [POR.GetLeader]s own only recently reacquired throne at home."</v>
+        <v> bramja.44.d:0 "Da die Behauptung eines militärischen Anspruchs seiner Familie auf Brasilien inzwischen zur bloßen Fiktion geworden ist, hat sich die Regierung von [POR.GetLeader] schließlich zum Rückzug entschlossen, um den erst kürzlich wiedererworbenen Thron im eigenen Land zu retten."</v>
       </c>
       <c r="D139" s="1" t="str">
         <f aca="false">IF(ISBLANK(A139),"",C139)</f>
-        <v> bramja.44.d:0 "As asserting any claim of his family over Brazil militarily had become a mere fiction by now, [POR.GetLeader]s government has finally decided to retreat, an attempt to save [POR.GetLeader]s own only recently reacquired throne at home."</v>
+        <v> bramja.44.d:0 "Da die Behauptung eines militärischen Anspruchs seiner Familie auf Brasilien inzwischen zur bloßen Fiktion geworden ist, hat sich die Regierung von [POR.GetLeader] schließlich zum Rückzug entschlossen, um den erst kürzlich wiedererworbenen Thron im eigenen Land zu retten."</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,11 +3591,11 @@
       </c>
       <c r="C140" s="1" t="str">
         <f aca="false">A140 &amp;" " &amp;"""" &amp;B140 &amp;""""</f>
-        <v> bramja.44.a:0 "Well, it was a far stretch no"</v>
+        <v> bramja.44.a:0 "Nun, das war ein weiter Weg, nein"</v>
       </c>
       <c r="D140" s="1" t="str">
         <f aca="false">IF(ISBLANK(A140),"",C140)</f>
-        <v> bramja.44.a:0 "Well, it was a far stretch no"</v>
+        <v> bramja.44.a:0 "Nun, das war ein weiter Weg, nein"</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3606,11 +3607,11 @@
       </c>
       <c r="C141" s="1" t="str">
         <f aca="false">A141 &amp;" " &amp;"""" &amp;B141 &amp;""""</f>
-        <v> bramja.44.b:0 "Our hope to regain glory is forever extinguished now"</v>
+        <v> bramja.44.b:0 "Unsere Hoffnung, den Ruhm wiederzuerlangen, ist nun für immer erloschen"</v>
       </c>
       <c r="D141" s="1" t="str">
         <f aca="false">IF(ISBLANK(A141),"",C141)</f>
-        <v> bramja.44.b:0 "Our hope to regain glory is forever extinguished now"</v>
+        <v> bramja.44.b:0 "Unsere Hoffnung, den Ruhm wiederzuerlangen, ist nun für immer erloschen"</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3622,11 +3623,11 @@
       </c>
       <c r="C142" s="1" t="str">
         <f aca="false">A142 &amp;" " &amp;"""" &amp;B142 &amp;""""</f>
-        <v> bramja.45.t:0 "The Tehran Dictate"</v>
+        <v> bramja.45.t:0 "Das Teheraner Diktat"</v>
       </c>
       <c r="D142" s="1" t="str">
         <f aca="false">IF(ISBLANK(A142),"",C142)</f>
-        <v> bramja.45.t:0 "The Tehran Dictate"</v>
+        <v> bramja.45.t:0 "Das Teheraner Diktat"</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,11 +3639,11 @@
       </c>
       <c r="C143" s="1" t="str">
         <f aca="false">A143 &amp;" " &amp;"""" &amp;B143 &amp;""""</f>
-        <v> bramja.45.d:0 "The [FROM.GetAdjective] advance into [PER.GetName] compelled the latter to accept [FROM.GetAdjective] demands. Given the region is on the edge of its sphere influence and the significant presence of friendly elements, the [FROM.GetAdjective] leadership left more autonomy than usual for [PER.GetName], making it a \"neutral\" bufferstate. Its geographic features make [PER.GetName] an ideal candidate for this. Still the agreement is often ironically named \"the Tehran Dictate\", mostly by enemies who add jokingly that [PER.GetName]s oil fields have not received so much autonomy, making it more an oil buffer than anything else for its new overlords. \n\n Whatever may be said, the reality is that the region has suffered immensely since its direct involvement in the war as a pawn of bigger players, nurturing chaos and lawlessness. As its reinstated ruler Reza Shah is currently held prisoner somewhere in the Brittish Empire, the prospects for a return to stability are grim if this remains unchanged. However stories go round that the [FROM.GetAdjective] intelligence organisation has already located the Shah, not too far off from his first residence when just exiled..."</v>
+        <v> bramja.45.d:0 "Der [FROM.GetAdjective]-Vorstoß in [PER.GetName] zwang letzteren, die [FROM.GetAdjective]-Forderungen zu akzeptieren. Angesichts der Tatsache, dass die Region am Rande ihrer Einflusssphäre liegt, und der bedeutenden Präsenz befreundeter Elemente ließ die Führung von [FROM.GetAdjective] [PER.GetName] mehr Autonomie als üblich und machte es zu einem "neutralen" Pufferstaat. Seine geografischen Merkmale machen [PER.GetName] zu einem idealen Kandidaten dafür. Dennoch wird das Abkommen oft ironisch als "Teheraner Diktat" bezeichnet, meist von Gegnern, die scherzhaft hinzufügen, dass die Ölfelder von [PER.GetName] nicht so viel Autonomie erhalten haben, so dass es für seine neuen Machthaber mehr ein Ölpuffer als alles andere ist. \n\n Was auch immer gesagt werden mag, die Realität ist, dass die Region seit ihrer direkten Verwicklung in den Krieg als Spielball größerer Akteure sehr gelitten hat und Chaos und Gesetzlosigkeit genährt hat. Da der wiedereingesetzte Herrscher Reza Schah derzeit irgendwo im Britischen Reich gefangen gehalten wird, sind die Aussichten auf eine Rückkehr zur Stabilität düster, wenn dies so bleibt. Es gibt jedoch Gerüchte, dass der Geheimdienst [FROM.GetAdjective] den Schah bereits ausfindig gemacht hat, und zwar nicht allzu weit von seinem ersten Wohnsitz entfernt, als er gerade ins Exil gegangen war..."</v>
       </c>
       <c r="D143" s="1" t="str">
         <f aca="false">IF(ISBLANK(A143),"",C143)</f>
-        <v> bramja.45.d:0 "The [FROM.GetAdjective] advance into [PER.GetName] compelled the latter to accept [FROM.GetAdjective] demands. Given the region is on the edge of its sphere influence and the significant presence of friendly elements, the [FROM.GetAdjective] leadership left more autonomy than usual for [PER.GetName], making it a \"neutral\" bufferstate. Its geographic features make [PER.GetName] an ideal candidate for this. Still the agreement is often ironically named \"the Tehran Dictate\", mostly by enemies who add jokingly that [PER.GetName]s oil fields have not received so much autonomy, making it more an oil buffer than anything else for its new overlords. \n\n Whatever may be said, the reality is that the region has suffered immensely since its direct involvement in the war as a pawn of bigger players, nurturing chaos and lawlessness. As its reinstated ruler Reza Shah is currently held prisoner somewhere in the Brittish Empire, the prospects for a return to stability are grim if this remains unchanged. However stories go round that the [FROM.GetAdjective] intelligence organisation has already located the Shah, not too far off from his first residence when just exiled..."</v>
+        <v> bramja.45.d:0 "Der [FROM.GetAdjective]-Vorstoß in [PER.GetName] zwang letzteren, die [FROM.GetAdjective]-Forderungen zu akzeptieren. Angesichts der Tatsache, dass die Region am Rande ihrer Einflusssphäre liegt, und der bedeutenden Präsenz befreundeter Elemente ließ die Führung von [FROM.GetAdjective] [PER.GetName] mehr Autonomie als üblich und machte es zu einem "neutralen" Pufferstaat. Seine geografischen Merkmale machen [PER.GetName] zu einem idealen Kandidaten dafür. Dennoch wird das Abkommen oft ironisch als "Teheraner Diktat" bezeichnet, meist von Gegnern, die scherzhaft hinzufügen, dass die Ölfelder von [PER.GetName] nicht so viel Autonomie erhalten haben, so dass es für seine neuen Machthaber mehr ein Ölpuffer als alles andere ist. \n\n Was auch immer gesagt werden mag, die Realität ist, dass die Region seit ihrer direkten Verwicklung in den Krieg als Spielball größerer Akteure sehr gelitten hat und Chaos und Gesetzlosigkeit genährt hat. Da der wiedereingesetzte Herrscher Reza Schah derzeit irgendwo im Britischen Reich gefangen gehalten wird, sind die Aussichten auf eine Rückkehr zur Stabilität düster, wenn dies so bleibt. Es gibt jedoch Gerüchte, dass der Geheimdienst [FROM.GetAdjective] den Schah bereits ausfindig gemacht hat, und zwar nicht allzu weit von seinem ersten Wohnsitz entfernt, als er gerade ins Exil gegangen war..."</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3654,11 +3655,11 @@
       </c>
       <c r="C144" s="1" t="str">
         <f aca="false">A144 &amp;" " &amp;"""" &amp;B144 &amp;""""</f>
-        <v> bramja.45.a:0 "How many spy movies will be made about this?"</v>
+        <v> bramja.45.a:0 "Wie viele Spionagefilme werden wohl darüber gedreht werden?"</v>
       </c>
       <c r="D144" s="1" t="str">
         <f aca="false">IF(ISBLANK(A144),"",C144)</f>
-        <v> bramja.45.a:0 "How many spy movies will be made about this?"</v>
+        <v> bramja.45.a:0 "Wie viele Spionagefilme werden wohl darüber gedreht werden?"</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3670,11 +3671,11 @@
       </c>
       <c r="C145" s="1" t="str">
         <f aca="false">A145 &amp;" " &amp;"""" &amp;B145 &amp;""""</f>
-        <v> bramja.45.b:0 "Who last laughs, laughs best..."</v>
+        <v> bramja.45.b:0 "Wer zuletzt lacht, lacht am besten..."</v>
       </c>
       <c r="D145" s="1" t="str">
         <f aca="false">IF(ISBLANK(A145),"",C145)</f>
-        <v> bramja.45.b:0 "Who last laughs, laughs best..."</v>
+        <v> bramja.45.b:0 "Wer zuletzt lacht, lacht am besten..."</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3686,11 +3687,11 @@
       </c>
       <c r="C146" s="1" t="str">
         <f aca="false">A146 &amp;" " &amp;"""" &amp;B146 &amp;""""</f>
-        <v> bramja.46.t:0 "The Tehran Dictate"</v>
+        <v> bramja.46.t:0 "Das Teheraner Diktat"</v>
       </c>
       <c r="D146" s="1" t="str">
         <f aca="false">IF(ISBLANK(A146),"",C146)</f>
-        <v> bramja.46.t:0 "The Tehran Dictate"</v>
+        <v> bramja.46.t:0 "Das Teheraner Diktat"</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3702,11 +3703,11 @@
       </c>
       <c r="C147" s="1" t="str">
         <f aca="false">A147 &amp;" " &amp;"""" &amp;B147 &amp;""""</f>
-        <v> bramja.46.d:0 "The [FROM.GetAdjective] advance into [PER.GetName] compelled the latter to accept [FROM.GetAdjective] demands. Given the region is on the edge of its sphere influence and the significant presence of friendly elements, the [FROM.GetAdjective] leadership left more autonomy than usual for [PER.GetName], making it a \"neutral\" bufferstate. Its geographic features make [PER.GetName] an ideal candidate for this. Still the agreement is often ironically named \"the Tehran Dictate\", mostly by enemies who add jokingly that [PER.GetName]s oil fields have not received so much autonomy, making it more of an oil buffer than anything else for its new overlords."</v>
+        <v> bramja.46.d:0 "Der [FROM.GetAdjective]-Vorstoß in [PER.GetName] zwang letzteren, die [FROM.GetAdjective]-Forderungen zu akzeptieren. In Anbetracht der Tatsache, dass sich die Region am Rande ihrer Einflusssphäre befindet, und der bedeutenden Präsenz befreundeter Elemente ließ die Führung von [FROM.GetAdjective] [PER.GetName] mehr Autonomie als üblich und machte es zu einem "neutralen" Pufferstaat. Seine geografischen Merkmale machen [PER.GetName] zu einem idealen Kandidaten dafür. Dennoch wird das Abkommen oft ironisch als "Teheraner Diktat" bezeichnet, meist von Gegnern, die scherzhaft hinzufügen, dass die Ölfelder von [PER.GetName] nicht so viel Autonomie erhalten haben, so dass es für die neuen Machthaber eher ein Ölpuffer ist als alles andere."</v>
       </c>
       <c r="D147" s="1" t="str">
         <f aca="false">IF(ISBLANK(A147),"",C147)</f>
-        <v> bramja.46.d:0 "The [FROM.GetAdjective] advance into [PER.GetName] compelled the latter to accept [FROM.GetAdjective] demands. Given the region is on the edge of its sphere influence and the significant presence of friendly elements, the [FROM.GetAdjective] leadership left more autonomy than usual for [PER.GetName], making it a \"neutral\" bufferstate. Its geographic features make [PER.GetName] an ideal candidate for this. Still the agreement is often ironically named \"the Tehran Dictate\", mostly by enemies who add jokingly that [PER.GetName]s oil fields have not received so much autonomy, making it more of an oil buffer than anything else for its new overlords."</v>
+        <v> bramja.46.d:0 "Der [FROM.GetAdjective]-Vorstoß in [PER.GetName] zwang letzteren, die [FROM.GetAdjective]-Forderungen zu akzeptieren. In Anbetracht der Tatsache, dass sich die Region am Rande ihrer Einflusssphäre befindet, und der bedeutenden Präsenz befreundeter Elemente ließ die Führung von [FROM.GetAdjective] [PER.GetName] mehr Autonomie als üblich und machte es zu einem "neutralen" Pufferstaat. Seine geografischen Merkmale machen [PER.GetName] zu einem idealen Kandidaten dafür. Dennoch wird das Abkommen oft ironisch als "Teheraner Diktat" bezeichnet, meist von Gegnern, die scherzhaft hinzufügen, dass die Ölfelder von [PER.GetName] nicht so viel Autonomie erhalten haben, so dass es für die neuen Machthaber eher ein Ölpuffer ist als alles andere."</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3718,11 +3719,11 @@
       </c>
       <c r="C148" s="1" t="str">
         <f aca="false">A148 &amp;" " &amp;"""" &amp;B148 &amp;""""</f>
-        <v> bramja.46.a:0 "All the oil in the world, my empire for all the oil!"</v>
+        <v> bramja.46.a:0 "Alles Öl der Welt, mein Imperium für alles Öl!"</v>
       </c>
       <c r="D148" s="1" t="str">
         <f aca="false">IF(ISBLANK(A148),"",C148)</f>
-        <v> bramja.46.a:0 "All the oil in the world, my empire for all the oil!"</v>
+        <v> bramja.46.a:0 "Alles Öl der Welt, mein Imperium für alles Öl!"</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3734,11 +3735,11 @@
       </c>
       <c r="C149" s="1" t="str">
         <f aca="false">A149 &amp;" " &amp;"""" &amp;B149 &amp;""""</f>
-        <v> bramja.46.b:0 "Another glorius triumph!"</v>
+        <v> bramja.46.b:0 "Ein weiterer glorreicher Triumph!"</v>
       </c>
       <c r="D149" s="1" t="str">
         <f aca="false">IF(ISBLANK(A149),"",C149)</f>
-        <v> bramja.46.b:0 "Another glorius triumph!"</v>
+        <v> bramja.46.b:0 "Ein weiterer glorreicher Triumph!"</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3750,11 +3751,11 @@
       </c>
       <c r="C150" s="1" t="str">
         <f aca="false">A150 &amp;" " &amp;"""" &amp;B150 &amp;""""</f>
-        <v> bramja.47.t:0 "A [FROM.GetAdjective] message: repent and be forgiven"</v>
+        <v> bramja.47.t:0 "Eine [FROM.GetAdjective]-Botschaft: Bereue und verzeihe"</v>
       </c>
       <c r="D150" s="1" t="str">
         <f aca="false">IF(ISBLANK(A150),"",C150)</f>
-        <v> bramja.47.t:0 "A [FROM.GetAdjective] message: repent and be forgiven"</v>
+        <v> bramja.47.t:0 "Eine [FROM.GetAdjective]-Botschaft: Bereue und verzeihe"</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3766,11 +3767,11 @@
       </c>
       <c r="C151" s="1" t="str">
         <f aca="false">A151 &amp;" " &amp;"""" &amp;B151 &amp;""""</f>
-        <v> bramja.47.d:0 " §W\"If we confess our sins, he is faithful and just and will forgive us our sins and purify us from all unrighteousness.\" §! §b 1 John 1:9 §! \n\nThe [GER.GetFactionName] war machine is at our doorstep, after a long and bloody conquest of Afrika. We feared the coming of this moment ever since the defeats in Egypt...\nThe [GER.GetAdjective]s have sent us an ultimatum opening up with a well targetted Biblical citation, offering to spare us any further deaths and destruction, if we were to formally submit and align with their ideals. The [FROM.GetAdjective]s envision [SAF.GetNameDef] as an autonomous entity ruled with [FROM.GetRulingIdeologyNoun] as the guiding ideology. \n\nThe war was never popular to begin with amongst the South African population, let alone the Afrikaners, but now that we potentially face an untimely end as a culture, many, most of them Afrikaners, are more than supportive of the [FROM.GetAdjective] proposals. Whatever we choose to respond, it is sure we will loose even more than we have already have as a nation. The question now for [SAF.GetName] is which choice won't make us loose all, and the answer depends on what the responder holds more dearly: freedom, equality and honour or the primacy of your own kin, force and survival."</v>
+        <v> bramja.47.d:0 " §W§W \"Wenn wir unsere Sünden bekennen, ist er treu und gerecht und wird uns die Sünden vergeben und uns von aller Ungerechtigkeit reinigen.\"  §!§!  §b§b 1. Johannes 1,9 §!§!  \n\nDie [GER.GetFactionName] Kriegsmaschine steht vor unserer Tür, nach einer langen und blutigen Eroberung Afrikas. Wir haben diesen Moment seit den Niederlagen in Ägypten gefürchtet...\nDie [GER.GetAdjective]s haben uns ein Ultimatum geschickt, das mit einem gezielten Bibelzitat eröffnet wurde, in dem sie uns anboten, uns weiteren Tod und Zerstörung zu ersparen, wenn wir uns formell unterwerfen und uns ihren Idealen anschließen würden. Die [FROM.GetAdjective]s stellen sich [SAF.GetNameDef] als eine autonome Einheit vor, die von [FROM.GetRulingIdeologyNoun] als Leitideologie regiert wird. \Der Krieg war in der südafrikanischen Bevölkerung nie populär, geschweige denn bei den Afrikanern, aber jetzt, da wir möglicherweise einem vorzeitigen Ende unserer Kultur entgegensehen, unterstützen viele, vor allem Afrikaner, die [FROM.GetAdjective]-Vorschläge mehr als deutlich. Wie auch immer wir darauf reagieren werden, es ist sicher, dass wir noch mehr verlieren werden, als wir es als Nation bereits getan haben. Die Frage, die sich [SAF.GetName] nun stellen muss, ist, bei welcher Entscheidung wir nicht alles verlieren werden, und die Antwort hängt davon ab, was dem Antwortenden wichtiger ist: Freiheit, Gleichheit und Ehre oder das Primat der eigenen Sippe, Gewalt und Überleben."</v>
       </c>
       <c r="D151" s="1" t="str">
         <f aca="false">IF(ISBLANK(A151),"",C151)</f>
-        <v> bramja.47.d:0 " §W\"If we confess our sins, he is faithful and just and will forgive us our sins and purify us from all unrighteousness.\" §! §b 1 John 1:9 §! \n\nThe [GER.GetFactionName] war machine is at our doorstep, after a long and bloody conquest of Afrika. We feared the coming of this moment ever since the defeats in Egypt...\nThe [GER.GetAdjective]s have sent us an ultimatum opening up with a well targetted Biblical citation, offering to spare us any further deaths and destruction, if we were to formally submit and align with their ideals. The [FROM.GetAdjective]s envision [SAF.GetNameDef] as an autonomous entity ruled with [FROM.GetRulingIdeologyNoun] as the guiding ideology. \n\nThe war was never popular to begin with amongst the South African population, let alone the Afrikaners, but now that we potentially face an untimely end as a culture, many, most of them Afrikaners, are more than supportive of the [FROM.GetAdjective] proposals. Whatever we choose to respond, it is sure we will loose even more than we have already have as a nation. The question now for [SAF.GetName] is which choice won't make us loose all, and the answer depends on what the responder holds more dearly: freedom, equality and honour or the primacy of your own kin, force and survival."</v>
+        <v> bramja.47.d:0 " §W§W \"Wenn wir unsere Sünden bekennen, ist er treu und gerecht und wird uns die Sünden vergeben und uns von aller Ungerechtigkeit reinigen.\"  §!§!  §b§b 1. Johannes 1,9 §!§!  \n\nDie [GER.GetFactionName] Kriegsmaschine steht vor unserer Tür, nach einer langen und blutigen Eroberung Afrikas. Wir haben diesen Moment seit den Niederlagen in Ägypten gefürchtet...\nDie [GER.GetAdjective]s haben uns ein Ultimatum geschickt, das mit einem gezielten Bibelzitat eröffnet wurde, in dem sie uns anboten, uns weiteren Tod und Zerstörung zu ersparen, wenn wir uns formell unterwerfen und uns ihren Idealen anschließen würden. Die [FROM.GetAdjective]s stellen sich [SAF.GetNameDef] als eine autonome Einheit vor, die von [FROM.GetRulingIdeologyNoun] als Leitideologie regiert wird. \Der Krieg war in der südafrikanischen Bevölkerung nie populär, geschweige denn bei den Afrikanern, aber jetzt, da wir möglicherweise einem vorzeitigen Ende unserer Kultur entgegensehen, unterstützen viele, vor allem Afrikaner, die [FROM.GetAdjective]-Vorschläge mehr als deutlich. Wie auch immer wir darauf reagieren werden, es ist sicher, dass wir noch mehr verlieren werden, als wir es als Nation bereits getan haben. Die Frage, die sich [SAF.GetName] nun stellen muss, ist, bei welcher Entscheidung wir nicht alles verlieren werden, und die Antwort hängt davon ab, was dem Antwortenden wichtiger ist: Freiheit, Gleichheit und Ehre oder das Primat der eigenen Sippe, Gewalt und Überleben."</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3782,11 +3783,11 @@
       </c>
       <c r="C152" s="1" t="str">
         <f aca="false">A152 &amp;" " &amp;"""" &amp;B152 &amp;""""</f>
-        <v> bramja.47.a:0 "[SAF.GetLeader] and his pro-[SAF.GetFactionName] faction wins out: \"Death before dishonour!\" \n\n §R This will likely lead to a civil war, as forces of the \"Gryshemde\", \"Gesuiwerde Nasionale Party\" and \"Ossewabrandwag\", most likely with strong [FROM.GetAdjective] support won't accept this decision.§!"</v>
+        <v> bramja.47.a:0 "[SAF.GetLeader] und seine Pro-[SAF.GetFactionName]-Fraktion gewinnt: \"Tod vor Unehre!\" \n\n §R§R Dies wird wahrscheinlich zu einem Bürgerkrieg führen, da Kräfte der \"Gryshemde\", \"Gesuiwerde Nasionale Party\" und \"Ossewabrandwag\", höchstwahrscheinlich mit starker [FROM.GetAdjective] Unterstützung, diese Entscheidung nicht akzeptieren werden. §!§! "</v>
       </c>
       <c r="D152" s="1" t="str">
         <f aca="false">IF(ISBLANK(A152),"",C152)</f>
-        <v> bramja.47.a:0 "[SAF.GetLeader] and his pro-[SAF.GetFactionName] faction wins out: \"Death before dishonour!\" \n\n §R This will likely lead to a civil war, as forces of the \"Gryshemde\", \"Gesuiwerde Nasionale Party\" and \"Ossewabrandwag\", most likely with strong [FROM.GetAdjective] support won't accept this decision.§!"</v>
+        <v> bramja.47.a:0 "[SAF.GetLeader] und seine Pro-[SAF.GetFactionName]-Fraktion gewinnt: \"Tod vor Unehre!\" \n\n §R§R Dies wird wahrscheinlich zu einem Bürgerkrieg führen, da Kräfte der \"Gryshemde\", \"Gesuiwerde Nasionale Party\" und \"Ossewabrandwag\", höchstwahrscheinlich mit starker [FROM.GetAdjective] Unterstützung, diese Entscheidung nicht akzeptieren werden. §!§! "</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3798,11 +3799,11 @@
       </c>
       <c r="C153" s="1" t="str">
         <f aca="false">A153 &amp;" " &amp;"""" &amp;B153 &amp;""""</f>
-        <v> bramja.47.b:0 "The pro-[GER.GetFactionName] nationalists push through:\"Together with our brethren in [GER.GetNameDef] we shall remake our nation in our own image, stronger than ever!\" "</v>
+        <v> bramja.47.b:0 "Die Pro-[GER.GetFactionName] Nationalisten setzen sich durch:\"Zusammen mit unseren Brüdern in [GER.GetNameDef] werden wir unsere Nation nach unserem eigenen Bild neu erschaffen, stärker als je zuvor!\" "</v>
       </c>
       <c r="D153" s="1" t="str">
         <f aca="false">IF(ISBLANK(A153),"",C153)</f>
-        <v> bramja.47.b:0 "The pro-[GER.GetFactionName] nationalists push through:\"Together with our brethren in [GER.GetNameDef] we shall remake our nation in our own image, stronger than ever!\" "</v>
+        <v> bramja.47.b:0 "Die Pro-[GER.GetFactionName] Nationalisten setzen sich durch:\"Zusammen mit unseren Brüdern in [GER.GetNameDef] werden wir unsere Nation nach unserem eigenen Bild neu erschaffen, stärker als je zuvor!\" "</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3814,11 +3815,11 @@
       </c>
       <c r="C154" s="1" t="str">
         <f aca="false">A154 &amp;" " &amp;"""" &amp;B154 &amp;""""</f>
-        <v> bramja.48.t:0 "At worlds end..."</v>
+        <v> bramja.48.t:0 "Am Ende der Welt..."</v>
       </c>
       <c r="D154" s="1" t="str">
         <f aca="false">IF(ISBLANK(A154),"",C154)</f>
-        <v> bramja.48.t:0 "At worlds end..."</v>
+        <v> bramja.48.t:0 "Am Ende der Welt..."</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3830,11 +3831,11 @@
       </c>
       <c r="C155" s="1" t="str">
         <f aca="false">A155 &amp;" " &amp;"""" &amp;B155 &amp;""""</f>
-        <v> bramja.48.d:0 "This morning the freshly installed [GetRulingParty] government of [From.GetNameDef] announced the immediate cessation of hostilities with their former enemies of the [ROOT.GetFactionName]. With the [ROOT.GetFactionName] war machine at their doorstep, after a long and bloody Trek through Afrika, the [FROM.GetAdjective] government received a [GER.GetAdjective] ultimatum offering them peace and protection if they were to formally submit to [GER.GetNameDef] and align with National Socialist ideology.\n\n The note aparently put extra stress on the shared Germanic roots and brotherhood between the two nations ruling classes. Experts comment the Reichs diplomats used these wordings to specifically target the Afrikaner population, whose dissatisfaction with the war had beeen great from the start and only increased as more fathers and sons would not be returning home. Some even speculate that radical elements within the Afrikaner community directly collaborated with the [GER.GetAdjective]s since the [ROOT.GetFactionName] conquest of Egypt, reasoning it was the only way to preserve their way of life and position of power. Even though the theory is not based on any concrete evidence, it aligns well with the notions of the \"encroaching British imperialism\" or an increasingly assertive native population..."</v>
+        <v> bramja.48.d:0 "Heute Morgen verkündete die frisch installierte [GetRulingParty]-Regierung von [From.GetNameDef] die sofortige Einstellung der Feindseligkeiten mit ihren ehemaligen Feinden von [ROOT.GetFactionName]. Mit der [ROOT.GetFactionName]-Kriegsmaschinerie vor der Haustür und nach einem langen und blutigen Treck durch Afrika erhielt die [FROM.GetAdjective]-Regierung ein Ultimatum von [GER.GetAdjective], das ihr Frieden und Schutz anbot, wenn sie sich formell der [GER.GetNameDef] unterwerfen und sich der nationalsozialistischen Ideologie anschließen würde.\n\n Die Note betonte offensichtlich die gemeinsamen germanischen Wurzeln und die Brüderlichkeit zwischen den herrschenden Klassen beider Nationen. Experten zufolge zielten die Reichsdiplomaten mit diesen Formulierungen speziell auf die afrikanische Bevölkerung ab, deren Unzufriedenheit mit dem Krieg von Anfang an groß gewesen war und nur noch zunahm, da immer mehr Väter und Söhne nicht mehr nach Hause zurückkehren würden. Einige spekulieren sogar, dass radikale Elemente innerhalb der afrikanischen Gemeinschaft seit der Eroberung Ägyptens durch [ROOT.GetFactionName] direkt mit den [GER.GetAdjective]s kollaboriert haben, weil sie der Meinung waren, dass dies die einzige Möglichkeit war, ihre Lebensweise und ihre Machtposition zu erhalten. Auch wenn sich diese Theorie nicht auf konkrete Beweise stützt, passt sie doch gut zu den Vorstellungen vom "übergriffigen britischen Imperialismus" oder einer zunehmend selbstbewussten einheimischen Bevölkerung..."</v>
       </c>
       <c r="D155" s="1" t="str">
         <f aca="false">IF(ISBLANK(A155),"",C155)</f>
-        <v> bramja.48.d:0 "This morning the freshly installed [GetRulingParty] government of [From.GetNameDef] announced the immediate cessation of hostilities with their former enemies of the [ROOT.GetFactionName]. With the [ROOT.GetFactionName] war machine at their doorstep, after a long and bloody Trek through Afrika, the [FROM.GetAdjective] government received a [GER.GetAdjective] ultimatum offering them peace and protection if they were to formally submit to [GER.GetNameDef] and align with National Socialist ideology.\n\n The note aparently put extra stress on the shared Germanic roots and brotherhood between the two nations ruling classes. Experts comment the Reichs diplomats used these wordings to specifically target the Afrikaner population, whose dissatisfaction with the war had beeen great from the start and only increased as more fathers and sons would not be returning home. Some even speculate that radical elements within the Afrikaner community directly collaborated with the [GER.GetAdjective]s since the [ROOT.GetFactionName] conquest of Egypt, reasoning it was the only way to preserve their way of life and position of power. Even though the theory is not based on any concrete evidence, it aligns well with the notions of the \"encroaching British imperialism\" or an increasingly assertive native population..."</v>
+        <v> bramja.48.d:0 "Heute Morgen verkündete die frisch installierte [GetRulingParty]-Regierung von [From.GetNameDef] die sofortige Einstellung der Feindseligkeiten mit ihren ehemaligen Feinden von [ROOT.GetFactionName]. Mit der [ROOT.GetFactionName]-Kriegsmaschinerie vor der Haustür und nach einem langen und blutigen Treck durch Afrika erhielt die [FROM.GetAdjective]-Regierung ein Ultimatum von [GER.GetAdjective], das ihr Frieden und Schutz anbot, wenn sie sich formell der [GER.GetNameDef] unterwerfen und sich der nationalsozialistischen Ideologie anschließen würde.\n\n Die Note betonte offensichtlich die gemeinsamen germanischen Wurzeln und die Brüderlichkeit zwischen den herrschenden Klassen beider Nationen. Experten zufolge zielten die Reichsdiplomaten mit diesen Formulierungen speziell auf die afrikanische Bevölkerung ab, deren Unzufriedenheit mit dem Krieg von Anfang an groß gewesen war und nur noch zunahm, da immer mehr Väter und Söhne nicht mehr nach Hause zurückkehren würden. Einige spekulieren sogar, dass radikale Elemente innerhalb der afrikanischen Gemeinschaft seit der Eroberung Ägyptens durch [ROOT.GetFactionName] direkt mit den [GER.GetAdjective]s kollaboriert haben, weil sie der Meinung waren, dass dies die einzige Möglichkeit war, ihre Lebensweise und ihre Machtposition zu erhalten. Auch wenn sich diese Theorie nicht auf konkrete Beweise stützt, passt sie doch gut zu den Vorstellungen vom "übergriffigen britischen Imperialismus" oder einer zunehmend selbstbewussten einheimischen Bevölkerung..."</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3846,11 +3847,11 @@
       </c>
       <c r="C156" s="1" t="str">
         <f aca="false">A156 &amp;" " &amp;"""" &amp;B156 &amp;""""</f>
-        <v> bramja.48.a:0 "Continue"</v>
+        <v> bramja.48.a:0 "Weiter"</v>
       </c>
       <c r="D156" s="1" t="str">
         <f aca="false">IF(ISBLANK(A156),"",C156)</f>
-        <v> bramja.48.a:0 "Continue"</v>
+        <v> bramja.48.a:0 "Weiter"</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3862,11 +3863,11 @@
       </c>
       <c r="C157" s="1" t="str">
         <f aca="false">A157 &amp;" " &amp;"""" &amp;B157 &amp;""""</f>
-        <v> bramja.48.b:0 "Good..."</v>
+        <v> bramja.48.b:0 "Gut..."</v>
       </c>
       <c r="D157" s="1" t="str">
         <f aca="false">IF(ISBLANK(A157),"",C157)</f>
-        <v> bramja.48.b:0 "Good..."</v>
+        <v> bramja.48.b:0 "Gut..."</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3878,11 +3879,11 @@
       </c>
       <c r="C158" s="1" t="str">
         <f aca="false">A158 &amp;" " &amp;"""" &amp;B158 &amp;""""</f>
-        <v> bramja.52.t:0 "...and the fringes of humanity"</v>
+        <v> bramja.52.t:0 "...und die Ränder der Menschheit"</v>
       </c>
       <c r="D158" s="1" t="str">
         <f aca="false">IF(ISBLANK(A158),"",C158)</f>
-        <v> bramja.52.t:0 "...and the fringes of humanity"</v>
+        <v> bramja.52.t:0 "...und die Ränder der Menschheit"</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3894,11 +3895,11 @@
       </c>
       <c r="C159" s="1" t="str">
         <f aca="false">A159 &amp;" " &amp;"""" &amp;B159 &amp;""""</f>
-        <v> bramja.52.d:0 "...Whaterver preceded, what is known is that once the ultimatum was received, anti-British elements swiftly ousted the incumbent government and agreed to the terms. \n\nThough a blow for their former allies, the country itself will suffer under the new regimes policies or \"Apartheidswette\". Surely, the [FROM.GetRulingParty] now has carte blache when implementing the \"Apartheid\", not only unhindered by any politically organized opposition, but with vigorous endorsement and rigorous scrutiny of their adept \"Brethren and allies\".           "</v>
+        <v> bramja.52.d:0 "...Was auch immer dem vorausging, bekannt ist, dass nach Erhalt des Ultimatums anti-britische Elemente die amtierende Regierung rasch absetzten und den Bedingungen zustimmten. \Das ist zwar ein Schlag für die ehemaligen Verbündeten, aber das Land selbst wird unter der Politik des neuen Regimes oder der "Apartheidswette" leiden. Sicherlich hat die [FROM.GetRulingParty] nun freie Hand bei der Umsetzung der \"Apartheidswette\", nicht nur ungehindert von jeglicher politisch organisierten Opposition, sondern auch mit tatkräftiger Unterstützung und strenger Prüfung durch ihre versierten \"Brüder und Verbündeten\".           "</v>
       </c>
       <c r="D159" s="1" t="str">
         <f aca="false">IF(ISBLANK(A159),"",C159)</f>
-        <v> bramja.52.d:0 "...Whaterver preceded, what is known is that once the ultimatum was received, anti-British elements swiftly ousted the incumbent government and agreed to the terms. \n\nThough a blow for their former allies, the country itself will suffer under the new regimes policies or \"Apartheidswette\". Surely, the [FROM.GetRulingParty] now has carte blache when implementing the \"Apartheid\", not only unhindered by any politically organized opposition, but with vigorous endorsement and rigorous scrutiny of their adept \"Brethren and allies\".           "</v>
+        <v> bramja.52.d:0 "...Was auch immer dem vorausging, bekannt ist, dass nach Erhalt des Ultimatums anti-britische Elemente die amtierende Regierung rasch absetzten und den Bedingungen zustimmten. \Das ist zwar ein Schlag für die ehemaligen Verbündeten, aber das Land selbst wird unter der Politik des neuen Regimes oder der "Apartheidswette" leiden. Sicherlich hat die [FROM.GetRulingParty] nun freie Hand bei der Umsetzung der \"Apartheidswette\", nicht nur ungehindert von jeglicher politisch organisierten Opposition, sondern auch mit tatkräftiger Unterstützung und strenger Prüfung durch ihre versierten \"Brüder und Verbündeten\".           "</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3910,11 +3911,11 @@
       </c>
       <c r="C160" s="1" t="str">
         <f aca="false">A160 &amp;" " &amp;"""" &amp;B160 &amp;""""</f>
-        <v> bramja.52.a:0 "A ghastly image indeed."</v>
+        <v> bramja.52.a:0 "In der Tat ein grauenhaftes Bild."</v>
       </c>
       <c r="D160" s="1" t="str">
         <f aca="false">IF(ISBLANK(A160),"",C160)</f>
-        <v> bramja.52.a:0 "A ghastly image indeed."</v>
+        <v> bramja.52.a:0 "In der Tat ein grauenhaftes Bild."</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3926,11 +3927,11 @@
       </c>
       <c r="C161" s="1" t="str">
         <f aca="false">A161 &amp;" " &amp;"""" &amp;B161 &amp;""""</f>
-        <v> bramja.52.b:0 "The strong do as they please and the weak suffer what they must...§L \"The Melian Dialogue\", Thucydides§!"</v>
+        <v> bramja.52.b:0 "Die Starken tun, was sie wollen, und die Schwachen leiden, was sie müssen...§L§L \"Der Melianische Dialog\", Thukydides §!§! "</v>
       </c>
       <c r="D161" s="1" t="str">
         <f aca="false">IF(ISBLANK(A161),"",C161)</f>
-        <v> bramja.52.b:0 "The strong do as they please and the weak suffer what they must...§L \"The Melian Dialogue\", Thucydides§!"</v>
+        <v> bramja.52.b:0 "Die Starken tun, was sie wollen, und die Schwachen leiden, was sie müssen...§L§L \"Der Melianische Dialog\", Thukydides §!§! "</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3942,11 +3943,11 @@
       </c>
       <c r="C162" s="1" t="str">
         <f aca="false">A162 &amp;" " &amp;"""" &amp;B162 &amp;""""</f>
-        <v> bramja.50.t:0 ""Rescue attempt failed" #Check Loc 50 &amp; 51!"</v>
+        <v> bramja.50.t:0 ""Rettungsversuch gescheitert" #Check Loc 50 &amp; 51!"</v>
       </c>
       <c r="D162" s="1" t="str">
         <f aca="false">IF(ISBLANK(A162),"",C162)</f>
-        <v> bramja.50.t:0 ""Rescue attempt failed" #Check Loc 50 &amp; 51!"</v>
+        <v> bramja.50.t:0 ""Rettungsversuch gescheitert" #Check Loc 50 &amp; 51!"</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3958,11 +3959,11 @@
       </c>
       <c r="C163" s="1" t="str">
         <f aca="false">A163 &amp;" " &amp;"""" &amp;B163 &amp;""""</f>
-        <v> bramja.50.d:0 "Our attemtpt to free the Shah has failed, our attempt having been foiled due to additive factors working against us. We shall have to try again...           "</v>
+        <v> bramja.50.d:0 "Unser Versuch, den Schah zu befreien, ist gescheitert. Unser Versuch wurde durch additive Faktoren vereitelt, die gegen uns arbeiten. Wir werden es erneut versuchen müssen...           "</v>
       </c>
       <c r="D163" s="1" t="str">
         <f aca="false">IF(ISBLANK(A163),"",C163)</f>
-        <v> bramja.50.d:0 "Our attemtpt to free the Shah has failed, our attempt having been foiled due to additive factors working against us. We shall have to try again...           "</v>
+        <v> bramja.50.d:0 "Unser Versuch, den Schah zu befreien, ist gescheitert. Unser Versuch wurde durch additive Faktoren vereitelt, die gegen uns arbeiten. Wir werden es erneut versuchen müssen...           "</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3974,11 +3975,11 @@
       </c>
       <c r="C164" s="1" t="str">
         <f aca="false">A164 &amp;" " &amp;"""" &amp;B164 &amp;""""</f>
-        <v> bramja.50.a:0 "Quiters are losers..."</v>
+        <v> bramja.50.a:0 "Verlierer sind Verlierer..."</v>
       </c>
       <c r="D164" s="1" t="str">
         <f aca="false">IF(ISBLANK(A164),"",C164)</f>
-        <v> bramja.50.a:0 "Quiters are losers..."</v>
+        <v> bramja.50.a:0 "Verlierer sind Verlierer..."</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3990,11 +3991,11 @@
       </c>
       <c r="C165" s="1" t="str">
         <f aca="false">A165 &amp;" " &amp;"""" &amp;B165 &amp;""""</f>
-        <v> bramja.51.t:0 "[Per.GetAdjective] Shah freed and on his way back to Tehran"</v>
+        <v> bramja.51.t:0 "[Per.GetAdjective] Schah befreit und auf dem Weg zurück nach Teheran"</v>
       </c>
       <c r="D165" s="1" t="str">
         <f aca="false">IF(ISBLANK(A165),"",C165)</f>
-        <v> bramja.51.t:0 "[Per.GetAdjective] Shah freed and on his way back to Tehran"</v>
+        <v> bramja.51.t:0 "[Per.GetAdjective] Schah befreit und auf dem Weg zurück nach Teheran"</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4006,11 +4007,11 @@
       </c>
       <c r="C166" s="1" t="str">
         <f aca="false">A166 &amp;" " &amp;"""" &amp;B166 &amp;""""</f>
-        <v> bramja.51.d:0 "[FROM.GetAdjective] state media (with the usual pomp) announced this morning that [FROM.GetAdjective] Special Forces successfully executed a daring raid last night to free the recently reinstated but imprisoned Shah of Iran, Reza Shah, thereby fulfilling vows made by [From.GetLeader]. Aside from solidying their hold on the Middle East, this is also another terrific piece of propaganda for [From.GetLeader] and [From.GetNameDef].\n\n§L As the Shah is journeying back to the \"§OTakht-e Khurshīd§!\"(the Persian Sun Throne), he must be wondering whether he is now actually free, to rule a over a liberated realm or that there had only been a change of watch and had received a grander cell.§!"</v>
+        <v> bramja.51.d:0 "[Die staatlichen Medien haben heute Morgen (mit dem üblichen Pomp) verkündet, dass [FROM.GetAdjective] Spezialeinheiten letzte Nacht erfolgreich eine gewagte Razzia durchgeführt haben, um den kürzlich wiedereingesetzten, aber inhaftierten Schah von Iran, Reza Schah, zu befreien und damit die von [From.GetLeader] gegebenen Versprechen zu erfüllen.] Abgesehen davon, dass sie ihren Einfluss im Nahen Osten festigen, ist dies auch ein weiteres großartiges Stück Propaganda für [From.GetLeader] und [From.GetNameDef].\n\n§L§L Da der Schah auf dem Weg zurück zum \"§O§O Takht-e Khurshīd §!§! \" (dem persischen Sonnenthron), muss er sich fragen, ob er nun tatsächlich frei ist, um über ein befreites Reich zu herrschen, oder ob es nur eine Wachablösung gegeben hat und er eine größere Zelle erhalten hat. §!§! "</v>
       </c>
       <c r="D166" s="1" t="str">
         <f aca="false">IF(ISBLANK(A166),"",C166)</f>
-        <v> bramja.51.d:0 "[FROM.GetAdjective] state media (with the usual pomp) announced this morning that [FROM.GetAdjective] Special Forces successfully executed a daring raid last night to free the recently reinstated but imprisoned Shah of Iran, Reza Shah, thereby fulfilling vows made by [From.GetLeader]. Aside from solidying their hold on the Middle East, this is also another terrific piece of propaganda for [From.GetLeader] and [From.GetNameDef].\n\n§L As the Shah is journeying back to the \"§OTakht-e Khurshīd§!\"(the Persian Sun Throne), he must be wondering whether he is now actually free, to rule a over a liberated realm or that there had only been a change of watch and had received a grander cell.§!"</v>
+        <v> bramja.51.d:0 "[Die staatlichen Medien haben heute Morgen (mit dem üblichen Pomp) verkündet, dass [FROM.GetAdjective] Spezialeinheiten letzte Nacht erfolgreich eine gewagte Razzia durchgeführt haben, um den kürzlich wiedereingesetzten, aber inhaftierten Schah von Iran, Reza Schah, zu befreien und damit die von [From.GetLeader] gegebenen Versprechen zu erfüllen.] Abgesehen davon, dass sie ihren Einfluss im Nahen Osten festigen, ist dies auch ein weiteres großartiges Stück Propaganda für [From.GetLeader] und [From.GetNameDef].\n\n§L§L Da der Schah auf dem Weg zurück zum \"§O§O Takht-e Khurshīd §!§! \" (dem persischen Sonnenthron), muss er sich fragen, ob er nun tatsächlich frei ist, um über ein befreites Reich zu herrschen, oder ob es nur eine Wachablösung gegeben hat und er eine größere Zelle erhalten hat. §!§! "</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4022,11 +4023,11 @@
       </c>
       <c r="C167" s="1" t="str">
         <f aca="false">A167 &amp;" " &amp;"""" &amp;B167 &amp;""""</f>
-        <v> bramja.51.a:0 "MI5, MI6, more like MI0! Wahaha §R(German humour)§!"</v>
+        <v> bramja.51.a:0 "MI5, MI6, eher MI0! Wahaha §R§R (deutscher Humor) §!§! "</v>
       </c>
       <c r="D167" s="1" t="str">
         <f aca="false">IF(ISBLANK(A167),"",C167)</f>
-        <v> bramja.51.a:0 "MI5, MI6, more like MI0! Wahaha §R(German humour)§!"</v>
+        <v> bramja.51.a:0 "MI5, MI6, eher MI0! Wahaha §R§R (deutscher Humor) §!§! "</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4038,11 +4039,11 @@
       </c>
       <c r="C168" s="1" t="str">
         <f aca="false">A168 &amp;" " &amp;"""" &amp;B168 &amp;""""</f>
-        <v> bramja.51.b:0 "Damn them!"</v>
+        <v> bramja.51.b:0 "Zum Teufel mit ihnen!"</v>
       </c>
       <c r="D168" s="1" t="str">
         <f aca="false">IF(ISBLANK(A168),"",C168)</f>
-        <v> bramja.51.b:0 "Damn them!"</v>
+        <v> bramja.51.b:0 "Zum Teufel mit ihnen!"</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4054,11 +4055,11 @@
       </c>
       <c r="C169" s="1" t="str">
         <f aca="false">A169 &amp;" " &amp;"""" &amp;B169 &amp;""""</f>
-        <v> bramja.51.c:0 "A daring escape, bravo!"</v>
+        <v> bramja.51.c:0 "Eine kühne Flucht, bravo!"</v>
       </c>
       <c r="D169" s="1" t="str">
         <f aca="false">IF(ISBLANK(A169),"",C169)</f>
-        <v> bramja.51.c:0 "A daring escape, bravo!"</v>
+        <v> bramja.51.c:0 "Eine kühne Flucht, bravo!"</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4070,11 +4071,11 @@
       </c>
       <c r="C170" s="1" t="str">
         <f aca="false">A170 &amp;" " &amp;"""" &amp;B170 &amp;""""</f>
-        <v> bramja.53.t:0 "A Good ole German Peace proposal"</v>
+        <v> bramja.53.t:0 "Ein guter alter deutscher Friedensvorschlag"</v>
       </c>
       <c r="D170" s="1" t="str">
         <f aca="false">IF(ISBLANK(A170),"",C170)</f>
-        <v> bramja.53.t:0 "A Good ole German Peace proposal"</v>
+        <v> bramja.53.t:0 "Ein guter alter deutscher Friedensvorschlag"</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4086,11 +4087,11 @@
       </c>
       <c r="C171" s="1" t="str">
         <f aca="false">A171 &amp;" " &amp;"""" &amp;B171 &amp;""""</f>
-        <v> bramja.53.d:0 "A [GER.GetAdjective] delegation arrived at Commander in Chief Gustav Mannerheims HQ at noon to discuss peace terms, proposing a return to the status ante bellum. The Germans have little interest in maintaining the current state of war with us after having defeated our allies. The meeting went over in a friendly fashion all in all, one of the delegates even seemed to be giving cryptic warnings that soon the real enemies of Finland could be at the borders...\n Whatever be the case, there is little reason not to make peace, our former allies being utterly defeated and our alliance with them no longer serving the need for protection from either Western or Eastern threats..."</v>
+        <v> bramja.53.d:0 "Eine [GER.GetAdjective] Delegation ist am Mittag im Hauptquartier von Oberbefehlshaber Gustav Mannerheim eingetroffen, um die Friedensbedingungen zu besprechen und schlägt eine Rückkehr zum Status ante bellum vor. Die Deutschen haben wenig Interesse daran, den derzeitigen Kriegszustand mit uns aufrechtzuerhalten, nachdem sie unsere Verbündeten besiegt haben. Das Treffen verlief alles in allem freundlich, einer der Delegierten schien sogar kryptische Warnungen auszusprechen, dass die wahren Feinde Finnlands bald an den Grenzen stehen könnten...\n Wie dem auch sei, es gibt wenig Grund, keinen Frieden zu schließen, da unsere früheren Verbündeten völlig besiegt sind und unser Bündnis mit ihnen nicht mehr dem Bedürfnis nach Schutz vor westlichen oder östlichen Bedrohungen entspricht..."</v>
       </c>
       <c r="D171" s="1" t="str">
         <f aca="false">IF(ISBLANK(A171),"",C171)</f>
-        <v> bramja.53.d:0 "A [GER.GetAdjective] delegation arrived at Commander in Chief Gustav Mannerheims HQ at noon to discuss peace terms, proposing a return to the status ante bellum. The Germans have little interest in maintaining the current state of war with us after having defeated our allies. The meeting went over in a friendly fashion all in all, one of the delegates even seemed to be giving cryptic warnings that soon the real enemies of Finland could be at the borders...\n Whatever be the case, there is little reason not to make peace, our former allies being utterly defeated and our alliance with them no longer serving the need for protection from either Western or Eastern threats..."</v>
+        <v> bramja.53.d:0 "Eine [GER.GetAdjective] Delegation ist am Mittag im Hauptquartier von Oberbefehlshaber Gustav Mannerheim eingetroffen, um die Friedensbedingungen zu besprechen und schlägt eine Rückkehr zum Status ante bellum vor. Die Deutschen haben wenig Interesse daran, den derzeitigen Kriegszustand mit uns aufrechtzuerhalten, nachdem sie unsere Verbündeten besiegt haben. Das Treffen verlief alles in allem freundlich, einer der Delegierten schien sogar kryptische Warnungen auszusprechen, dass die wahren Feinde Finnlands bald an den Grenzen stehen könnten...\n Wie dem auch sei, es gibt wenig Grund, keinen Frieden zu schließen, da unsere früheren Verbündeten völlig besiegt sind und unser Bündnis mit ihnen nicht mehr dem Bedürfnis nach Schutz vor westlichen oder östlichen Bedrohungen entspricht..."</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4102,11 +4103,11 @@
       </c>
       <c r="C172" s="1" t="str">
         <f aca="false">A172 &amp;" " &amp;"""" &amp;B172 &amp;""""</f>
-        <v> bramja.53.a:0 "Of course we accept"</v>
+        <v> bramja.53.a:0 "Natürlich akzeptieren wir"</v>
       </c>
       <c r="D172" s="1" t="str">
         <f aca="false">IF(ISBLANK(A172),"",C172)</f>
-        <v> bramja.53.a:0 "Of course we accept"</v>
+        <v> bramja.53.a:0 "Natürlich akzeptieren wir"</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4118,11 +4119,11 @@
       </c>
       <c r="C173" s="1" t="str">
         <f aca="false">A173 &amp;" " &amp;"""" &amp;B173 &amp;""""</f>
-        <v> bramja.53.b:0 "We fear no Hun, whether it be an Eastern or Western one!"</v>
+        <v> bramja.53.b:0 "Wir fürchten keinen Hunnen, weder einen östlichen noch einen westlichen!"</v>
       </c>
       <c r="D173" s="1" t="str">
         <f aca="false">IF(ISBLANK(A173),"",C173)</f>
-        <v> bramja.53.b:0 "We fear no Hun, whether it be an Eastern or Western one!"</v>
+        <v> bramja.53.b:0 "Wir fürchten keinen Hunnen, weder einen östlichen noch einen westlichen!"</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4134,11 +4135,11 @@
       </c>
       <c r="C174" s="1" t="str">
         <f aca="false">A174 &amp;" " &amp;"""" &amp;B174 &amp;""""</f>
-        <v> bramja.56.t:0 "Bringing an end to the state of war with [SOV.GetNameDef]?"</v>
+        <v> bramja.56.t:0 "Beendigung des Kriegszustandes mit [SOV.GetNameDef]?"</v>
       </c>
       <c r="D174" s="1" t="str">
         <f aca="false">IF(ISBLANK(A174),"",C174)</f>
-        <v> bramja.56.t:0 "Bringing an end to the state of war with [SOV.GetNameDef]?"</v>
+        <v> bramja.56.t:0 "Beendigung des Kriegszustandes mit [SOV.GetNameDef]?"</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4150,11 +4151,11 @@
       </c>
       <c r="C175" s="1" t="str">
         <f aca="false">A175 &amp;" " &amp;"""" &amp;B175 &amp;""""</f>
-        <v> bramja.56.d:0 "In accordance with the guarantees given to the various nations of Central Europe, we declared war on those violated their integrity. However as we now are war with both [GER.GetNameDef] and [SOV.GetNameDef] and our contiental allies are all but utterly defeated, we should consider retacting our declaration of war on the Sovjet, as we lack any means to achieve vitory as it stands now. We even actualy risk only achieving a closer bond between the Germans &amp; the Russians, with us being a common enemy.\n This means we would abandon central Europe to its fate, for now..."</v>
+        <v> bramja.56.d:0 "In Übereinstimmung mit den Garantien, die wir den verschiedenen Nationen Mitteleuropas gegeben haben, haben wir denjenigen den Krieg erklärt, die ihre Integrität verletzen. Da wir uns nun jedoch sowohl mit [GER.GetNameDef] als auch mit [SOV.GetNameDef] im Krieg befinden und unsere Verbündeten in Mitteleuropa so gut wie besiegt sind, sollten wir in Erwägung ziehen, unsere Kriegserklärung an die Sowjetunion zu revidieren, da uns in der jetzigen Situation jegliche Mittel fehlen, um den Sieg zu erringen. Wir riskieren sogar, die Deutschen und die Russen noch enger an uns zu binden, da wir ein gemeinsamer Feind sind.\n Das bedeutet, dass wir Mitteleuropa vorerst seinem Schicksal überlassen würden..."</v>
       </c>
       <c r="D175" s="1" t="str">
         <f aca="false">IF(ISBLANK(A175),"",C175)</f>
-        <v> bramja.56.d:0 "In accordance with the guarantees given to the various nations of Central Europe, we declared war on those violated their integrity. However as we now are war with both [GER.GetNameDef] and [SOV.GetNameDef] and our contiental allies are all but utterly defeated, we should consider retacting our declaration of war on the Sovjet, as we lack any means to achieve vitory as it stands now. We even actualy risk only achieving a closer bond between the Germans &amp; the Russians, with us being a common enemy.\n This means we would abandon central Europe to its fate, for now..."</v>
+        <v> bramja.56.d:0 "In Übereinstimmung mit den Garantien, die wir den verschiedenen Nationen Mitteleuropas gegeben haben, haben wir denjenigen den Krieg erklärt, die ihre Integrität verletzen. Da wir uns nun jedoch sowohl mit [GER.GetNameDef] als auch mit [SOV.GetNameDef] im Krieg befinden und unsere Verbündeten in Mitteleuropa so gut wie besiegt sind, sollten wir in Erwägung ziehen, unsere Kriegserklärung an die Sowjetunion zu revidieren, da uns in der jetzigen Situation jegliche Mittel fehlen, um den Sieg zu erringen. Wir riskieren sogar, die Deutschen und die Russen noch enger an uns zu binden, da wir ein gemeinsamer Feind sind.\n Das bedeutet, dass wir Mitteleuropa vorerst seinem Schicksal überlassen würden..."</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4166,11 +4167,11 @@
       </c>
       <c r="C176" s="1" t="str">
         <f aca="false">A176 &amp;" " &amp;"""" &amp;B176 &amp;""""</f>
-        <v> bramja.56.a:0 "Better to fight one monster at a time..."</v>
+        <v> bramja.56.a:0 "Es ist besser, ein Monster nach dem anderen zu bekämpfen..."</v>
       </c>
       <c r="D176" s="1" t="str">
         <f aca="false">IF(ISBLANK(A176),"",C176)</f>
-        <v> bramja.56.a:0 "Better to fight one monster at a time..."</v>
+        <v> bramja.56.a:0 "Es ist besser, ein Monster nach dem anderen zu bekämpfen..."</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4182,11 +4183,11 @@
       </c>
       <c r="C177" s="1" t="str">
         <f aca="false">A177 &amp;" " &amp;"""" &amp;B177 &amp;""""</f>
-        <v> bramja.56.b:0 "We will not renege on our agreements, friendships or our principles!"</v>
+        <v> bramja.56.b:0 "Wir werden nicht von unseren Vereinbarungen, Freundschaften oder Grundsätzen abrücken!"</v>
       </c>
       <c r="D177" s="1" t="str">
         <f aca="false">IF(ISBLANK(A177),"",C177)</f>
-        <v> bramja.56.b:0 "We will not renege on our agreements, friendships or our principles!"</v>
+        <v> bramja.56.b:0 "Wir werden nicht von unseren Vereinbarungen, Freundschaften oder Grundsätzen abrücken!"</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4198,11 +4199,11 @@
       </c>
       <c r="C178" s="1" t="str">
         <f aca="false">A178 &amp;" " &amp;"""" &amp;B178 &amp;""""</f>
-        <v> bramja.57.t:0 "[ENG.GetAdjective] retract earlier declaration of war on the Soviet Union!"</v>
+        <v> bramja.57.t:0 "[ENG.GetAdjective] Ziehen Sie Ihre frühere Kriegserklärung an die Sowjetunion zurück!"</v>
       </c>
       <c r="D178" s="1" t="str">
         <f aca="false">IF(ISBLANK(A178),"",C178)</f>
-        <v> bramja.57.t:0 "[ENG.GetAdjective] retract earlier declaration of war on the Soviet Union!"</v>
+        <v> bramja.57.t:0 "[ENG.GetAdjective] Ziehen Sie Ihre frühere Kriegserklärung an die Sowjetunion zurück!"</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4214,11 +4215,11 @@
       </c>
       <c r="C179" s="1" t="str">
         <f aca="false">A179 &amp;" " &amp;"""" &amp;B179 &amp;""""</f>
-        <v> bramja.57.d:0 "\n\n\nEarlier [ENG.GetNameDef] had declared war on [SOV.GetNameDef], acting on the guarantees given to a multitude of states in Central Europe to support them in case of an invasion. However as they now are war with both [GER.GetNameDef] and [SOV.GetNameDef] and left with no major allies on the continent, the maintainance of a state of war between the 2 powers made little sense anymore, as both sides can hardly even get forces to get in contact. Finally there is also the greatly expanded [GER.GetFactionName] sitting in between the 2 now former bellingerents, which could prove to be a greater concern for eiher..."</v>
+        <v> bramja.57.d:0 "\Zuvor hatte [ENG.GetNameDef] [SOV.GetNameDef] den Krieg erklärt und sich dabei auf die Garantien gestützt, die einer Vielzahl von Staaten in Mitteleuropa gegeben wurden, um sie im Falle einer Invasion zu unterstützen. Da sie sich nun aber sowohl mit [GER.GetNameDef] als auch mit [SOV.GetNameDef] im Krieg befinden und keine wichtigen Verbündeten mehr auf dem Kontinent haben, macht die Aufrechterhaltung des Kriegszustandes zwischen den beiden Mächten kaum noch Sinn, da beide Seiten kaum noch Truppen aufbieten können, um Kontakt aufzunehmen. Schließlich gibt es auch noch die stark erweiterte [GER.GetFactionName], die zwischen den beiden ehemaligen Kriegsgegnern sitzt, was für beide ein größeres Problem darstellen könnte..."</v>
       </c>
       <c r="D179" s="1" t="str">
         <f aca="false">IF(ISBLANK(A179),"",C179)</f>
-        <v> bramja.57.d:0 "\n\n\nEarlier [ENG.GetNameDef] had declared war on [SOV.GetNameDef], acting on the guarantees given to a multitude of states in Central Europe to support them in case of an invasion. However as they now are war with both [GER.GetNameDef] and [SOV.GetNameDef] and left with no major allies on the continent, the maintainance of a state of war between the 2 powers made little sense anymore, as both sides can hardly even get forces to get in contact. Finally there is also the greatly expanded [GER.GetFactionName] sitting in between the 2 now former bellingerents, which could prove to be a greater concern for eiher..."</v>
+        <v> bramja.57.d:0 "\Zuvor hatte [ENG.GetNameDef] [SOV.GetNameDef] den Krieg erklärt und sich dabei auf die Garantien gestützt, die einer Vielzahl von Staaten in Mitteleuropa gegeben wurden, um sie im Falle einer Invasion zu unterstützen. Da sie sich nun aber sowohl mit [GER.GetNameDef] als auch mit [SOV.GetNameDef] im Krieg befinden und keine wichtigen Verbündeten mehr auf dem Kontinent haben, macht die Aufrechterhaltung des Kriegszustandes zwischen den beiden Mächten kaum noch Sinn, da beide Seiten kaum noch Truppen aufbieten können, um Kontakt aufzunehmen. Schließlich gibt es auch noch die stark erweiterte [GER.GetFactionName], die zwischen den beiden ehemaligen Kriegsgegnern sitzt, was für beide ein größeres Problem darstellen könnte..."</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4230,11 +4231,11 @@
       </c>
       <c r="C180" s="1" t="str">
         <f aca="false">A180 &amp;" " &amp;"""" &amp;B180 &amp;""""</f>
-        <v> bramja.57.a:0 "But which dog will run off with the bone?"</v>
+        <v> bramja.57.a:0 "Aber welcher Hund wird mit dem Knochen abhauen?"</v>
       </c>
       <c r="D180" s="1" t="str">
         <f aca="false">IF(ISBLANK(A180),"",C180)</f>
-        <v> bramja.57.a:0 "But which dog will run off with the bone?"</v>
+        <v> bramja.57.a:0 "Aber welcher Hund wird mit dem Knochen abhauen?"</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4246,11 +4247,11 @@
       </c>
       <c r="C181" s="1" t="str">
         <f aca="false">A181 &amp;" " &amp;"""" &amp;B181 &amp;""""</f>
-        <v> bramja.57.b:0 "At least our situation is somewhat less desperate now"</v>
+        <v> bramja.57.b:0 "Zumindest ist unsere Situation jetzt etwas weniger verzweifelt"</v>
       </c>
       <c r="D181" s="1" t="str">
         <f aca="false">IF(ISBLANK(A181),"",C181)</f>
-        <v> bramja.57.b:0 "At least our situation is somewhat less desperate now"</v>
+        <v> bramja.57.b:0 "Zumindest ist unsere Situation jetzt etwas weniger verzweifelt"</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4262,11 +4263,11 @@
       </c>
       <c r="C182" s="1" t="str">
         <f aca="false">A182 &amp;" " &amp;"""" &amp;B182 &amp;""""</f>
-        <v> bramja.57.c:0 "Just a brief pause in the march forward of Socialism!"</v>
+        <v> bramja.57.c:0 "Nur eine kurze Pause auf dem Vormarsch des Sozialismus!"</v>
       </c>
       <c r="D182" s="1" t="str">
         <f aca="false">IF(ISBLANK(A182),"",C182)</f>
-        <v> bramja.57.c:0 "Just a brief pause in the march forward of Socialism!"</v>
+        <v> bramja.57.c:0 "Nur eine kurze Pause auf dem Vormarsch des Sozialismus!"</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4278,11 +4279,11 @@
       </c>
       <c r="C183" s="1" t="str">
         <f aca="false">A183 &amp;" " &amp;"""" &amp;B183 &amp;""""</f>
-        <v> bramja.71.t:0 "Allow State Name Changes?"</v>
+        <v> bramja.71.t:0 "Änderungen von Staatsnamen zulassen?"</v>
       </c>
       <c r="D183" s="1" t="str">
         <f aca="false">IF(ISBLANK(A183),"",C183)</f>
-        <v> bramja.71.t:0 "Allow State Name Changes?"</v>
+        <v> bramja.71.t:0 "Änderungen von Staatsnamen zulassen?"</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4294,11 +4295,11 @@
       </c>
       <c r="C184" s="1" t="str">
         <f aca="false">A184 &amp;" " &amp;"""" &amp;B184 &amp;""""</f>
-        <v> bramja.71.d:0 "Excuses for once again interrupting your game, I swear this the last time.\nOne final question: do you want to allow some States and Victory Points to change names when they change controller? While this increases immersion it does slightly increases the tax on your system and could increase lag slightly."</v>
+        <v> bramja.71.d:0 "Entschuldigt, dass ich wieder einmal euer Spiel unterbreche, ich schwöre, das war das letzte Mal. Eine letzte Frage: Wollt ihr zulassen, dass einige Staaten und Siegpunkte ihren Namen ändern, wenn sie den Kontrolleur wechseln? Das erhöht zwar die Immersion, belastet aber das System etwas mehr und könnte die Verzögerung etwas erhöhen."</v>
       </c>
       <c r="D184" s="1" t="str">
         <f aca="false">IF(ISBLANK(A184),"",C184)</f>
-        <v> bramja.71.d:0 "Excuses for once again interrupting your game, I swear this the last time.\nOne final question: do you want to allow some States and Victory Points to change names when they change controller? While this increases immersion it does slightly increases the tax on your system and could increase lag slightly."</v>
+        <v> bramja.71.d:0 "Entschuldigt, dass ich wieder einmal euer Spiel unterbreche, ich schwöre, das war das letzte Mal. Eine letzte Frage: Wollt ihr zulassen, dass einige Staaten und Siegpunkte ihren Namen ändern, wenn sie den Kontrolleur wechseln? Das erhöht zwar die Immersion, belastet aber das System etwas mehr und könnte die Verzögerung etwas erhöhen."</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4310,11 +4311,11 @@
       </c>
       <c r="C185" s="1" t="str">
         <f aca="false">A185 &amp;" " &amp;"""" &amp;B185 &amp;""""</f>
-        <v> bramja.71.a:0 "Yes that would be cool"</v>
+        <v> bramja.71.a:0 "Ja, das wäre cool"</v>
       </c>
       <c r="D185" s="1" t="str">
         <f aca="false">IF(ISBLANK(A185),"",C185)</f>
-        <v> bramja.71.a:0 "Yes that would be cool"</v>
+        <v> bramja.71.a:0 "Ja, das wäre cool"</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4326,948 +4327,572 @@
       </c>
       <c r="C186" s="1" t="str">
         <f aca="false">A186 &amp;" " &amp;"""" &amp;B186 &amp;""""</f>
-        <v> bramja.71.b:0 "Immersion is cringe"</v>
+        <v> bramja.71.b:0 "Eintauchen ist zum Kotzen"</v>
       </c>
       <c r="D186" s="1" t="str">
         <f aca="false">IF(ISBLANK(A186),"",C186)</f>
-        <v> bramja.71.b:0 "Immersion is cringe"</v>
+        <v> bramja.71.b:0 "Eintauchen ist zum Kotzen"</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C187" s="1" t="str">
-        <f aca="false">A187 &amp;" " &amp;"""" &amp;B187 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D187" s="1" t="str">
         <f aca="false">IF(ISBLANK(A187),"",C187)</f>
         <v/>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C188" s="1" t="str">
-        <f aca="false">A188 &amp;" " &amp;"""" &amp;B188 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D188" s="1" t="str">
         <f aca="false">IF(ISBLANK(A188),"",C188)</f>
         <v/>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C189" s="1" t="str">
-        <f aca="false">A189 &amp;" " &amp;"""" &amp;B189 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D189" s="1" t="str">
         <f aca="false">IF(ISBLANK(A189),"",C189)</f>
         <v/>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C190" s="1" t="str">
-        <f aca="false">A190 &amp;" " &amp;"""" &amp;B190 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D190" s="1" t="str">
         <f aca="false">IF(ISBLANK(A190),"",C190)</f>
         <v/>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C191" s="1" t="str">
-        <f aca="false">A191 &amp;" " &amp;"""" &amp;B191 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D191" s="1" t="str">
         <f aca="false">IF(ISBLANK(A191),"",C191)</f>
         <v/>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C192" s="1" t="str">
-        <f aca="false">A192 &amp;" " &amp;"""" &amp;B192 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D192" s="1" t="str">
         <f aca="false">IF(ISBLANK(A192),"",C192)</f>
         <v/>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C193" s="1" t="str">
-        <f aca="false">A193 &amp;" " &amp;"""" &amp;B193 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D193" s="1" t="str">
         <f aca="false">IF(ISBLANK(A193),"",C193)</f>
         <v/>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C194" s="1" t="str">
-        <f aca="false">A194 &amp;" " &amp;"""" &amp;B194 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D194" s="1" t="str">
         <f aca="false">IF(ISBLANK(A194),"",C194)</f>
         <v/>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C195" s="1" t="str">
-        <f aca="false">A195 &amp;" " &amp;"""" &amp;B195 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D195" s="1" t="str">
         <f aca="false">IF(ISBLANK(A195),"",C195)</f>
         <v/>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C196" s="1" t="str">
-        <f aca="false">A196 &amp;" " &amp;"""" &amp;B196 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D196" s="1" t="str">
         <f aca="false">IF(ISBLANK(A196),"",C196)</f>
         <v/>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C197" s="1" t="str">
-        <f aca="false">A197 &amp;" " &amp;"""" &amp;B197 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D197" s="1" t="str">
         <f aca="false">IF(ISBLANK(A197),"",C197)</f>
         <v/>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C198" s="1" t="str">
-        <f aca="false">A198 &amp;" " &amp;"""" &amp;B198 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D198" s="1" t="str">
         <f aca="false">IF(ISBLANK(A198),"",C198)</f>
         <v/>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C199" s="1" t="str">
-        <f aca="false">A199 &amp;" " &amp;"""" &amp;B199 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D199" s="1" t="str">
         <f aca="false">IF(ISBLANK(A199),"",C199)</f>
         <v/>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C200" s="1" t="str">
-        <f aca="false">A200 &amp;" " &amp;"""" &amp;B200 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D200" s="1" t="str">
         <f aca="false">IF(ISBLANK(A200),"",C200)</f>
         <v/>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C201" s="1" t="str">
-        <f aca="false">A201 &amp;" " &amp;"""" &amp;B201 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D201" s="1" t="str">
         <f aca="false">IF(ISBLANK(A201),"",C201)</f>
         <v/>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C202" s="1" t="str">
-        <f aca="false">A202 &amp;" " &amp;"""" &amp;B202 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D202" s="1" t="str">
         <f aca="false">IF(ISBLANK(A202),"",C202)</f>
         <v/>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C203" s="1" t="str">
-        <f aca="false">A203 &amp;" " &amp;"""" &amp;B203 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D203" s="1" t="str">
         <f aca="false">IF(ISBLANK(A203),"",C203)</f>
         <v/>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C204" s="1" t="str">
-        <f aca="false">A204 &amp;" " &amp;"""" &amp;B204 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D204" s="1" t="str">
         <f aca="false">IF(ISBLANK(A204),"",C204)</f>
         <v/>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="1" t="str">
-        <f aca="false">A205 &amp;" " &amp;"""" &amp;B205 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D205" s="1" t="str">
         <f aca="false">IF(ISBLANK(A205),"",C205)</f>
         <v/>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="1" t="str">
-        <f aca="false">A206 &amp;" " &amp;"""" &amp;B206 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D206" s="1" t="str">
         <f aca="false">IF(ISBLANK(A206),"",C206)</f>
         <v/>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="1" t="str">
-        <f aca="false">A207 &amp;" " &amp;"""" &amp;B207 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D207" s="1" t="str">
         <f aca="false">IF(ISBLANK(A207),"",C207)</f>
         <v/>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C208" s="1" t="str">
-        <f aca="false">A208 &amp;" " &amp;"""" &amp;B208 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D208" s="1" t="str">
         <f aca="false">IF(ISBLANK(A208),"",C208)</f>
         <v/>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C209" s="1" t="str">
-        <f aca="false">A209 &amp;" " &amp;"""" &amp;B209 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D209" s="1" t="str">
         <f aca="false">IF(ISBLANK(A209),"",C209)</f>
         <v/>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C210" s="1" t="str">
-        <f aca="false">A210 &amp;" " &amp;"""" &amp;B210 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D210" s="1" t="str">
         <f aca="false">IF(ISBLANK(A210),"",C210)</f>
         <v/>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C211" s="1" t="str">
-        <f aca="false">A211 &amp;" " &amp;"""" &amp;B211 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D211" s="1" t="str">
         <f aca="false">IF(ISBLANK(A211),"",C211)</f>
         <v/>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C212" s="1" t="str">
-        <f aca="false">A212 &amp;" " &amp;"""" &amp;B212 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D212" s="1" t="str">
         <f aca="false">IF(ISBLANK(A212),"",C212)</f>
         <v/>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C213" s="1" t="str">
-        <f aca="false">A213 &amp;" " &amp;"""" &amp;B213 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D213" s="1" t="str">
         <f aca="false">IF(ISBLANK(A213),"",C213)</f>
         <v/>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C214" s="1" t="str">
-        <f aca="false">A214 &amp;" " &amp;"""" &amp;B214 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D214" s="1" t="str">
         <f aca="false">IF(ISBLANK(A214),"",C214)</f>
         <v/>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C215" s="1" t="str">
-        <f aca="false">A215 &amp;" " &amp;"""" &amp;B215 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D215" s="1" t="str">
         <f aca="false">IF(ISBLANK(A215),"",C215)</f>
         <v/>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C216" s="1" t="str">
-        <f aca="false">A216 &amp;" " &amp;"""" &amp;B216 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D216" s="1" t="str">
         <f aca="false">IF(ISBLANK(A216),"",C216)</f>
         <v/>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C217" s="1" t="str">
-        <f aca="false">A217 &amp;" " &amp;"""" &amp;B217 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D217" s="1" t="str">
         <f aca="false">IF(ISBLANK(A217),"",C217)</f>
         <v/>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C218" s="1" t="str">
-        <f aca="false">A218 &amp;" " &amp;"""" &amp;B218 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D218" s="1" t="str">
         <f aca="false">IF(ISBLANK(A218),"",C218)</f>
         <v/>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C219" s="1" t="str">
-        <f aca="false">A219 &amp;" " &amp;"""" &amp;B219 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D219" s="1" t="str">
         <f aca="false">IF(ISBLANK(A219),"",C219)</f>
         <v/>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C220" s="1" t="str">
-        <f aca="false">A220 &amp;" " &amp;"""" &amp;B220 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D220" s="1" t="str">
         <f aca="false">IF(ISBLANK(A220),"",C220)</f>
         <v/>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="1" t="str">
-        <f aca="false">A221 &amp;" " &amp;"""" &amp;B221 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D221" s="1" t="str">
         <f aca="false">IF(ISBLANK(A221),"",C221)</f>
         <v/>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="1" t="str">
-        <f aca="false">A222 &amp;" " &amp;"""" &amp;B222 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D222" s="1" t="str">
         <f aca="false">IF(ISBLANK(A222),"",C222)</f>
         <v/>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C223" s="1" t="str">
-        <f aca="false">A223 &amp;" " &amp;"""" &amp;B223 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D223" s="1" t="str">
         <f aca="false">IF(ISBLANK(A223),"",C223)</f>
         <v/>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C224" s="1" t="str">
-        <f aca="false">A224 &amp;" " &amp;"""" &amp;B224 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D224" s="1" t="str">
         <f aca="false">IF(ISBLANK(A224),"",C224)</f>
         <v/>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="1" t="str">
-        <f aca="false">A225 &amp;" " &amp;"""" &amp;B225 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D225" s="1" t="str">
         <f aca="false">IF(ISBLANK(A225),"",C225)</f>
         <v/>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C226" s="1" t="str">
-        <f aca="false">A226 &amp;" " &amp;"""" &amp;B226 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D226" s="1" t="str">
         <f aca="false">IF(ISBLANK(A226),"",C226)</f>
         <v/>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="1" t="str">
-        <f aca="false">A227 &amp;" " &amp;"""" &amp;B227 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D227" s="1" t="str">
         <f aca="false">IF(ISBLANK(A227),"",C227)</f>
         <v/>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C228" s="1" t="str">
-        <f aca="false">A228 &amp;" " &amp;"""" &amp;B228 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D228" s="1" t="str">
         <f aca="false">IF(ISBLANK(A228),"",C228)</f>
         <v/>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C229" s="1" t="str">
-        <f aca="false">A229 &amp;" " &amp;"""" &amp;B229 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D229" s="1" t="str">
         <f aca="false">IF(ISBLANK(A229),"",C229)</f>
         <v/>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C230" s="1" t="str">
-        <f aca="false">A230 &amp;" " &amp;"""" &amp;B230 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D230" s="1" t="str">
         <f aca="false">IF(ISBLANK(A230),"",C230)</f>
         <v/>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C231" s="1" t="str">
-        <f aca="false">A231 &amp;" " &amp;"""" &amp;B231 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D231" s="1" t="str">
         <f aca="false">IF(ISBLANK(A231),"",C231)</f>
         <v/>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C232" s="1" t="str">
-        <f aca="false">A232 &amp;" " &amp;"""" &amp;B232 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D232" s="1" t="str">
         <f aca="false">IF(ISBLANK(A232),"",C232)</f>
         <v/>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="1" t="str">
-        <f aca="false">A233 &amp;" " &amp;"""" &amp;B233 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D233" s="1" t="str">
         <f aca="false">IF(ISBLANK(A233),"",C233)</f>
         <v/>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="1" t="str">
-        <f aca="false">A234 &amp;" " &amp;"""" &amp;B234 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D234" s="1" t="str">
         <f aca="false">IF(ISBLANK(A234),"",C234)</f>
         <v/>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="1" t="str">
-        <f aca="false">A235 &amp;" " &amp;"""" &amp;B235 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D235" s="1" t="str">
         <f aca="false">IF(ISBLANK(A235),"",C235)</f>
         <v/>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C236" s="1" t="str">
-        <f aca="false">A236 &amp;" " &amp;"""" &amp;B236 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D236" s="1" t="str">
         <f aca="false">IF(ISBLANK(A236),"",C236)</f>
         <v/>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C237" s="1" t="str">
-        <f aca="false">A237 &amp;" " &amp;"""" &amp;B237 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D237" s="1" t="str">
         <f aca="false">IF(ISBLANK(A237),"",C237)</f>
         <v/>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C238" s="1" t="str">
-        <f aca="false">A238 &amp;" " &amp;"""" &amp;B238 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D238" s="1" t="str">
         <f aca="false">IF(ISBLANK(A238),"",C238)</f>
         <v/>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C239" s="1" t="str">
-        <f aca="false">A239 &amp;" " &amp;"""" &amp;B239 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D239" s="1" t="str">
         <f aca="false">IF(ISBLANK(A239),"",C239)</f>
         <v/>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C240" s="1" t="str">
-        <f aca="false">A240 &amp;" " &amp;"""" &amp;B240 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D240" s="1" t="str">
         <f aca="false">IF(ISBLANK(A240),"",C240)</f>
         <v/>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C241" s="1" t="str">
-        <f aca="false">A241 &amp;" " &amp;"""" &amp;B241 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D241" s="1" t="str">
         <f aca="false">IF(ISBLANK(A241),"",C241)</f>
         <v/>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C242" s="1" t="str">
-        <f aca="false">A242 &amp;" " &amp;"""" &amp;B242 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D242" s="1" t="str">
         <f aca="false">IF(ISBLANK(A242),"",C242)</f>
         <v/>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C243" s="1" t="str">
-        <f aca="false">A243 &amp;" " &amp;"""" &amp;B243 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D243" s="1" t="str">
         <f aca="false">IF(ISBLANK(A243),"",C243)</f>
         <v/>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C244" s="1" t="str">
-        <f aca="false">A244 &amp;" " &amp;"""" &amp;B244 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D244" s="1" t="str">
         <f aca="false">IF(ISBLANK(A244),"",C244)</f>
         <v/>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C245" s="1" t="str">
-        <f aca="false">A245 &amp;" " &amp;"""" &amp;B245 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D245" s="1" t="str">
         <f aca="false">IF(ISBLANK(A245),"",C245)</f>
         <v/>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C246" s="1" t="str">
-        <f aca="false">A246 &amp;" " &amp;"""" &amp;B246 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D246" s="1" t="str">
         <f aca="false">IF(ISBLANK(A246),"",C246)</f>
         <v/>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C247" s="1" t="str">
-        <f aca="false">A247 &amp;" " &amp;"""" &amp;B247 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D247" s="1" t="str">
         <f aca="false">IF(ISBLANK(A247),"",C247)</f>
         <v/>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C248" s="1" t="str">
-        <f aca="false">A248 &amp;" " &amp;"""" &amp;B248 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D248" s="1" t="str">
         <f aca="false">IF(ISBLANK(A248),"",C248)</f>
         <v/>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C249" s="1" t="str">
-        <f aca="false">A249 &amp;" " &amp;"""" &amp;B249 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D249" s="1" t="str">
         <f aca="false">IF(ISBLANK(A249),"",C249)</f>
         <v/>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C250" s="1" t="str">
-        <f aca="false">A250 &amp;" " &amp;"""" &amp;B250 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D250" s="1" t="str">
         <f aca="false">IF(ISBLANK(A250),"",C250)</f>
         <v/>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C251" s="1" t="str">
-        <f aca="false">A251 &amp;" " &amp;"""" &amp;B251 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D251" s="1" t="str">
         <f aca="false">IF(ISBLANK(A251),"",C251)</f>
         <v/>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C252" s="1" t="str">
-        <f aca="false">A252 &amp;" " &amp;"""" &amp;B252 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D252" s="1" t="str">
         <f aca="false">IF(ISBLANK(A252),"",C252)</f>
         <v/>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C253" s="1" t="str">
-        <f aca="false">A253 &amp;" " &amp;"""" &amp;B253 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D253" s="1" t="str">
         <f aca="false">IF(ISBLANK(A253),"",C253)</f>
         <v/>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C254" s="1" t="str">
-        <f aca="false">A254 &amp;" " &amp;"""" &amp;B254 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D254" s="1" t="str">
         <f aca="false">IF(ISBLANK(A254),"",C254)</f>
         <v/>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C255" s="1" t="str">
-        <f aca="false">A255 &amp;" " &amp;"""" &amp;B255 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D255" s="1" t="str">
         <f aca="false">IF(ISBLANK(A255),"",C255)</f>
         <v/>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C256" s="1" t="str">
-        <f aca="false">A256 &amp;" " &amp;"""" &amp;B256 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D256" s="1" t="str">
         <f aca="false">IF(ISBLANK(A256),"",C256)</f>
         <v/>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C257" s="1" t="str">
-        <f aca="false">A257 &amp;" " &amp;"""" &amp;B257 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D257" s="1" t="str">
         <f aca="false">IF(ISBLANK(A257),"",C257)</f>
         <v/>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C258" s="1" t="str">
-        <f aca="false">A258 &amp;" " &amp;"""" &amp;B258 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D258" s="1" t="str">
         <f aca="false">IF(ISBLANK(A258),"",C258)</f>
         <v/>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C259" s="1" t="str">
-        <f aca="false">A259 &amp;" " &amp;"""" &amp;B259 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D259" s="1" t="str">
         <f aca="false">IF(ISBLANK(A259),"",C259)</f>
         <v/>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C260" s="1" t="str">
-        <f aca="false">A260 &amp;" " &amp;"""" &amp;B260 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D260" s="1" t="str">
         <f aca="false">IF(ISBLANK(A260),"",C260)</f>
         <v/>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C261" s="1" t="str">
-        <f aca="false">A261 &amp;" " &amp;"""" &amp;B261 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D261" s="1" t="str">
         <f aca="false">IF(ISBLANK(A261),"",C261)</f>
         <v/>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C262" s="1" t="str">
-        <f aca="false">A262 &amp;" " &amp;"""" &amp;B262 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D262" s="1" t="str">
         <f aca="false">IF(ISBLANK(A262),"",C262)</f>
         <v/>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C263" s="1" t="str">
-        <f aca="false">A263 &amp;" " &amp;"""" &amp;B263 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D263" s="1" t="str">
         <f aca="false">IF(ISBLANK(A263),"",C263)</f>
         <v/>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C264" s="1" t="str">
-        <f aca="false">A264 &amp;" " &amp;"""" &amp;B264 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D264" s="1" t="str">
         <f aca="false">IF(ISBLANK(A264),"",C264)</f>
         <v/>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C265" s="1" t="str">
-        <f aca="false">A265 &amp;" " &amp;"""" &amp;B265 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D265" s="1" t="str">
         <f aca="false">IF(ISBLANK(A265),"",C265)</f>
         <v/>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C266" s="1" t="str">
-        <f aca="false">A266 &amp;" " &amp;"""" &amp;B266 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D266" s="1" t="str">
         <f aca="false">IF(ISBLANK(A266),"",C266)</f>
         <v/>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C267" s="1" t="str">
-        <f aca="false">A267 &amp;" " &amp;"""" &amp;B267 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D267" s="1" t="str">
         <f aca="false">IF(ISBLANK(A267),"",C267)</f>
         <v/>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C268" s="1" t="str">
-        <f aca="false">A268 &amp;" " &amp;"""" &amp;B268 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D268" s="1" t="str">
         <f aca="false">IF(ISBLANK(A268),"",C268)</f>
         <v/>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C269" s="1" t="str">
-        <f aca="false">A269 &amp;" " &amp;"""" &amp;B269 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D269" s="1" t="str">
         <f aca="false">IF(ISBLANK(A269),"",C269)</f>
         <v/>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C270" s="1" t="str">
-        <f aca="false">A270 &amp;" " &amp;"""" &amp;B270 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D270" s="1" t="str">
         <f aca="false">IF(ISBLANK(A270),"",C270)</f>
         <v/>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C271" s="1" t="str">
-        <f aca="false">A271 &amp;" " &amp;"""" &amp;B271 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D271" s="1" t="str">
         <f aca="false">IF(ISBLANK(A271),"",C271)</f>
         <v/>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C272" s="1" t="str">
-        <f aca="false">A272 &amp;" " &amp;"""" &amp;B272 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D272" s="1" t="str">
         <f aca="false">IF(ISBLANK(A272),"",C272)</f>
         <v/>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C273" s="1" t="str">
-        <f aca="false">A273 &amp;" " &amp;"""" &amp;B273 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D273" s="1" t="str">
         <f aca="false">IF(ISBLANK(A273),"",C273)</f>
         <v/>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C274" s="1" t="str">
-        <f aca="false">A274 &amp;" " &amp;"""" &amp;B274 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D274" s="1" t="str">
         <f aca="false">IF(ISBLANK(A274),"",C274)</f>
         <v/>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C275" s="1" t="str">
-        <f aca="false">A275 &amp;" " &amp;"""" &amp;B275 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D275" s="1" t="str">
         <f aca="false">IF(ISBLANK(A275),"",C275)</f>
         <v/>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="1" t="str">
-        <f aca="false">A276 &amp;" " &amp;"""" &amp;B276 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D276" s="1" t="str">
         <f aca="false">IF(ISBLANK(A276),"",C276)</f>
         <v/>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C277" s="1" t="str">
-        <f aca="false">A277 &amp;" " &amp;"""" &amp;B277 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D277" s="1" t="str">
         <f aca="false">IF(ISBLANK(A277),"",C277)</f>
         <v/>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C278" s="1" t="str">
-        <f aca="false">A278 &amp;" " &amp;"""" &amp;B278 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D278" s="1" t="str">
         <f aca="false">IF(ISBLANK(A278),"",C278)</f>
         <v/>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C279" s="1" t="str">
-        <f aca="false">A279 &amp;" " &amp;"""" &amp;B279 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D279" s="1" t="str">
         <f aca="false">IF(ISBLANK(A279),"",C279)</f>
         <v/>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C280" s="1" t="str">
-        <f aca="false">A280 &amp;" " &amp;"""" &amp;B280 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D280" s="1" t="str">
         <f aca="false">IF(ISBLANK(A280),"",C280)</f>
         <v/>
@@ -5275,2110 +4900,1266 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="2"/>
-      <c r="C281" s="1" t="str">
-        <f aca="false">A281 &amp;" " &amp;"""" &amp;B281 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D281" s="1" t="str">
         <f aca="false">IF(ISBLANK(A281),"",C281)</f>
         <v/>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C282" s="1" t="str">
-        <f aca="false">A282 &amp;" " &amp;"""" &amp;B282 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D282" s="1" t="str">
         <f aca="false">IF(ISBLANK(A282),"",C282)</f>
         <v/>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C283" s="1" t="str">
-        <f aca="false">A283 &amp;" " &amp;"""" &amp;B283 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D283" s="1" t="str">
         <f aca="false">IF(ISBLANK(A283),"",C283)</f>
         <v/>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C284" s="1" t="str">
-        <f aca="false">A284 &amp;" " &amp;"""" &amp;B284 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D284" s="1" t="str">
         <f aca="false">IF(ISBLANK(A284),"",C284)</f>
         <v/>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C285" s="1" t="str">
-        <f aca="false">A285 &amp;" " &amp;"""" &amp;B285 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D285" s="1" t="str">
         <f aca="false">IF(ISBLANK(A285),"",C285)</f>
         <v/>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C286" s="1" t="str">
-        <f aca="false">A286 &amp;" " &amp;"""" &amp;B286 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D286" s="1" t="str">
         <f aca="false">IF(ISBLANK(A286),"",C286)</f>
         <v/>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C287" s="1" t="str">
-        <f aca="false">A287 &amp;" " &amp;"""" &amp;B287 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D287" s="1" t="str">
         <f aca="false">IF(ISBLANK(A287),"",C287)</f>
         <v/>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C288" s="1" t="str">
-        <f aca="false">A288 &amp;" " &amp;"""" &amp;B288 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D288" s="1" t="str">
         <f aca="false">IF(ISBLANK(A288),"",C288)</f>
         <v/>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C289" s="1" t="str">
-        <f aca="false">A289 &amp;" " &amp;"""" &amp;B289 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D289" s="1" t="str">
         <f aca="false">IF(ISBLANK(A289),"",C289)</f>
         <v/>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C290" s="1" t="str">
-        <f aca="false">A290 &amp;" " &amp;"""" &amp;B290 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D290" s="1" t="str">
         <f aca="false">IF(ISBLANK(A290),"",C290)</f>
         <v/>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C291" s="1" t="str">
-        <f aca="false">A291 &amp;" " &amp;"""" &amp;B291 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D291" s="1" t="str">
         <f aca="false">IF(ISBLANK(A291),"",C291)</f>
         <v/>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C292" s="1" t="str">
-        <f aca="false">A292 &amp;" " &amp;"""" &amp;B292 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D292" s="1" t="str">
         <f aca="false">IF(ISBLANK(A292),"",C292)</f>
         <v/>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C293" s="1" t="str">
-        <f aca="false">A293 &amp;" " &amp;"""" &amp;B293 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D293" s="1" t="str">
         <f aca="false">IF(ISBLANK(A293),"",C293)</f>
         <v/>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C294" s="1" t="str">
-        <f aca="false">A294 &amp;" " &amp;"""" &amp;B294 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D294" s="1" t="str">
         <f aca="false">IF(ISBLANK(A294),"",C294)</f>
         <v/>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C295" s="1" t="str">
-        <f aca="false">A295 &amp;" " &amp;"""" &amp;B295 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D295" s="1" t="str">
         <f aca="false">IF(ISBLANK(A295),"",C295)</f>
         <v/>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C296" s="1" t="str">
-        <f aca="false">A296 &amp;" " &amp;"""" &amp;B296 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D296" s="1" t="str">
         <f aca="false">IF(ISBLANK(A296),"",C296)</f>
         <v/>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="1" t="str">
-        <f aca="false">A297 &amp;" " &amp;"""" &amp;B297 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D297" s="1" t="str">
         <f aca="false">IF(ISBLANK(A297),"",C297)</f>
         <v/>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C298" s="1" t="str">
-        <f aca="false">A298 &amp;" " &amp;"""" &amp;B298 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D298" s="1" t="str">
         <f aca="false">IF(ISBLANK(A298),"",C298)</f>
         <v/>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C299" s="1" t="str">
-        <f aca="false">A299 &amp;" " &amp;"""" &amp;B299 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D299" s="1" t="str">
         <f aca="false">IF(ISBLANK(A299),"",C299)</f>
         <v/>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C300" s="1" t="str">
-        <f aca="false">A300 &amp;" " &amp;"""" &amp;B300 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D300" s="1" t="str">
         <f aca="false">IF(ISBLANK(A300),"",C300)</f>
         <v/>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C301" s="1" t="str">
-        <f aca="false">A301 &amp;" " &amp;"""" &amp;B301 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D301" s="1" t="str">
         <f aca="false">IF(ISBLANK(A301),"",C301)</f>
         <v/>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C302" s="1" t="str">
-        <f aca="false">A302 &amp;" " &amp;"""" &amp;B302 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D302" s="1" t="str">
         <f aca="false">IF(ISBLANK(A302),"",C302)</f>
         <v/>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C303" s="1" t="str">
-        <f aca="false">A303 &amp;" " &amp;"""" &amp;B303 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D303" s="1" t="str">
         <f aca="false">IF(ISBLANK(A303),"",C303)</f>
         <v/>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C304" s="1" t="str">
-        <f aca="false">A304 &amp;" " &amp;"""" &amp;B304 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D304" s="1" t="str">
         <f aca="false">IF(ISBLANK(A304),"",C304)</f>
         <v/>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C305" s="1" t="str">
-        <f aca="false">A305 &amp;" " &amp;"""" &amp;B305 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D305" s="1" t="str">
         <f aca="false">IF(ISBLANK(A305),"",C305)</f>
         <v/>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C306" s="1" t="str">
-        <f aca="false">A306 &amp;" " &amp;"""" &amp;B306 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D306" s="1" t="str">
         <f aca="false">IF(ISBLANK(A306),"",C306)</f>
         <v/>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C307" s="1" t="str">
-        <f aca="false">A307 &amp;" " &amp;"""" &amp;B307 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D307" s="1" t="str">
         <f aca="false">IF(ISBLANK(A307),"",C307)</f>
         <v/>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C308" s="1" t="str">
-        <f aca="false">A308 &amp;" " &amp;"""" &amp;B308 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D308" s="1" t="str">
         <f aca="false">IF(ISBLANK(A308),"",C308)</f>
         <v/>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C309" s="1" t="str">
-        <f aca="false">A309 &amp;" " &amp;"""" &amp;B309 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D309" s="1" t="str">
         <f aca="false">IF(ISBLANK(A309),"",C309)</f>
         <v/>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C310" s="1" t="str">
-        <f aca="false">A310 &amp;" " &amp;"""" &amp;B310 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D310" s="1" t="str">
         <f aca="false">IF(ISBLANK(A310),"",C310)</f>
         <v/>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C311" s="1" t="str">
-        <f aca="false">A311 &amp;" " &amp;"""" &amp;B311 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D311" s="1" t="str">
         <f aca="false">IF(ISBLANK(A311),"",C311)</f>
         <v/>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C312" s="1" t="str">
-        <f aca="false">A312 &amp;" " &amp;"""" &amp;B312 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D312" s="1" t="str">
         <f aca="false">IF(ISBLANK(A312),"",C312)</f>
         <v/>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C313" s="1" t="str">
-        <f aca="false">A313 &amp;" " &amp;"""" &amp;B313 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D313" s="1" t="str">
         <f aca="false">IF(ISBLANK(A313),"",C313)</f>
         <v/>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C314" s="1" t="str">
-        <f aca="false">A314 &amp;" " &amp;"""" &amp;B314 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D314" s="1" t="str">
         <f aca="false">IF(ISBLANK(A314),"",C314)</f>
         <v/>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C315" s="1" t="str">
-        <f aca="false">A315 &amp;" " &amp;"""" &amp;B315 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D315" s="1" t="str">
         <f aca="false">IF(ISBLANK(A315),"",C315)</f>
         <v/>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C316" s="1" t="str">
-        <f aca="false">A316 &amp;" " &amp;"""" &amp;B316 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D316" s="1" t="str">
         <f aca="false">IF(ISBLANK(A316),"",C316)</f>
         <v/>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C317" s="1" t="str">
-        <f aca="false">A317 &amp;" " &amp;"""" &amp;B317 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D317" s="1" t="str">
         <f aca="false">IF(ISBLANK(A317),"",C317)</f>
         <v/>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C318" s="1" t="str">
-        <f aca="false">A318 &amp;" " &amp;"""" &amp;B318 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D318" s="1" t="str">
         <f aca="false">IF(ISBLANK(A318),"",C318)</f>
         <v/>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C319" s="1" t="str">
-        <f aca="false">A319 &amp;" " &amp;"""" &amp;B319 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D319" s="1" t="str">
         <f aca="false">IF(ISBLANK(A319),"",C319)</f>
         <v/>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C320" s="1" t="str">
-        <f aca="false">A320 &amp;" " &amp;"""" &amp;B320 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D320" s="1" t="str">
         <f aca="false">IF(ISBLANK(A320),"",C320)</f>
         <v/>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C321" s="1" t="str">
-        <f aca="false">A321 &amp;" " &amp;"""" &amp;B321 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D321" s="1" t="str">
         <f aca="false">IF(ISBLANK(A321),"",C321)</f>
         <v/>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C322" s="1" t="str">
-        <f aca="false">A322 &amp;" " &amp;"""" &amp;B322 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D322" s="1" t="str">
         <f aca="false">IF(ISBLANK(A322),"",C322)</f>
         <v/>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C323" s="1" t="str">
-        <f aca="false">A323 &amp;" " &amp;"""" &amp;B323 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D323" s="1" t="str">
         <f aca="false">IF(ISBLANK(A323),"",C323)</f>
         <v/>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C324" s="1" t="str">
-        <f aca="false">A324 &amp;" " &amp;"""" &amp;B324 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D324" s="1" t="str">
         <f aca="false">IF(ISBLANK(A324),"",C324)</f>
         <v/>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C325" s="1" t="str">
-        <f aca="false">A325 &amp;" " &amp;"""" &amp;B325 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D325" s="1" t="str">
         <f aca="false">IF(ISBLANK(A325),"",C325)</f>
         <v/>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C326" s="1" t="str">
-        <f aca="false">A326 &amp;" " &amp;"""" &amp;B326 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D326" s="1" t="str">
         <f aca="false">IF(ISBLANK(A326),"",C326)</f>
         <v/>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C327" s="1" t="str">
-        <f aca="false">A327 &amp;" " &amp;"""" &amp;B327 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D327" s="1" t="str">
         <f aca="false">IF(ISBLANK(A327),"",C327)</f>
         <v/>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C328" s="1" t="str">
-        <f aca="false">A328 &amp;" " &amp;"""" &amp;B328 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D328" s="1" t="str">
         <f aca="false">IF(ISBLANK(A328),"",C328)</f>
         <v/>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C329" s="1" t="str">
-        <f aca="false">A329 &amp;" " &amp;"""" &amp;B329 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D329" s="1" t="str">
         <f aca="false">IF(ISBLANK(A329),"",C329)</f>
         <v/>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C330" s="1" t="str">
-        <f aca="false">A330 &amp;" " &amp;"""" &amp;B330 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D330" s="1" t="str">
         <f aca="false">IF(ISBLANK(A330),"",C330)</f>
         <v/>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C331" s="1" t="str">
-        <f aca="false">A331 &amp;" " &amp;"""" &amp;B331 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D331" s="1" t="str">
         <f aca="false">IF(ISBLANK(A331),"",C331)</f>
         <v/>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C332" s="1" t="str">
-        <f aca="false">A332 &amp;" " &amp;"""" &amp;B332 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D332" s="1" t="str">
         <f aca="false">IF(ISBLANK(A332),"",C332)</f>
         <v/>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C333" s="1" t="str">
-        <f aca="false">A333 &amp;" " &amp;"""" &amp;B333 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D333" s="1" t="str">
         <f aca="false">IF(ISBLANK(A333),"",C333)</f>
         <v/>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C334" s="1" t="str">
-        <f aca="false">A334 &amp;" " &amp;"""" &amp;B334 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D334" s="1" t="str">
         <f aca="false">IF(ISBLANK(A334),"",C334)</f>
         <v/>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C335" s="1" t="str">
-        <f aca="false">A335 &amp;" " &amp;"""" &amp;B335 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D335" s="1" t="str">
         <f aca="false">IF(ISBLANK(A335),"",C335)</f>
         <v/>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C336" s="1" t="str">
-        <f aca="false">A336 &amp;" " &amp;"""" &amp;B336 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D336" s="1" t="str">
         <f aca="false">IF(ISBLANK(A336),"",C336)</f>
         <v/>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C337" s="1" t="str">
-        <f aca="false">A337 &amp;" " &amp;"""" &amp;B337 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D337" s="1" t="str">
         <f aca="false">IF(ISBLANK(A337),"",C337)</f>
         <v/>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C338" s="1" t="str">
-        <f aca="false">A338 &amp;" " &amp;"""" &amp;B338 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D338" s="1" t="str">
         <f aca="false">IF(ISBLANK(A338),"",C338)</f>
         <v/>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C339" s="1" t="str">
-        <f aca="false">A339 &amp;" " &amp;"""" &amp;B339 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D339" s="1" t="str">
         <f aca="false">IF(ISBLANK(A339),"",C339)</f>
         <v/>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C340" s="1" t="str">
-        <f aca="false">A340 &amp;" " &amp;"""" &amp;B340 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D340" s="1" t="str">
         <f aca="false">IF(ISBLANK(A340),"",C340)</f>
         <v/>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C341" s="1" t="str">
-        <f aca="false">A341 &amp;" " &amp;"""" &amp;B341 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D341" s="1" t="str">
         <f aca="false">IF(ISBLANK(A341),"",C341)</f>
         <v/>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C342" s="1" t="str">
-        <f aca="false">A342 &amp;" " &amp;"""" &amp;B342 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D342" s="1" t="str">
         <f aca="false">IF(ISBLANK(A342),"",C342)</f>
         <v/>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C343" s="1" t="str">
-        <f aca="false">A343 &amp;" " &amp;"""" &amp;B343 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D343" s="1" t="str">
         <f aca="false">IF(ISBLANK(A343),"",C343)</f>
         <v/>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C344" s="1" t="str">
-        <f aca="false">A344 &amp;" " &amp;"""" &amp;B344 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D344" s="1" t="str">
         <f aca="false">IF(ISBLANK(A344),"",C344)</f>
         <v/>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C345" s="1" t="str">
-        <f aca="false">A345 &amp;" " &amp;"""" &amp;B345 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D345" s="1" t="str">
         <f aca="false">IF(ISBLANK(A345),"",C345)</f>
         <v/>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C346" s="1" t="str">
-        <f aca="false">A346 &amp;" " &amp;"""" &amp;B346 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D346" s="1" t="str">
         <f aca="false">IF(ISBLANK(A346),"",C346)</f>
         <v/>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C347" s="1" t="str">
-        <f aca="false">A347 &amp;" " &amp;"""" &amp;B347 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D347" s="1" t="str">
         <f aca="false">IF(ISBLANK(A347),"",C347)</f>
         <v/>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C348" s="1" t="str">
-        <f aca="false">A348 &amp;" " &amp;"""" &amp;B348 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D348" s="1" t="str">
         <f aca="false">IF(ISBLANK(A348),"",C348)</f>
         <v/>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C349" s="1" t="str">
-        <f aca="false">A349 &amp;" " &amp;"""" &amp;B349 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D349" s="1" t="str">
         <f aca="false">IF(ISBLANK(A349),"",C349)</f>
         <v/>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C350" s="1" t="str">
-        <f aca="false">A350 &amp;" " &amp;"""" &amp;B350 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D350" s="1" t="str">
         <f aca="false">IF(ISBLANK(A350),"",C350)</f>
         <v/>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C351" s="1" t="str">
-        <f aca="false">A351 &amp;" " &amp;"""" &amp;B351 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D351" s="1" t="str">
         <f aca="false">IF(ISBLANK(A351),"",C351)</f>
         <v/>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C352" s="1" t="str">
-        <f aca="false">A352 &amp;" " &amp;"""" &amp;B352 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D352" s="1" t="str">
         <f aca="false">IF(ISBLANK(A352),"",C352)</f>
         <v/>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C353" s="1" t="str">
-        <f aca="false">A353 &amp;" " &amp;"""" &amp;B353 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D353" s="1" t="str">
         <f aca="false">IF(ISBLANK(A353),"",C353)</f>
         <v/>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C354" s="1" t="str">
-        <f aca="false">A354 &amp;" " &amp;"""" &amp;B354 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D354" s="1" t="str">
         <f aca="false">IF(ISBLANK(A354),"",C354)</f>
         <v/>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C355" s="1" t="str">
-        <f aca="false">A355 &amp;" " &amp;"""" &amp;B355 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D355" s="1" t="str">
         <f aca="false">IF(ISBLANK(A355),"",C355)</f>
         <v/>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C356" s="1" t="str">
-        <f aca="false">A356 &amp;" " &amp;"""" &amp;B356 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D356" s="1" t="str">
         <f aca="false">IF(ISBLANK(A356),"",C356)</f>
         <v/>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C357" s="1" t="str">
-        <f aca="false">A357 &amp;" " &amp;"""" &amp;B357 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D357" s="1" t="str">
         <f aca="false">IF(ISBLANK(A357),"",C357)</f>
         <v/>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C358" s="1" t="str">
-        <f aca="false">A358 &amp;" " &amp;"""" &amp;B358 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D358" s="1" t="str">
         <f aca="false">IF(ISBLANK(A358),"",C358)</f>
         <v/>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C359" s="1" t="str">
-        <f aca="false">A359 &amp;" " &amp;"""" &amp;B359 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D359" s="1" t="str">
         <f aca="false">IF(ISBLANK(A359),"",C359)</f>
         <v/>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C360" s="1" t="str">
-        <f aca="false">A360 &amp;" " &amp;"""" &amp;B360 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D360" s="1" t="str">
         <f aca="false">IF(ISBLANK(A360),"",C360)</f>
         <v/>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C361" s="1" t="str">
-        <f aca="false">A361 &amp;" " &amp;"""" &amp;B361 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D361" s="1" t="str">
         <f aca="false">IF(ISBLANK(A361),"",C361)</f>
         <v/>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C362" s="1" t="str">
-        <f aca="false">A362 &amp;" " &amp;"""" &amp;B362 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D362" s="1" t="str">
         <f aca="false">IF(ISBLANK(A362),"",C362)</f>
         <v/>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C363" s="1" t="str">
-        <f aca="false">A363 &amp;" " &amp;"""" &amp;B363 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D363" s="1" t="str">
         <f aca="false">IF(ISBLANK(A363),"",C363)</f>
         <v/>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C364" s="1" t="str">
-        <f aca="false">A364 &amp;" " &amp;"""" &amp;B364 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D364" s="1" t="str">
         <f aca="false">IF(ISBLANK(A364),"",C364)</f>
         <v/>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C365" s="1" t="str">
-        <f aca="false">A365 &amp;" " &amp;"""" &amp;B365 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D365" s="1" t="str">
         <f aca="false">IF(ISBLANK(A365),"",C365)</f>
         <v/>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C366" s="1" t="str">
-        <f aca="false">A366 &amp;" " &amp;"""" &amp;B366 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D366" s="1" t="str">
         <f aca="false">IF(ISBLANK(A366),"",C366)</f>
         <v/>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C367" s="1" t="str">
-        <f aca="false">A367 &amp;" " &amp;"""" &amp;B367 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D367" s="1" t="str">
         <f aca="false">IF(ISBLANK(A367),"",C367)</f>
         <v/>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C368" s="1" t="str">
-        <f aca="false">A368 &amp;" " &amp;"""" &amp;B368 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D368" s="1" t="str">
         <f aca="false">IF(ISBLANK(A368),"",C368)</f>
         <v/>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C369" s="1" t="str">
-        <f aca="false">A369 &amp;" " &amp;"""" &amp;B369 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D369" s="1" t="str">
         <f aca="false">IF(ISBLANK(A369),"",C369)</f>
         <v/>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C370" s="1" t="str">
-        <f aca="false">A370 &amp;" " &amp;"""" &amp;B370 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D370" s="1" t="str">
         <f aca="false">IF(ISBLANK(A370),"",C370)</f>
         <v/>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C371" s="1" t="str">
-        <f aca="false">A371 &amp;" " &amp;"""" &amp;B371 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D371" s="1" t="str">
         <f aca="false">IF(ISBLANK(A371),"",C371)</f>
         <v/>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C372" s="1" t="str">
-        <f aca="false">A372 &amp;" " &amp;"""" &amp;B372 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D372" s="1" t="str">
         <f aca="false">IF(ISBLANK(A372),"",C372)</f>
         <v/>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C373" s="1" t="str">
-        <f aca="false">A373 &amp;" " &amp;"""" &amp;B373 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D373" s="1" t="str">
         <f aca="false">IF(ISBLANK(A373),"",C373)</f>
         <v/>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C374" s="1" t="str">
-        <f aca="false">A374 &amp;" " &amp;"""" &amp;B374 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D374" s="1" t="str">
         <f aca="false">IF(ISBLANK(A374),"",C374)</f>
         <v/>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C375" s="1" t="str">
-        <f aca="false">A375 &amp;" " &amp;"""" &amp;B375 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D375" s="1" t="str">
         <f aca="false">IF(ISBLANK(A375),"",C375)</f>
         <v/>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C376" s="1" t="str">
-        <f aca="false">A376 &amp;" " &amp;"""" &amp;B376 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D376" s="1" t="str">
         <f aca="false">IF(ISBLANK(A376),"",C376)</f>
         <v/>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C377" s="1" t="str">
-        <f aca="false">A377 &amp;" " &amp;"""" &amp;B377 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D377" s="1" t="str">
         <f aca="false">IF(ISBLANK(A377),"",C377)</f>
         <v/>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C378" s="1" t="str">
-        <f aca="false">A378 &amp;" " &amp;"""" &amp;B378 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D378" s="1" t="str">
         <f aca="false">IF(ISBLANK(A378),"",C378)</f>
         <v/>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C379" s="1" t="str">
-        <f aca="false">A379 &amp;" " &amp;"""" &amp;B379 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D379" s="1" t="str">
         <f aca="false">IF(ISBLANK(A379),"",C379)</f>
         <v/>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C380" s="1" t="str">
-        <f aca="false">A380 &amp;" " &amp;"""" &amp;B380 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D380" s="1" t="str">
         <f aca="false">IF(ISBLANK(A380),"",C380)</f>
         <v/>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C381" s="1" t="str">
-        <f aca="false">A381 &amp;" " &amp;"""" &amp;B381 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D381" s="1" t="str">
         <f aca="false">IF(ISBLANK(A381),"",C381)</f>
         <v/>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C382" s="1" t="str">
-        <f aca="false">A382 &amp;" " &amp;"""" &amp;B382 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D382" s="1" t="str">
         <f aca="false">IF(ISBLANK(A382),"",C382)</f>
         <v/>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C383" s="1" t="str">
-        <f aca="false">A383 &amp;" " &amp;"""" &amp;B383 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D383" s="1" t="str">
         <f aca="false">IF(ISBLANK(A383),"",C383)</f>
         <v/>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C384" s="1" t="str">
-        <f aca="false">A384 &amp;" " &amp;"""" &amp;B384 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D384" s="1" t="str">
         <f aca="false">IF(ISBLANK(A384),"",C384)</f>
         <v/>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C385" s="1" t="str">
-        <f aca="false">A385 &amp;" " &amp;"""" &amp;B385 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D385" s="1" t="str">
         <f aca="false">IF(ISBLANK(A385),"",C385)</f>
         <v/>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C386" s="1" t="str">
-        <f aca="false">A386 &amp;" " &amp;"""" &amp;B386 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D386" s="1" t="str">
         <f aca="false">IF(ISBLANK(A386),"",C386)</f>
         <v/>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C387" s="1" t="str">
-        <f aca="false">A387 &amp;" " &amp;"""" &amp;B387 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D387" s="1" t="str">
         <f aca="false">IF(ISBLANK(A387),"",C387)</f>
         <v/>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C388" s="1" t="str">
-        <f aca="false">A388 &amp;" " &amp;"""" &amp;B388 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D388" s="1" t="str">
         <f aca="false">IF(ISBLANK(A388),"",C388)</f>
         <v/>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C389" s="1" t="str">
-        <f aca="false">A389 &amp;" " &amp;"""" &amp;B389 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D389" s="1" t="str">
         <f aca="false">IF(ISBLANK(A389),"",C389)</f>
         <v/>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C390" s="1" t="str">
-        <f aca="false">A390 &amp;" " &amp;"""" &amp;B390 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D390" s="1" t="str">
         <f aca="false">IF(ISBLANK(A390),"",C390)</f>
         <v/>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C391" s="1" t="str">
-        <f aca="false">A391 &amp;" " &amp;"""" &amp;B391 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D391" s="1" t="str">
         <f aca="false">IF(ISBLANK(A391),"",C391)</f>
         <v/>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C392" s="1" t="str">
-        <f aca="false">A392 &amp;" " &amp;"""" &amp;B392 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D392" s="1" t="str">
         <f aca="false">IF(ISBLANK(A392),"",C392)</f>
         <v/>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C393" s="1" t="str">
-        <f aca="false">A393 &amp;" " &amp;"""" &amp;B393 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D393" s="1" t="str">
         <f aca="false">IF(ISBLANK(A393),"",C393)</f>
         <v/>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C394" s="1" t="str">
-        <f aca="false">A394 &amp;" " &amp;"""" &amp;B394 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D394" s="1" t="str">
         <f aca="false">IF(ISBLANK(A394),"",C394)</f>
         <v/>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C395" s="1" t="str">
-        <f aca="false">A395 &amp;" " &amp;"""" &amp;B395 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D395" s="1" t="str">
         <f aca="false">IF(ISBLANK(A395),"",C395)</f>
         <v/>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C396" s="1" t="str">
-        <f aca="false">A396 &amp;" " &amp;"""" &amp;B396 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D396" s="1" t="str">
         <f aca="false">IF(ISBLANK(A396),"",C396)</f>
         <v/>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C397" s="1" t="str">
-        <f aca="false">A397 &amp;" " &amp;"""" &amp;B397 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D397" s="1" t="str">
         <f aca="false">IF(ISBLANK(A397),"",C397)</f>
         <v/>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C398" s="1" t="str">
-        <f aca="false">A398 &amp;" " &amp;"""" &amp;B398 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D398" s="1" t="str">
         <f aca="false">IF(ISBLANK(A398),"",C398)</f>
         <v/>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C399" s="1" t="str">
-        <f aca="false">A399 &amp;" " &amp;"""" &amp;B399 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D399" s="1" t="str">
         <f aca="false">IF(ISBLANK(A399),"",C399)</f>
         <v/>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C400" s="1" t="str">
-        <f aca="false">A400 &amp;" " &amp;"""" &amp;B400 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D400" s="1" t="str">
         <f aca="false">IF(ISBLANK(A400),"",C400)</f>
         <v/>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C401" s="1" t="str">
-        <f aca="false">A401 &amp;" " &amp;"""" &amp;B401 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D401" s="1" t="str">
         <f aca="false">IF(ISBLANK(A401),"",C401)</f>
         <v/>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C402" s="1" t="str">
-        <f aca="false">A402 &amp;" " &amp;"""" &amp;B402 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D402" s="1" t="str">
         <f aca="false">IF(ISBLANK(A402),"",C402)</f>
         <v/>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C403" s="1" t="str">
-        <f aca="false">A403 &amp;" " &amp;"""" &amp;B403 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D403" s="1" t="str">
         <f aca="false">IF(ISBLANK(A403),"",C403)</f>
         <v/>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C404" s="1" t="str">
-        <f aca="false">A404 &amp;" " &amp;"""" &amp;B404 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D404" s="1" t="str">
         <f aca="false">IF(ISBLANK(A404),"",C404)</f>
         <v/>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C405" s="1" t="str">
-        <f aca="false">A405 &amp;" " &amp;"""" &amp;B405 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D405" s="1" t="str">
         <f aca="false">IF(ISBLANK(A405),"",C405)</f>
         <v/>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C406" s="1" t="str">
-        <f aca="false">A406 &amp;" " &amp;"""" &amp;B406 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D406" s="1" t="str">
         <f aca="false">IF(ISBLANK(A406),"",C406)</f>
         <v/>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C407" s="1" t="str">
-        <f aca="false">A407 &amp;" " &amp;"""" &amp;B407 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D407" s="1" t="str">
         <f aca="false">IF(ISBLANK(A407),"",C407)</f>
         <v/>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C408" s="1" t="str">
-        <f aca="false">A408 &amp;" " &amp;"""" &amp;B408 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D408" s="1" t="str">
         <f aca="false">IF(ISBLANK(A408),"",C408)</f>
         <v/>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C409" s="1" t="str">
-        <f aca="false">A409 &amp;" " &amp;"""" &amp;B409 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D409" s="1" t="str">
         <f aca="false">IF(ISBLANK(A409),"",C409)</f>
         <v/>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C410" s="1" t="str">
-        <f aca="false">A410 &amp;" " &amp;"""" &amp;B410 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D410" s="1" t="str">
         <f aca="false">IF(ISBLANK(A410),"",C410)</f>
         <v/>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C411" s="1" t="str">
-        <f aca="false">A411 &amp;" " &amp;"""" &amp;B411 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D411" s="1" t="str">
         <f aca="false">IF(ISBLANK(A411),"",C411)</f>
         <v/>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C412" s="1" t="str">
-        <f aca="false">A412 &amp;" " &amp;"""" &amp;B412 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D412" s="1" t="str">
         <f aca="false">IF(ISBLANK(A412),"",C412)</f>
         <v/>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C413" s="1" t="str">
-        <f aca="false">A413 &amp;" " &amp;"""" &amp;B413 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D413" s="1" t="str">
         <f aca="false">IF(ISBLANK(A413),"",C413)</f>
         <v/>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C414" s="1" t="str">
-        <f aca="false">A414 &amp;" " &amp;"""" &amp;B414 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D414" s="1" t="str">
         <f aca="false">IF(ISBLANK(A414),"",C414)</f>
         <v/>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C415" s="1" t="str">
-        <f aca="false">A415 &amp;" " &amp;"""" &amp;B415 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D415" s="1" t="str">
         <f aca="false">IF(ISBLANK(A415),"",C415)</f>
         <v/>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C416" s="1" t="str">
-        <f aca="false">A416 &amp;" " &amp;"""" &amp;B416 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D416" s="1" t="str">
         <f aca="false">IF(ISBLANK(A416),"",C416)</f>
         <v/>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C417" s="1" t="str">
-        <f aca="false">A417 &amp;" " &amp;"""" &amp;B417 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D417" s="1" t="str">
         <f aca="false">IF(ISBLANK(A417),"",C417)</f>
         <v/>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C418" s="1" t="str">
-        <f aca="false">A418 &amp;" " &amp;"""" &amp;B418 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D418" s="1" t="str">
         <f aca="false">IF(ISBLANK(A418),"",C418)</f>
         <v/>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C419" s="1" t="str">
-        <f aca="false">A419 &amp;" " &amp;"""" &amp;B419 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D419" s="1" t="str">
         <f aca="false">IF(ISBLANK(A419),"",C419)</f>
         <v/>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C420" s="1" t="str">
-        <f aca="false">A420 &amp;" " &amp;"""" &amp;B420 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D420" s="1" t="str">
         <f aca="false">IF(ISBLANK(A420),"",C420)</f>
         <v/>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C421" s="1" t="str">
-        <f aca="false">A421 &amp;" " &amp;"""" &amp;B421 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D421" s="1" t="str">
         <f aca="false">IF(ISBLANK(A421),"",C421)</f>
         <v/>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C422" s="1" t="str">
-        <f aca="false">A422 &amp;" " &amp;"""" &amp;B422 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D422" s="1" t="str">
         <f aca="false">IF(ISBLANK(A422),"",C422)</f>
         <v/>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C423" s="1" t="str">
-        <f aca="false">A423 &amp;" " &amp;"""" &amp;B423 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D423" s="1" t="str">
         <f aca="false">IF(ISBLANK(A423),"",C423)</f>
         <v/>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C424" s="1" t="str">
-        <f aca="false">A424 &amp;" " &amp;"""" &amp;B424 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D424" s="1" t="str">
         <f aca="false">IF(ISBLANK(A424),"",C424)</f>
         <v/>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C425" s="1" t="str">
-        <f aca="false">A425 &amp;" " &amp;"""" &amp;B425 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D425" s="1" t="str">
         <f aca="false">IF(ISBLANK(A425),"",C425)</f>
         <v/>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C426" s="1" t="str">
-        <f aca="false">A426 &amp;" " &amp;"""" &amp;B426 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D426" s="1" t="str">
         <f aca="false">IF(ISBLANK(A426),"",C426)</f>
         <v/>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C427" s="1" t="str">
-        <f aca="false">A427 &amp;" " &amp;"""" &amp;B427 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D427" s="1" t="str">
         <f aca="false">IF(ISBLANK(A427),"",C427)</f>
         <v/>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C428" s="1" t="str">
-        <f aca="false">A428 &amp;" " &amp;"""" &amp;B428 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D428" s="1" t="str">
         <f aca="false">IF(ISBLANK(A428),"",C428)</f>
         <v/>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C429" s="1" t="str">
-        <f aca="false">A429 &amp;" " &amp;"""" &amp;B429 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D429" s="1" t="str">
         <f aca="false">IF(ISBLANK(A429),"",C429)</f>
         <v/>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C430" s="1" t="str">
-        <f aca="false">A430 &amp;" " &amp;"""" &amp;B430 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D430" s="1" t="str">
         <f aca="false">IF(ISBLANK(A430),"",C430)</f>
         <v/>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C431" s="1" t="str">
-        <f aca="false">A431 &amp;" " &amp;"""" &amp;B431 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D431" s="1" t="str">
         <f aca="false">IF(ISBLANK(A431),"",C431)</f>
         <v/>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C432" s="1" t="str">
-        <f aca="false">A432 &amp;" " &amp;"""" &amp;B432 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D432" s="1" t="str">
         <f aca="false">IF(ISBLANK(A432),"",C432)</f>
         <v/>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C433" s="1" t="str">
-        <f aca="false">A433 &amp;" " &amp;"""" &amp;B433 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D433" s="1" t="str">
         <f aca="false">IF(ISBLANK(A433),"",C433)</f>
         <v/>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C434" s="1" t="str">
-        <f aca="false">A434 &amp;" " &amp;"""" &amp;B434 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D434" s="1" t="str">
         <f aca="false">IF(ISBLANK(A434),"",C434)</f>
         <v/>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C435" s="1" t="str">
-        <f aca="false">A435 &amp;" " &amp;"""" &amp;B435 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D435" s="1" t="str">
         <f aca="false">IF(ISBLANK(A435),"",C435)</f>
         <v/>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C436" s="1" t="str">
-        <f aca="false">A436 &amp;" " &amp;"""" &amp;B436 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D436" s="1" t="str">
         <f aca="false">IF(ISBLANK(A436),"",C436)</f>
         <v/>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C437" s="1" t="str">
-        <f aca="false">A437 &amp;" " &amp;"""" &amp;B437 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D437" s="1" t="str">
         <f aca="false">IF(ISBLANK(A437),"",C437)</f>
         <v/>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C438" s="1" t="str">
-        <f aca="false">A438 &amp;" " &amp;"""" &amp;B438 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D438" s="1" t="str">
         <f aca="false">IF(ISBLANK(A438),"",C438)</f>
         <v/>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C439" s="1" t="str">
-        <f aca="false">A439 &amp;" " &amp;"""" &amp;B439 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D439" s="1" t="str">
         <f aca="false">IF(ISBLANK(A439),"",C439)</f>
         <v/>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C440" s="1" t="str">
-        <f aca="false">A440 &amp;" " &amp;"""" &amp;B440 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D440" s="1" t="str">
         <f aca="false">IF(ISBLANK(A440),"",C440)</f>
         <v/>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C441" s="1" t="str">
-        <f aca="false">A441 &amp;" " &amp;"""" &amp;B441 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D441" s="1" t="str">
         <f aca="false">IF(ISBLANK(A441),"",C441)</f>
         <v/>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C442" s="1" t="str">
-        <f aca="false">A442 &amp;" " &amp;"""" &amp;B442 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D442" s="1" t="str">
         <f aca="false">IF(ISBLANK(A442),"",C442)</f>
         <v/>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C443" s="1" t="str">
-        <f aca="false">A443 &amp;" " &amp;"""" &amp;B443 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D443" s="1" t="str">
         <f aca="false">IF(ISBLANK(A443),"",C443)</f>
         <v/>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C444" s="1" t="str">
-        <f aca="false">A444 &amp;" " &amp;"""" &amp;B444 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D444" s="1" t="str">
         <f aca="false">IF(ISBLANK(A444),"",C444)</f>
         <v/>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C445" s="1" t="str">
-        <f aca="false">A445 &amp;" " &amp;"""" &amp;B445 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D445" s="1" t="str">
         <f aca="false">IF(ISBLANK(A445),"",C445)</f>
         <v/>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C446" s="1" t="str">
-        <f aca="false">A446 &amp;" " &amp;"""" &amp;B446 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D446" s="1" t="str">
         <f aca="false">IF(ISBLANK(A446),"",C446)</f>
         <v/>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C447" s="1" t="str">
-        <f aca="false">A447 &amp;" " &amp;"""" &amp;B447 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D447" s="1" t="str">
         <f aca="false">IF(ISBLANK(A447),"",C447)</f>
         <v/>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C448" s="1" t="str">
-        <f aca="false">A448 &amp;" " &amp;"""" &amp;B448 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D448" s="1" t="str">
         <f aca="false">IF(ISBLANK(A448),"",C448)</f>
         <v/>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C449" s="1" t="str">
-        <f aca="false">A449 &amp;" " &amp;"""" &amp;B449 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D449" s="1" t="str">
         <f aca="false">IF(ISBLANK(A449),"",C449)</f>
         <v/>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C450" s="1" t="str">
-        <f aca="false">A450 &amp;" " &amp;"""" &amp;B450 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D450" s="1" t="str">
         <f aca="false">IF(ISBLANK(A450),"",C450)</f>
         <v/>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C451" s="1" t="str">
-        <f aca="false">A451 &amp;" " &amp;"""" &amp;B451 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D451" s="1" t="str">
         <f aca="false">IF(ISBLANK(A451),"",C451)</f>
         <v/>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C452" s="1" t="str">
-        <f aca="false">A452 &amp;" " &amp;"""" &amp;B452 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D452" s="1" t="str">
         <f aca="false">IF(ISBLANK(A452),"",C452)</f>
         <v/>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C453" s="1" t="str">
-        <f aca="false">A453 &amp;" " &amp;"""" &amp;B453 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D453" s="1" t="str">
         <f aca="false">IF(ISBLANK(A453),"",C453)</f>
         <v/>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C454" s="1" t="str">
-        <f aca="false">A454 &amp;" " &amp;"""" &amp;B454 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D454" s="1" t="str">
         <f aca="false">IF(ISBLANK(A454),"",C454)</f>
         <v/>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C455" s="1" t="str">
-        <f aca="false">A455 &amp;" " &amp;"""" &amp;B455 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D455" s="1" t="str">
         <f aca="false">IF(ISBLANK(A455),"",C455)</f>
         <v/>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C456" s="1" t="str">
-        <f aca="false">A456 &amp;" " &amp;"""" &amp;B456 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D456" s="1" t="str">
         <f aca="false">IF(ISBLANK(A456),"",C456)</f>
         <v/>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C457" s="1" t="str">
-        <f aca="false">A457 &amp;" " &amp;"""" &amp;B457 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D457" s="1" t="str">
         <f aca="false">IF(ISBLANK(A457),"",C457)</f>
         <v/>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C458" s="1" t="str">
-        <f aca="false">A458 &amp;" " &amp;"""" &amp;B458 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D458" s="1" t="str">
         <f aca="false">IF(ISBLANK(A458),"",C458)</f>
         <v/>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C459" s="1" t="str">
-        <f aca="false">A459 &amp;" " &amp;"""" &amp;B459 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D459" s="1" t="str">
         <f aca="false">IF(ISBLANK(A459),"",C459)</f>
         <v/>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C460" s="1" t="str">
-        <f aca="false">A460 &amp;" " &amp;"""" &amp;B460 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D460" s="1" t="str">
         <f aca="false">IF(ISBLANK(A460),"",C460)</f>
         <v/>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C461" s="1" t="str">
-        <f aca="false">A461 &amp;" " &amp;"""" &amp;B461 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D461" s="1" t="str">
         <f aca="false">IF(ISBLANK(A461),"",C461)</f>
         <v/>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C462" s="1" t="str">
-        <f aca="false">A462 &amp;" " &amp;"""" &amp;B462 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D462" s="1" t="str">
         <f aca="false">IF(ISBLANK(A462),"",C462)</f>
         <v/>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C463" s="1" t="str">
-        <f aca="false">A463 &amp;" " &amp;"""" &amp;B463 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D463" s="1" t="str">
         <f aca="false">IF(ISBLANK(A463),"",C463)</f>
         <v/>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C464" s="1" t="str">
-        <f aca="false">A464 &amp;" " &amp;"""" &amp;B464 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D464" s="1" t="str">
         <f aca="false">IF(ISBLANK(A464),"",C464)</f>
         <v/>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C465" s="1" t="str">
-        <f aca="false">A465 &amp;" " &amp;"""" &amp;B465 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D465" s="1" t="str">
         <f aca="false">IF(ISBLANK(A465),"",C465)</f>
         <v/>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C466" s="1" t="str">
-        <f aca="false">A466 &amp;" " &amp;"""" &amp;B466 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D466" s="1" t="str">
         <f aca="false">IF(ISBLANK(A466),"",C466)</f>
         <v/>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C467" s="1" t="str">
-        <f aca="false">A467 &amp;" " &amp;"""" &amp;B467 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D467" s="1" t="str">
         <f aca="false">IF(ISBLANK(A467),"",C467)</f>
         <v/>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C468" s="1" t="str">
-        <f aca="false">A468 &amp;" " &amp;"""" &amp;B468 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D468" s="1" t="str">
         <f aca="false">IF(ISBLANK(A468),"",C468)</f>
         <v/>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C469" s="1" t="str">
-        <f aca="false">A469 &amp;" " &amp;"""" &amp;B469 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D469" s="1" t="str">
         <f aca="false">IF(ISBLANK(A469),"",C469)</f>
         <v/>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C470" s="1" t="str">
-        <f aca="false">A470 &amp;" " &amp;"""" &amp;B470 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D470" s="1" t="str">
         <f aca="false">IF(ISBLANK(A470),"",C470)</f>
         <v/>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C471" s="1" t="str">
-        <f aca="false">A471 &amp;" " &amp;"""" &amp;B471 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D471" s="1" t="str">
         <f aca="false">IF(ISBLANK(A471),"",C471)</f>
         <v/>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C472" s="1" t="str">
-        <f aca="false">A472 &amp;" " &amp;"""" &amp;B472 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D472" s="1" t="str">
         <f aca="false">IF(ISBLANK(A472),"",C472)</f>
         <v/>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C473" s="1" t="str">
-        <f aca="false">A473 &amp;" " &amp;"""" &amp;B473 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D473" s="1" t="str">
         <f aca="false">IF(ISBLANK(A473),"",C473)</f>
         <v/>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C474" s="1" t="str">
-        <f aca="false">A474 &amp;" " &amp;"""" &amp;B474 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D474" s="1" t="str">
         <f aca="false">IF(ISBLANK(A474),"",C474)</f>
         <v/>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C475" s="1" t="str">
-        <f aca="false">A475 &amp;" " &amp;"""" &amp;B475 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D475" s="1" t="str">
         <f aca="false">IF(ISBLANK(A475),"",C475)</f>
         <v/>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C476" s="1" t="str">
-        <f aca="false">A476 &amp;" " &amp;"""" &amp;B476 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D476" s="1" t="str">
         <f aca="false">IF(ISBLANK(A476),"",C476)</f>
         <v/>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C477" s="1" t="str">
-        <f aca="false">A477 &amp;" " &amp;"""" &amp;B477 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D477" s="1" t="str">
         <f aca="false">IF(ISBLANK(A477),"",C477)</f>
         <v/>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C478" s="1" t="str">
-        <f aca="false">A478 &amp;" " &amp;"""" &amp;B478 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D478" s="1" t="str">
         <f aca="false">IF(ISBLANK(A478),"",C478)</f>
         <v/>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C479" s="1" t="str">
-        <f aca="false">A479 &amp;" " &amp;"""" &amp;B479 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D479" s="1" t="str">
         <f aca="false">IF(ISBLANK(A479),"",C479)</f>
         <v/>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C480" s="1" t="str">
-        <f aca="false">A480 &amp;" " &amp;"""" &amp;B480 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D480" s="1" t="str">
         <f aca="false">IF(ISBLANK(A480),"",C480)</f>
         <v/>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C481" s="1" t="str">
-        <f aca="false">A481 &amp;" " &amp;"""" &amp;B481 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D481" s="1" t="str">
         <f aca="false">IF(ISBLANK(A481),"",C481)</f>
         <v/>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C482" s="1" t="str">
-        <f aca="false">A482 &amp;" " &amp;"""" &amp;B482 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D482" s="1" t="str">
         <f aca="false">IF(ISBLANK(A482),"",C482)</f>
         <v/>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C483" s="1" t="str">
-        <f aca="false">A483 &amp;" " &amp;"""" &amp;B483 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D483" s="1" t="str">
         <f aca="false">IF(ISBLANK(A483),"",C483)</f>
         <v/>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C484" s="1" t="str">
-        <f aca="false">A484 &amp;" " &amp;"""" &amp;B484 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D484" s="1" t="str">
         <f aca="false">IF(ISBLANK(A484),"",C484)</f>
         <v/>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C485" s="1" t="str">
-        <f aca="false">A485 &amp;" " &amp;"""" &amp;B485 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D485" s="1" t="str">
         <f aca="false">IF(ISBLANK(A485),"",C485)</f>
         <v/>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C486" s="1" t="str">
-        <f aca="false">A486 &amp;" " &amp;"""" &amp;B486 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D486" s="1" t="str">
         <f aca="false">IF(ISBLANK(A486),"",C486)</f>
         <v/>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C487" s="1" t="str">
-        <f aca="false">A487 &amp;" " &amp;"""" &amp;B487 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D487" s="1" t="str">
         <f aca="false">IF(ISBLANK(A487),"",C487)</f>
         <v/>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C488" s="1" t="str">
-        <f aca="false">A488 &amp;" " &amp;"""" &amp;B488 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D488" s="1" t="str">
         <f aca="false">IF(ISBLANK(A488),"",C488)</f>
         <v/>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C489" s="1" t="str">
-        <f aca="false">A489 &amp;" " &amp;"""" &amp;B489 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D489" s="1" t="str">
         <f aca="false">IF(ISBLANK(A489),"",C489)</f>
         <v/>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C490" s="1" t="str">
-        <f aca="false">A490 &amp;" " &amp;"""" &amp;B490 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D490" s="1" t="str">
         <f aca="false">IF(ISBLANK(A490),"",C490)</f>
         <v/>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C491" s="1" t="str">
-        <f aca="false">A491 &amp;" " &amp;"""" &amp;B491 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D491" s="1" t="str">
         <f aca="false">IF(ISBLANK(A491),"",C491)</f>
         <v/>
